--- a/Merged Ozone and PMF.xlsx
+++ b/Merged Ozone and PMF.xlsx
@@ -450,16 +450,16 @@
         <v>0.01101443210334847</v>
       </c>
       <c r="D2">
-        <v>0.02372057011561797</v>
+        <v>0.02372057011561798</v>
       </c>
       <c r="E2">
-        <v>0.1743049838168571</v>
+        <v>0.1743049838168572</v>
       </c>
       <c r="F2">
         <v>0.2871789090201256</v>
       </c>
       <c r="G2">
-        <v>0.02189025607722716</v>
+        <v>0.02189025607722717</v>
       </c>
       <c r="H2">
         <v>0.3792266773296505</v>
@@ -479,22 +479,22 @@
         <v>0.0194199800880361</v>
       </c>
       <c r="D3">
-        <v>0.009837590522030933</v>
+        <v>0.009837590522030934</v>
       </c>
       <c r="E3">
-        <v>0.05537446197960878</v>
+        <v>0.0553744619796088</v>
       </c>
       <c r="F3">
         <v>0.1907111661671136</v>
       </c>
       <c r="G3">
-        <v>0.2840219373073006</v>
+        <v>0.2840219373073007</v>
       </c>
       <c r="H3">
-        <v>0.2918455591647103</v>
+        <v>0.2918455591647104</v>
       </c>
       <c r="I3">
-        <v>0.1487893047711995</v>
+        <v>0.1487893047711996</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -505,25 +505,25 @@
         <v>53</v>
       </c>
       <c r="C4">
-        <v>0.07394715002793451</v>
+        <v>0.07133028082893053</v>
       </c>
       <c r="D4">
-        <v>-0.03668665212856718</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.03150460741756305</v>
+        <v>0.03038971067378606</v>
       </c>
       <c r="F4">
-        <v>0.09473208586273262</v>
+        <v>0.09137967163773629</v>
       </c>
       <c r="G4">
-        <v>0.3147913242901689</v>
+        <v>0.3036513720359247</v>
       </c>
       <c r="H4">
-        <v>0.3286137963354686</v>
+        <v>0.3169846893087176</v>
       </c>
       <c r="I4">
-        <v>0.1930976881946996</v>
+        <v>0.1862642755149046</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -540,7 +540,7 @@
         <v>0.1218245100219759</v>
       </c>
       <c r="E5">
-        <v>0.1604826269819485</v>
+        <v>0.1604826269819484</v>
       </c>
       <c r="F5">
         <v>0.1977379288133115</v>
@@ -552,7 +552,7 @@
         <v>0.2206088338516949</v>
       </c>
       <c r="I5">
-        <v>0.07911477363564748</v>
+        <v>0.07911477363564746</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -563,25 +563,25 @@
         <v>28</v>
       </c>
       <c r="C6">
-        <v>0.01287417072366838</v>
+        <v>0.0124236589004108</v>
       </c>
       <c r="D6">
-        <v>0.5831795832892052</v>
+        <v>0.5627721098298699</v>
       </c>
       <c r="E6">
-        <v>0.1251707930896338</v>
+        <v>0.1207906335109095</v>
       </c>
       <c r="F6">
-        <v>0.2427090443842684</v>
+        <v>0.2342158142995034</v>
       </c>
       <c r="G6">
-        <v>0.07232881935924984</v>
+        <v>0.06979778345930654</v>
       </c>
       <c r="H6">
-        <v>-0.02707155827484866</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>-0.009190852571176942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -595,7 +595,7 @@
         <v>0.04800090487811188</v>
       </c>
       <c r="D7">
-        <v>0.03146014385071665</v>
+        <v>0.03146014385071664</v>
       </c>
       <c r="E7">
         <v>0.1722475105093607</v>
@@ -621,7 +621,7 @@
         <v>33</v>
       </c>
       <c r="C8">
-        <v>0.02803348350629386</v>
+        <v>0.02803348350629385</v>
       </c>
       <c r="D8">
         <v>0.02417150304262166</v>
@@ -630,7 +630,7 @@
         <v>0.2346819562957952</v>
       </c>
       <c r="F8">
-        <v>0.3004748971376449</v>
+        <v>0.300474897137645</v>
       </c>
       <c r="G8">
         <v>0.02107784697003463</v>
@@ -653,7 +653,7 @@
         <v>0.1428327482524549</v>
       </c>
       <c r="D9">
-        <v>0.00819114554309601</v>
+        <v>0.008191145543096011</v>
       </c>
       <c r="E9">
         <v>0.2937687165615377</v>
@@ -691,13 +691,13 @@
         <v>0.1794834154161131</v>
       </c>
       <c r="G10">
-        <v>0.1275438383552894</v>
+        <v>0.1275438383552895</v>
       </c>
       <c r="H10">
         <v>0.3791558438696501</v>
       </c>
       <c r="I10">
-        <v>0.06472254904503437</v>
+        <v>0.06472254904503436</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -708,25 +708,25 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <v>-0.002670236019524919</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1015743056044669</v>
+        <v>0.1013038005473307</v>
       </c>
       <c r="E11">
-        <v>0.01238443245684015</v>
+        <v>0.01235145116704052</v>
       </c>
       <c r="F11">
-        <v>0.07945485177291706</v>
+        <v>0.07924325358289566</v>
       </c>
       <c r="G11">
-        <v>0.2069935456196026</v>
+        <v>0.2064422959649635</v>
       </c>
       <c r="H11">
-        <v>0.09008916376712431</v>
+        <v>0.08984924507659366</v>
       </c>
       <c r="I11">
-        <v>0.5121739367985739</v>
+        <v>0.510809953661176</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -746,7 +746,7 @@
         <v>0.2168137348107006</v>
       </c>
       <c r="F12">
-        <v>0.4081483772827845</v>
+        <v>0.4081483772827844</v>
       </c>
       <c r="G12">
         <v>0.1889711893176459</v>
@@ -766,25 +766,25 @@
         <v>61</v>
       </c>
       <c r="C13">
-        <v>0.0439848681570816</v>
+        <v>0.03717929433034887</v>
       </c>
       <c r="D13">
-        <v>0.005711688870297451</v>
+        <v>0.004827945848872055</v>
       </c>
       <c r="E13">
-        <v>0.324025472654387</v>
+        <v>0.2738905201517191</v>
       </c>
       <c r="F13">
-        <v>0.4194709115751222</v>
+        <v>0.3545681307665874</v>
       </c>
       <c r="G13">
-        <v>0.3092646579818455</v>
+        <v>0.2614135775971511</v>
       </c>
       <c r="H13">
-        <v>-0.1830474179058703</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.08058981866713645</v>
+        <v>0.06812053130532136</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -795,25 +795,25 @@
         <v>57</v>
       </c>
       <c r="C14">
-        <v>0.08195839752933159</v>
+        <v>0.07703059123068123</v>
       </c>
       <c r="D14">
-        <v>-0.04544207651137134</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1818349873843832</v>
+        <v>0.1709020308703531</v>
       </c>
       <c r="F14">
-        <v>-0.01852999250590002</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>0.3105955015703041</v>
+        <v>0.2919207285743722</v>
       </c>
       <c r="H14">
-        <v>0.2180763029116907</v>
+        <v>0.2049643118104736</v>
       </c>
       <c r="I14">
-        <v>0.2715068796215618</v>
+        <v>0.2551823375141199</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -824,25 +824,25 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>0.01548106755982529</v>
+        <v>0.01546525301089881</v>
       </c>
       <c r="D15">
-        <v>-0.00102258585199593</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1198296417561744</v>
+        <v>0.1197072308355404</v>
       </c>
       <c r="F15">
-        <v>0.2026521310822212</v>
+        <v>0.2024451135732754</v>
       </c>
       <c r="G15">
-        <v>0.2734111629278443</v>
+        <v>0.2731318621498806</v>
       </c>
       <c r="H15">
-        <v>0.3614242962443212</v>
+        <v>0.3610550864211557</v>
       </c>
       <c r="I15">
-        <v>0.02822428628160953</v>
+        <v>0.02819545400924907</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -853,13 +853,13 @@
         <v>26</v>
       </c>
       <c r="C16">
-        <v>0.05503481542642364</v>
+        <v>0.05503481542642363</v>
       </c>
       <c r="D16">
-        <v>0.009087164766078277</v>
+        <v>0.009087164766078275</v>
       </c>
       <c r="E16">
-        <v>0.2655122756929033</v>
+        <v>0.2655122756929032</v>
       </c>
       <c r="F16">
         <v>0.1751800784970273</v>
@@ -871,7 +871,7 @@
         <v>0.3051984468223462</v>
       </c>
       <c r="I16">
-        <v>0.06355146401303706</v>
+        <v>0.06355146401303705</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -882,25 +882,25 @@
         <v>52</v>
       </c>
       <c r="C17">
-        <v>-0.00578943166935635</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0.3266688274886488</v>
+        <v>0.3247884867376873</v>
       </c>
       <c r="E17">
-        <v>0.05146560443853967</v>
+        <v>0.05116936290841689</v>
       </c>
       <c r="F17">
-        <v>0.2807441839195234</v>
+        <v>0.2791281903345902</v>
       </c>
       <c r="G17">
-        <v>0.1236623294476999</v>
+        <v>0.1229505158375463</v>
       </c>
       <c r="H17">
-        <v>0.1992794419422994</v>
+        <v>0.1981323681354911</v>
       </c>
       <c r="I17">
-        <v>0.02396904443264518</v>
+        <v>0.02383107604626807</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -917,7 +917,7 @@
         <v>0.2570377983172926</v>
       </c>
       <c r="E18">
-        <v>0.1902618521366781</v>
+        <v>0.190261852136678</v>
       </c>
       <c r="F18">
         <v>0.2736066182881984</v>
@@ -929,7 +929,7 @@
         <v>0.1537392020182646</v>
       </c>
       <c r="I18">
-        <v>0.0129198195866168</v>
+        <v>0.01291981958661681</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -940,25 +940,25 @@
         <v>29</v>
       </c>
       <c r="C19">
-        <v>0.1077331809509969</v>
+        <v>0.1021399420029352</v>
       </c>
       <c r="D19">
-        <v>-0.05476054556503452</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1042694991810577</v>
+        <v>0.09885608598034981</v>
       </c>
       <c r="F19">
-        <v>0.007450259891817702</v>
+        <v>0.007063460918351475</v>
       </c>
       <c r="G19">
-        <v>0.460574854016392</v>
+        <v>0.4366629525089626</v>
       </c>
       <c r="H19">
-        <v>0.06719162989296422</v>
+        <v>0.06370320749622817</v>
       </c>
       <c r="I19">
-        <v>0.3075411216318059</v>
+        <v>0.2915743510931729</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -969,25 +969,25 @@
         <v>25</v>
       </c>
       <c r="C20">
-        <v>0.02192082799467983</v>
+        <v>0.01873714857454878</v>
       </c>
       <c r="D20">
-        <v>-0.07548432247900402</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>-0.04378595857534975</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>-0.05064241443739988</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>0.6614604059693264</v>
+        <v>0.5653929635247631</v>
       </c>
       <c r="H20">
-        <v>0.08422930383454405</v>
+        <v>0.07199623028207214</v>
       </c>
       <c r="I20">
-        <v>0.4023021576932034</v>
+        <v>0.3438736576186159</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -998,25 +998,25 @@
         <v>16</v>
       </c>
       <c r="C21">
-        <v>0.02712988745157342</v>
+        <v>0.02610422271400311</v>
       </c>
       <c r="D21">
-        <v>-0.02306435134783475</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>0.0825731134487436</v>
+        <v>0.07945137802367248</v>
       </c>
       <c r="F21">
-        <v>-0.01622679126949001</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>0.4961511607222039</v>
+        <v>0.4773938123562846</v>
       </c>
       <c r="H21">
-        <v>0.1001023810613437</v>
+        <v>0.096317939176551</v>
       </c>
       <c r="I21">
-        <v>0.3333345999334602</v>
+        <v>0.3207326477294886</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="C22">
-        <v>0.07809345833278637</v>
+        <v>0.07093900927509375</v>
       </c>
       <c r="D22">
-        <v>-0.05679211805929547</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>-0.0440614057043144</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>0.05261820044892458</v>
+        <v>0.04779764002483538</v>
       </c>
       <c r="G22">
-        <v>0.487237061492356</v>
+        <v>0.4425993567487386</v>
       </c>
       <c r="H22">
-        <v>0.1719524369512015</v>
+        <v>0.1561991974766349</v>
       </c>
       <c r="I22">
-        <v>0.3109523665383414</v>
+        <v>0.2824647964746973</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1056,25 +1056,25 @@
         <v>9</v>
       </c>
       <c r="C23">
-        <v>0.01256941438519419</v>
+        <v>0.009617352275024726</v>
       </c>
       <c r="D23">
-        <v>-0.003999945552048036</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>-0.04898548692461794</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>0.0360494592122064</v>
+        <v>0.02758285612544614</v>
       </c>
       <c r="G23">
-        <v>1.040908795795179</v>
+        <v>0.796440173627019</v>
       </c>
       <c r="H23">
-        <v>-0.2539662134389842</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.2174239765230708</v>
+        <v>0.1663596179725101</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1085,25 +1085,25 @@
         <v>15</v>
       </c>
       <c r="C24">
-        <v>-0.0007225491672111158</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>-0.005155063000638295</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>0.0693256123230144</v>
+        <v>0.06268941929863839</v>
       </c>
       <c r="F24">
-        <v>0.09545615571234328</v>
+        <v>0.08631861688007957</v>
       </c>
       <c r="G24">
-        <v>0.6860070103091753</v>
+        <v>0.6203390012727015</v>
       </c>
       <c r="H24">
-        <v>-0.09998065065578086</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.2550694844790971</v>
+        <v>0.2306529625485806</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1126,13 +1126,13 @@
         <v>0.1386233513521661</v>
       </c>
       <c r="G25">
-        <v>0.09964593903450362</v>
+        <v>0.09964593903450361</v>
       </c>
       <c r="H25">
         <v>0.153641286050534</v>
       </c>
       <c r="I25">
-        <v>0.03124488793192046</v>
+        <v>0.03124488793192045</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1143,7 +1143,7 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>0.02978073694361966</v>
+        <v>0.02978073694361965</v>
       </c>
       <c r="D26">
         <v>0.3912061842730553</v>
@@ -1172,25 +1172,25 @@
         <v>23</v>
       </c>
       <c r="C27">
-        <v>0.003787166911812597</v>
+        <v>0.003783872041652551</v>
       </c>
       <c r="D27">
-        <v>0.5364070468687021</v>
+        <v>0.5359403677881333</v>
       </c>
       <c r="E27">
-        <v>0.133750880324731</v>
+        <v>0.133634515824638</v>
       </c>
       <c r="F27">
-        <v>0.2100277078588967</v>
+        <v>0.2098449818149908</v>
       </c>
       <c r="G27">
-        <v>0.0776602998602325</v>
+        <v>0.07759273468272962</v>
       </c>
       <c r="H27">
-        <v>0.03923766497845994</v>
+        <v>0.03920352784785602</v>
       </c>
       <c r="I27">
-        <v>-0.0008707668028347642</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1204,10 +1204,10 @@
         <v>0.02413301215754479</v>
       </c>
       <c r="D28">
-        <v>0.426297595951912</v>
+        <v>0.4262975959519119</v>
       </c>
       <c r="E28">
-        <v>0.1267596010834888</v>
+        <v>0.1267596010834887</v>
       </c>
       <c r="F28">
         <v>0.2277920749799155</v>
@@ -1233,7 +1233,7 @@
         <v>0.01649093250899291</v>
       </c>
       <c r="D29">
-        <v>0.6800333496712705</v>
+        <v>0.6800333496712707</v>
       </c>
       <c r="E29">
         <v>0.1632310216632066</v>
@@ -1245,10 +1245,10 @@
         <v>0.06568905711861611</v>
       </c>
       <c r="H29">
-        <v>0.04967423562673924</v>
+        <v>0.04967423562673925</v>
       </c>
       <c r="I29">
-        <v>0.0008651587996577867</v>
+        <v>0.0008651587996577868</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1259,7 +1259,7 @@
         <v>32</v>
       </c>
       <c r="C30">
-        <v>0.00133329176750488</v>
+        <v>0.001333291767504881</v>
       </c>
       <c r="D30">
         <v>0.01428378557194741</v>
@@ -1268,7 +1268,7 @@
         <v>0.1626356624813516</v>
       </c>
       <c r="F30">
-        <v>0.4627734758046898</v>
+        <v>0.4627734758046899</v>
       </c>
       <c r="G30">
         <v>0.08948842992797039</v>
@@ -1277,7 +1277,7 @@
         <v>0.2415301430711685</v>
       </c>
       <c r="I30">
-        <v>0.02795521137536725</v>
+        <v>0.02795521137536726</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1291,22 +1291,22 @@
         <v>0.008246091404575044</v>
       </c>
       <c r="D31">
-        <v>0.631953213900704</v>
+        <v>0.6319532139007041</v>
       </c>
       <c r="E31">
-        <v>0.08713388663394808</v>
+        <v>0.0871338866339481</v>
       </c>
       <c r="F31">
         <v>0.1232924089140788</v>
       </c>
       <c r="G31">
-        <v>0.09803520918650518</v>
+        <v>0.0980352091865052</v>
       </c>
       <c r="H31">
         <v>0.05041797566005379</v>
       </c>
       <c r="I31">
-        <v>0.0009212143001351323</v>
+        <v>0.0009212143001351324</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1323,7 +1323,7 @@
         <v>0.0467531720891302</v>
       </c>
       <c r="E32">
-        <v>0.08427232838614597</v>
+        <v>0.08427232838614598</v>
       </c>
       <c r="F32">
         <v>0.2919537185869173</v>
@@ -1346,10 +1346,10 @@
         <v>34</v>
       </c>
       <c r="C33">
-        <v>0.004669421607057746</v>
+        <v>0.004669421607057747</v>
       </c>
       <c r="D33">
-        <v>0.4578666409022562</v>
+        <v>0.4578666409022563</v>
       </c>
       <c r="E33">
         <v>0.161269174202413</v>
@@ -1387,7 +1387,7 @@
         <v>0.2024628729114208</v>
       </c>
       <c r="G34">
-        <v>0.087779130187377</v>
+        <v>0.08777913018737701</v>
       </c>
       <c r="H34">
         <v>0.2493590729654132</v>
@@ -1404,25 +1404,25 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>-0.005240389197821674</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>0.3842863198802283</v>
+        <v>0.3822830081338926</v>
       </c>
       <c r="E35">
-        <v>0.05710266883972512</v>
+        <v>0.05680498859112977</v>
       </c>
       <c r="F35">
-        <v>0.3195299083781508</v>
+        <v>0.3178641763818647</v>
       </c>
       <c r="G35">
-        <v>0.1244483402871314</v>
+        <v>0.1237995822933863</v>
       </c>
       <c r="H35">
-        <v>0.1091441024790681</v>
+        <v>0.1085751265586978</v>
       </c>
       <c r="I35">
-        <v>0.01072904933351794</v>
+        <v>0.01067311804102865</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1433,25 +1433,25 @@
         <v>35</v>
       </c>
       <c r="C36">
-        <v>0.007984115599334008</v>
+        <v>0.007976533408134121</v>
       </c>
       <c r="D36">
-        <v>0.1953736293159556</v>
+        <v>0.1951880908935144</v>
       </c>
       <c r="E36">
-        <v>0.2201390663937212</v>
+        <v>0.2199300092387746</v>
       </c>
       <c r="F36">
-        <v>0.2942229745273845</v>
+        <v>0.2939435628855425</v>
       </c>
       <c r="G36">
-        <v>0.02899437282411482</v>
+        <v>0.02896683804261797</v>
       </c>
       <c r="H36">
-        <v>0.2542364035463948</v>
+        <v>0.2539949655314164</v>
       </c>
       <c r="I36">
-        <v>-0.0009505622069048892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1462,25 +1462,25 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>0.01737555314057205</v>
+        <v>0.01729817263343742</v>
       </c>
       <c r="D37">
-        <v>0.4388349843515282</v>
+        <v>0.4368806711067746</v>
       </c>
       <c r="E37">
-        <v>0.1418296512188816</v>
+        <v>0.1411980252643433</v>
       </c>
       <c r="F37">
-        <v>0.304304964661204</v>
+        <v>0.3029497691000286</v>
       </c>
       <c r="G37">
-        <v>0.05893076128223925</v>
+        <v>0.05866831828793815</v>
       </c>
       <c r="H37">
-        <v>0.0431974195395612</v>
+        <v>0.04300504360747799</v>
       </c>
       <c r="I37">
-        <v>-0.004473334193986435</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1491,25 +1491,25 @@
         <v>45</v>
       </c>
       <c r="C38">
-        <v>0.01802407190336105</v>
+        <v>0.01793167160695436</v>
       </c>
       <c r="D38">
-        <v>0.570580090397668</v>
+        <v>0.5676550149896704</v>
       </c>
       <c r="E38">
-        <v>0.1384018905315229</v>
+        <v>0.1376923740705963</v>
       </c>
       <c r="F38">
-        <v>0.1757518216193153</v>
+        <v>0.174850830960894</v>
       </c>
       <c r="G38">
-        <v>0.09914445100366941</v>
+        <v>0.09863618757080386</v>
       </c>
       <c r="H38">
-        <v>-0.005152910360618935</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>0.00325058490508233</v>
+        <v>0.00323392080108102</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1535,7 +1535,7 @@
         <v>0.1307385417713491</v>
       </c>
       <c r="H39">
-        <v>0.1614401844886845</v>
+        <v>0.1614401844886844</v>
       </c>
       <c r="I39">
         <v>0.05786367813554021</v>
@@ -1555,7 +1555,7 @@
         <v>0.3357485981848213</v>
       </c>
       <c r="E40">
-        <v>0.0848148197789433</v>
+        <v>0.08481481977894331</v>
       </c>
       <c r="F40">
         <v>0.1133076051722791</v>
@@ -1564,7 +1564,7 @@
         <v>0.1438695469926096</v>
       </c>
       <c r="H40">
-        <v>0.2384916973106204</v>
+        <v>0.2384916973106205</v>
       </c>
       <c r="I40">
         <v>0.06387570292465139</v>
@@ -1578,25 +1578,25 @@
         <v>22</v>
       </c>
       <c r="C41">
-        <v>-0.005044704666414495</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>0.05307497315285633</v>
+        <v>0.05280856951579334</v>
       </c>
       <c r="E41">
-        <v>0.04845007283135939</v>
+        <v>0.04820688334201065</v>
       </c>
       <c r="F41">
-        <v>0.107968325845693</v>
+        <v>0.1074263914275623</v>
       </c>
       <c r="G41">
-        <v>0.4170046610014812</v>
+        <v>0.4149115547451093</v>
       </c>
       <c r="H41">
-        <v>0.2197144573644775</v>
+        <v>0.2186116262732843</v>
       </c>
       <c r="I41">
-        <v>0.158832214470547</v>
+        <v>0.1580349746962402</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1607,25 +1607,25 @@
         <v>10</v>
       </c>
       <c r="C42">
-        <v>0.01020184184834251</v>
+        <v>0.010198435558115</v>
       </c>
       <c r="D42">
-        <v>-0.0003340012503001185</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>0.0527592364733349</v>
+        <v>0.05274162070607621</v>
       </c>
       <c r="F42">
-        <v>0.3039938956445286</v>
+        <v>0.3038923952045736</v>
       </c>
       <c r="G42">
-        <v>0.4265159457682915</v>
+        <v>0.4263735364740144</v>
       </c>
       <c r="H42">
-        <v>0.1947662375732646</v>
+        <v>0.1947012071266493</v>
       </c>
       <c r="I42">
-        <v>0.01209684394253798</v>
+        <v>0.01209280493057154</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1636,25 +1636,25 @@
         <v>17</v>
       </c>
       <c r="C43">
-        <v>0.007208021563621464</v>
+        <v>0.007205282449930529</v>
       </c>
       <c r="D43">
-        <v>-0.0003801535484515492</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>0.09465083071254897</v>
+        <v>0.09461486253681936</v>
       </c>
       <c r="F43">
-        <v>0.3560431025302008</v>
+        <v>0.3559078029160007</v>
       </c>
       <c r="G43">
-        <v>0.3985451459357884</v>
+        <v>0.3983936951588931</v>
       </c>
       <c r="H43">
-        <v>0.1421589572932038</v>
+        <v>0.1421049355976839</v>
       </c>
       <c r="I43">
-        <v>0.001774095513087946</v>
+        <v>0.00177342134067239</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1665,25 +1665,25 @@
         <v>23</v>
       </c>
       <c r="C44">
-        <v>0.01002547639064519</v>
+        <v>0.009997664273153874</v>
       </c>
       <c r="D44">
-        <v>-0.002781861515993942</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>0.1468514558487815</v>
+        <v>0.1464440687297367</v>
       </c>
       <c r="F44">
-        <v>0.2951522258398349</v>
+        <v>0.2943334309952787</v>
       </c>
       <c r="G44">
-        <v>0.2694154690374116</v>
+        <v>0.2686680716682614</v>
       </c>
       <c r="H44">
-        <v>0.1760338531299918</v>
+        <v>0.1755455098318849</v>
       </c>
       <c r="I44">
-        <v>0.105303381269329</v>
+        <v>0.1050112545016845</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1694,7 +1694,7 @@
         <v>30</v>
       </c>
       <c r="C45">
-        <v>0.05131578336493528</v>
+        <v>0.05131578336493527</v>
       </c>
       <c r="D45">
         <v>0.03191866685679197</v>
@@ -1723,25 +1723,25 @@
         <v>28</v>
       </c>
       <c r="C46">
-        <v>0.04434934994086654</v>
+        <v>0.04434934994086655</v>
       </c>
       <c r="D46">
-        <v>0.01056538172780355</v>
+        <v>0.01056538172780356</v>
       </c>
       <c r="E46">
         <v>0.2298780618211085</v>
       </c>
       <c r="F46">
-        <v>0.2672728369952415</v>
+        <v>0.2672728369952416</v>
       </c>
       <c r="G46">
-        <v>0.1193562174576084</v>
+        <v>0.1193562174576085</v>
       </c>
       <c r="H46">
         <v>0.2709391337583967</v>
       </c>
       <c r="I46">
-        <v>0.05763901829897466</v>
+        <v>0.05763901829897469</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1752,25 +1752,25 @@
         <v>29</v>
       </c>
       <c r="C47">
-        <v>0.03733717582464586</v>
+        <v>0.03710190846196577</v>
       </c>
       <c r="D47">
-        <v>0.177351149155847</v>
+        <v>0.1762336319304912</v>
       </c>
       <c r="E47">
-        <v>0.3085981976960691</v>
+        <v>0.3066536723671914</v>
       </c>
       <c r="F47">
-        <v>0.2054545862428694</v>
+        <v>0.2041599848814033</v>
       </c>
       <c r="G47">
-        <v>0.01885849911963687</v>
+        <v>0.01873966877818793</v>
       </c>
       <c r="H47">
-        <v>0.2587415041148057</v>
+        <v>0.2571111335807604</v>
       </c>
       <c r="I47">
-        <v>-0.006341112153873881</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1790,7 +1790,7 @@
         <v>0.3740982623438303</v>
       </c>
       <c r="F48">
-        <v>0.04721335650454535</v>
+        <v>0.04721335650454534</v>
       </c>
       <c r="G48">
         <v>0.009870693442550512</v>
@@ -1810,25 +1810,25 @@
         <v>28</v>
       </c>
       <c r="C49">
-        <v>0.01254529093015262</v>
+        <v>0.0124573596742645</v>
       </c>
       <c r="D49">
-        <v>0.4992573704667843</v>
+        <v>0.4957580233539142</v>
       </c>
       <c r="E49">
-        <v>0.09816759169306574</v>
+        <v>0.09747952477830521</v>
       </c>
       <c r="F49">
-        <v>0.2537864357553429</v>
+        <v>0.2520076200907575</v>
       </c>
       <c r="G49">
-        <v>0.06681311922232727</v>
+        <v>0.06634481908359541</v>
       </c>
       <c r="H49">
-        <v>0.07648877081158799</v>
+        <v>0.0759526530191631</v>
       </c>
       <c r="I49">
-        <v>-0.007058578879260691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -1839,25 +1839,25 @@
         <v>33</v>
       </c>
       <c r="C50">
-        <v>-0.005523384385933161</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>0.2826495781654537</v>
+        <v>0.281096971541906</v>
       </c>
       <c r="E50">
-        <v>0.04893253063541844</v>
+        <v>0.04866374208224031</v>
       </c>
       <c r="F50">
-        <v>0.1886970438831755</v>
+        <v>0.1876605226823359</v>
       </c>
       <c r="G50">
-        <v>0.1020439136547139</v>
+        <v>0.1014833819275437</v>
       </c>
       <c r="H50">
-        <v>0.3567152156093756</v>
+        <v>0.3547557631662832</v>
       </c>
       <c r="I50">
-        <v>0.02648510243779594</v>
+        <v>0.02633961859969097</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -1868,25 +1868,25 @@
         <v>38</v>
       </c>
       <c r="C51">
-        <v>0.01549672243139673</v>
+        <v>0.01549672243139674</v>
       </c>
       <c r="D51">
-        <v>0.5581133025903893</v>
+        <v>0.5581133025903894</v>
       </c>
       <c r="E51">
         <v>0.1187639404677973</v>
       </c>
       <c r="F51">
-        <v>0.1376306403290157</v>
+        <v>0.1376306403290158</v>
       </c>
       <c r="G51">
-        <v>0.08153547606836536</v>
+        <v>0.08153547606836538</v>
       </c>
       <c r="H51">
-        <v>0.08395187119699216</v>
+        <v>0.08395187119699217</v>
       </c>
       <c r="I51">
-        <v>0.004508046916043387</v>
+        <v>0.004508046916043388</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -1906,13 +1906,13 @@
         <v>0.06387419640941866</v>
       </c>
       <c r="F52">
-        <v>0.08406592412085441</v>
+        <v>0.08406592412085442</v>
       </c>
       <c r="G52">
-        <v>0.1704559878150496</v>
+        <v>0.1704559878150497</v>
       </c>
       <c r="H52">
-        <v>0.3206562275835236</v>
+        <v>0.3206562275835237</v>
       </c>
       <c r="I52">
         <v>0.08276339914212388</v>
@@ -1926,7 +1926,7 @@
         <v>42</v>
       </c>
       <c r="C53">
-        <v>0.01111495653766586</v>
+        <v>0.01111495653766585</v>
       </c>
       <c r="D53">
         <v>0.01973851332214394</v>
@@ -1967,13 +1967,13 @@
         <v>0.365603426617527</v>
       </c>
       <c r="G54">
-        <v>0.1405690416089433</v>
+        <v>0.1405690416089432</v>
       </c>
       <c r="H54">
-        <v>0.2014512930219474</v>
+        <v>0.2014512930219473</v>
       </c>
       <c r="I54">
-        <v>0.07072695021958422</v>
+        <v>0.07072695021958421</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -1984,25 +1984,25 @@
         <v>31</v>
       </c>
       <c r="C55">
-        <v>0.06071527583625757</v>
+        <v>0.05738836750691369</v>
       </c>
       <c r="D55">
-        <v>-0.05797182380110544</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>0.05993945264514789</v>
+        <v>0.05665505573654698</v>
       </c>
       <c r="F55">
-        <v>0.107654914248256</v>
+        <v>0.1017559369978975</v>
       </c>
       <c r="G55">
-        <v>0.3558116966206302</v>
+        <v>0.3363149080305955</v>
       </c>
       <c r="H55">
-        <v>0.1330773249135982</v>
+        <v>0.1257853204780776</v>
       </c>
       <c r="I55">
-        <v>0.3407731595372154</v>
+        <v>0.3221004112499687</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2013,25 +2013,25 @@
         <v>23</v>
       </c>
       <c r="C56">
-        <v>-0.02890846036613984</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>0.07683788535390244</v>
+        <v>0.07467902958690753</v>
       </c>
       <c r="E56">
-        <v>0.167144861965445</v>
+        <v>0.1624487195935449</v>
       </c>
       <c r="F56">
-        <v>0.08292314663049631</v>
+        <v>0.08059331789437116</v>
       </c>
       <c r="G56">
-        <v>0.4319729586916555</v>
+        <v>0.4198361422141837</v>
       </c>
       <c r="H56">
-        <v>0.01590766025412805</v>
+        <v>0.01546071479329392</v>
       </c>
       <c r="I56">
-        <v>0.2541219474705125</v>
+        <v>0.2469820759176988</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2042,25 +2042,25 @@
         <v>14</v>
       </c>
       <c r="C57">
-        <v>-0.02189575032001232</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>0.1394569156090154</v>
+        <v>0.136468828219849</v>
       </c>
       <c r="E57">
-        <v>0.08171879337942828</v>
+        <v>0.07996783757427074</v>
       </c>
       <c r="F57">
-        <v>0.09355669022106461</v>
+        <v>0.09155208854892176</v>
       </c>
       <c r="G57">
-        <v>0.2732841876509326</v>
+        <v>0.2674286369870431</v>
       </c>
       <c r="H57">
-        <v>0.1591648353015743</v>
+        <v>0.1557544742227678</v>
       </c>
       <c r="I57">
-        <v>0.2747143281579972</v>
+        <v>0.2688281344471477</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2071,25 +2071,25 @@
         <v>11</v>
       </c>
       <c r="C58">
-        <v>-0.01309530808204675</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>0.2127819979253577</v>
+        <v>0.2100315698117174</v>
       </c>
       <c r="E58">
-        <v>0.08640543263000042</v>
+        <v>0.08528855275579142</v>
       </c>
       <c r="F58">
-        <v>0.1333207574206829</v>
+        <v>0.1315974482924816</v>
       </c>
       <c r="G58">
-        <v>0.1269051652462999</v>
+        <v>0.1252647843040078</v>
       </c>
       <c r="H58">
-        <v>0.2080399632637082</v>
+        <v>0.2053508308685799</v>
       </c>
       <c r="I58">
-        <v>0.2456419915959976</v>
+        <v>0.2424668139674219</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2100,25 +2100,25 @@
         <v>14</v>
       </c>
       <c r="C59">
-        <v>-0.01133276105742977</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>0.1799395519836387</v>
+        <v>0.1779231909737577</v>
       </c>
       <c r="E59">
-        <v>0.09696476919687903</v>
+        <v>0.09587820441562138</v>
       </c>
       <c r="F59">
-        <v>0.2282201266018911</v>
+        <v>0.2256627446373522</v>
       </c>
       <c r="G59">
-        <v>0.1651727753773534</v>
+        <v>0.163321887451418</v>
       </c>
       <c r="H59">
-        <v>0.238176025899372</v>
+        <v>0.2355070804295312</v>
       </c>
       <c r="I59">
-        <v>0.1028595119982957</v>
+        <v>0.1017068920923197</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2129,25 +2129,25 @@
         <v>19</v>
       </c>
       <c r="C60">
-        <v>0.01660626929825116</v>
+        <v>0.01635664497217162</v>
       </c>
       <c r="D60">
-        <v>0.001654389544980183</v>
+        <v>0.001629520872322791</v>
       </c>
       <c r="E60">
-        <v>0.09698638812863208</v>
+        <v>0.09552849524849871</v>
       </c>
       <c r="F60">
-        <v>0.5461419312957591</v>
+        <v>0.5379323624218015</v>
       </c>
       <c r="G60">
-        <v>0.2285514105219444</v>
+        <v>0.2251158410510774</v>
       </c>
       <c r="H60">
-        <v>0.1253209515711387</v>
+        <v>0.123437135434128</v>
       </c>
       <c r="I60">
-        <v>-0.01526134036070541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2170,13 +2170,13 @@
         <v>0.3434561760082716</v>
       </c>
       <c r="G61">
-        <v>0.2071870931767128</v>
+        <v>0.2071870931767129</v>
       </c>
       <c r="H61">
         <v>0.2142681731074256</v>
       </c>
       <c r="I61">
-        <v>0.07331402575510501</v>
+        <v>0.07331402575510503</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2187,25 +2187,25 @@
         <v>25</v>
       </c>
       <c r="C62">
-        <v>-0.00236412129630755</v>
+        <v>0</v>
       </c>
       <c r="D62">
-        <v>0.1515488592321036</v>
+        <v>0.1510777054606653</v>
       </c>
       <c r="E62">
-        <v>0.1613063371376821</v>
+        <v>0.1608048481163564</v>
       </c>
       <c r="F62">
-        <v>0.3544971232735865</v>
+        <v>0.3533950189262447</v>
       </c>
       <c r="G62">
-        <v>-0.0007544974965955543</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>0.1708667415917457</v>
+        <v>0.1703355300067675</v>
       </c>
       <c r="I62">
-        <v>0.1648995575577853</v>
+        <v>0.164386897489966</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2216,25 +2216,25 @@
         <v>60</v>
       </c>
       <c r="C63">
-        <v>-0.001109778492696826</v>
+        <v>0</v>
       </c>
       <c r="D63">
-        <v>0.1807263731158071</v>
+        <v>0.1758041775085819</v>
       </c>
       <c r="E63">
-        <v>0.2244842925912215</v>
+        <v>0.2183703227270915</v>
       </c>
       <c r="F63">
-        <v>0.09884873839078369</v>
+        <v>0.09615653128509971</v>
       </c>
       <c r="G63">
-        <v>-0.02688839354724197</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>0.3246293283784546</v>
+        <v>0.3157878459397128</v>
       </c>
       <c r="I63">
-        <v>0.1993094395636719</v>
+        <v>0.1938811225395141</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2245,25 +2245,25 @@
         <v>45</v>
       </c>
       <c r="C64">
-        <v>-0.01436178915932634</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <v>0.1982757910600869</v>
+        <v>0.1954685134821691</v>
       </c>
       <c r="E64">
-        <v>0.05590561414749892</v>
+        <v>0.05511407738833683</v>
       </c>
       <c r="F64">
-        <v>0.1205811464167474</v>
+        <v>0.1188739044642855</v>
       </c>
       <c r="G64">
-        <v>0.1314177660070623</v>
+        <v>0.1295570943341404</v>
       </c>
       <c r="H64">
-        <v>0.2251215663844442</v>
+        <v>0.2219341942789648</v>
       </c>
       <c r="I64">
-        <v>0.2830599051434864</v>
+        <v>0.2790522160521034</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2274,25 +2274,25 @@
         <v>28</v>
       </c>
       <c r="C65">
-        <v>-0.003646943709393443</v>
+        <v>0</v>
       </c>
       <c r="D65">
-        <v>0.6362919900947497</v>
+        <v>0.6339799010826144</v>
       </c>
       <c r="E65">
-        <v>0.1054219747907657</v>
+        <v>0.1050389038212333</v>
       </c>
       <c r="F65">
-        <v>0.06172690090535638</v>
+        <v>0.06150260436924065</v>
       </c>
       <c r="G65">
-        <v>0.0786699087019684</v>
+        <v>0.07838404649668052</v>
       </c>
       <c r="H65">
-        <v>0.1170391183157351</v>
+        <v>0.1166138342265743</v>
       </c>
       <c r="I65">
-        <v>0.004497050900818317</v>
+        <v>0.004480710003656864</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2306,7 +2306,7 @@
         <v>0.01602904912062278</v>
       </c>
       <c r="D66">
-        <v>0.4068376731417223</v>
+        <v>0.4068376731417222</v>
       </c>
       <c r="E66">
         <v>0.1988016626628524</v>
@@ -2338,7 +2338,7 @@
         <v>0.2631005685862978</v>
       </c>
       <c r="E67">
-        <v>0.2186348385840403</v>
+        <v>0.2186348385840404</v>
       </c>
       <c r="F67">
         <v>0.09035733066563846</v>
@@ -2361,10 +2361,10 @@
         <v>41</v>
       </c>
       <c r="C68">
-        <v>0.04292133892752556</v>
+        <v>0.04292133892752555</v>
       </c>
       <c r="D68">
-        <v>0.004950873297892773</v>
+        <v>0.004950873297892772</v>
       </c>
       <c r="E68">
         <v>0.3140501925812347</v>
@@ -2379,7 +2379,7 @@
         <v>0.09223714928376915</v>
       </c>
       <c r="I68">
-        <v>0.08219065627241973</v>
+        <v>0.08219065627241974</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2390,25 +2390,25 @@
         <v>34</v>
       </c>
       <c r="C69">
-        <v>-0.007550765932724456</v>
+        <v>0</v>
       </c>
       <c r="D69">
-        <v>0.2589995345947903</v>
+        <v>0.2538048753106877</v>
       </c>
       <c r="E69">
-        <v>0.1731921983977098</v>
+        <v>0.1697185455869109</v>
       </c>
       <c r="F69">
-        <v>0.04327112417113076</v>
+        <v>0.04240325100193457</v>
       </c>
       <c r="G69">
-        <v>-0.01291637157889213</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>0.2536425047291561</v>
+        <v>0.248555289440929</v>
       </c>
       <c r="I69">
-        <v>0.2913617756188296</v>
+        <v>0.2855180386595378</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2419,7 +2419,7 @@
         <v>32</v>
       </c>
       <c r="C70">
-        <v>0.06254861237939716</v>
+        <v>0.06254861237939717</v>
       </c>
       <c r="D70">
         <v>0.06979395178389454</v>
@@ -2428,16 +2428,16 @@
         <v>0.009475428496001758</v>
       </c>
       <c r="F70">
-        <v>0.000318455259460755</v>
+        <v>0.0003184552594607551</v>
       </c>
       <c r="G70">
         <v>0.3159457600911409</v>
       </c>
       <c r="H70">
-        <v>0.3457641408406879</v>
+        <v>0.345764140840688</v>
       </c>
       <c r="I70">
-        <v>0.1961536511494168</v>
+        <v>0.1961536511494169</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2448,25 +2448,25 @@
         <v>23</v>
       </c>
       <c r="C71">
-        <v>-0.002080691405266642</v>
+        <v>0</v>
       </c>
       <c r="D71">
-        <v>0.06692183998517075</v>
+        <v>0.05731162965447843</v>
       </c>
       <c r="E71">
-        <v>-0.1254478478480358</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>-0.04015488536104835</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>0.8934938141630844</v>
+        <v>0.7651849767912715</v>
       </c>
       <c r="H71">
-        <v>0.09286561485374321</v>
+        <v>0.0795297876943092</v>
       </c>
       <c r="I71">
-        <v>0.1144021556123524</v>
+        <v>0.09797360585994087</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2477,25 +2477,25 @@
         <v>18</v>
       </c>
       <c r="C72">
-        <v>-0.02738834341588917</v>
+        <v>0</v>
       </c>
       <c r="D72">
-        <v>-0.04565535069808024</v>
+        <v>0</v>
       </c>
       <c r="E72">
-        <v>-0.004894149140361874</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>-0.02214157394191375</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <v>0.1412669037969538</v>
+        <v>0.1284151867480608</v>
       </c>
       <c r="H72">
-        <v>0.1089270805654388</v>
+        <v>0.09901746988691008</v>
       </c>
       <c r="I72">
-        <v>0.8498854328338525</v>
+        <v>0.772567343365029</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2506,25 +2506,25 @@
         <v>9</v>
       </c>
       <c r="C73">
-        <v>0.008745666201270406</v>
+        <v>0.008692721015327209</v>
       </c>
       <c r="D73">
-        <v>0.06034357872502108</v>
+        <v>0.05997826613218395</v>
       </c>
       <c r="E73">
-        <v>-0.006090749473018228</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>0.05501578451050359</v>
+        <v>0.05468272572759505</v>
       </c>
       <c r="G73">
-        <v>0.5817943809136635</v>
+        <v>0.5782722693935936</v>
       </c>
       <c r="H73">
-        <v>0.1123895887832256</v>
+        <v>0.111709196056215</v>
       </c>
       <c r="I73">
-        <v>0.187801750339334</v>
+        <v>0.1866648216750854</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2541,10 +2541,10 @@
         <v>0.01240744828791016</v>
       </c>
       <c r="E74">
-        <v>0.05022575699276139</v>
+        <v>0.0502257569927614</v>
       </c>
       <c r="F74">
-        <v>0.05231068285448489</v>
+        <v>0.0523106828544849</v>
       </c>
       <c r="G74">
         <v>0.6592153297439987</v>
@@ -2553,16 +2553,13 @@
         <v>0.1308479411498156</v>
       </c>
       <c r="I74">
-        <v>0.07468879529021966</v>
+        <v>0.07468879529021967</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="2">
         <v>42586.25</v>
       </c>
-      <c r="B75">
-        <v>0</v>
-      </c>
       <c r="C75">
         <v>0.02465854684034492</v>
       </c>
@@ -2570,77 +2567,71 @@
         <v>0.00315663651941809</v>
       </c>
       <c r="E75">
-        <v>0.001552820493744858</v>
+        <v>0.001552820493744857</v>
       </c>
       <c r="F75">
-        <v>0.0337889317648102</v>
+        <v>0.03378893176481019</v>
       </c>
       <c r="G75">
-        <v>0.5962528919565863</v>
+        <v>0.5962528919565862</v>
       </c>
       <c r="H75">
-        <v>0.2440548603060785</v>
+        <v>0.2440548603060784</v>
       </c>
       <c r="I75">
-        <v>0.09653531211901731</v>
+        <v>0.09653531211901728</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="2">
         <v>42586.20833333334</v>
       </c>
-      <c r="B76">
-        <v>0</v>
-      </c>
       <c r="C76">
-        <v>0.02481867002789483</v>
+        <v>0.02480703391747878</v>
       </c>
       <c r="D76">
-        <v>-0.0004690649617666836</v>
+        <v>0</v>
       </c>
       <c r="E76">
-        <v>0.07763349902723898</v>
+        <v>0.07759710094605052</v>
       </c>
       <c r="F76">
-        <v>0.1388131133175675</v>
+        <v>0.1387480314774873</v>
       </c>
       <c r="G76">
-        <v>0.4824144319118532</v>
+        <v>0.4821882542967871</v>
       </c>
       <c r="H76">
-        <v>0.2523095431525451</v>
+        <v>0.2521912490739402</v>
       </c>
       <c r="I76">
-        <v>0.02447980752466717</v>
+        <v>0.02446833028825601</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="2">
         <v>42586.125</v>
       </c>
-      <c r="B77">
-        <v>0</v>
-      </c>
       <c r="C77">
-        <v>0.01690974184701631</v>
+        <v>0.01690145798194212</v>
       </c>
       <c r="D77">
-        <v>-0.0004901272471903779</v>
+        <v>0</v>
       </c>
       <c r="E77">
-        <v>0.06499334268524762</v>
+        <v>0.06496150328247044</v>
       </c>
       <c r="F77">
-        <v>0.1649720978888262</v>
+        <v>0.1648912801795861</v>
       </c>
       <c r="G77">
-        <v>0.5424937050072139</v>
+        <v>0.5422279443175159</v>
       </c>
       <c r="H77">
-        <v>0.1924830544761851</v>
+        <v>0.1923887595030994</v>
       </c>
       <c r="I77">
-        <v>0.01863818534270127</v>
+        <v>0.01862905473538606</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -2651,25 +2642,25 @@
         <v>2</v>
       </c>
       <c r="C78">
-        <v>0.01232651628823886</v>
+        <v>0.01232068201138912</v>
       </c>
       <c r="D78">
-        <v>-0.0004735352186145553</v>
+        <v>0</v>
       </c>
       <c r="E78">
-        <v>0.04019303052843133</v>
+        <v>0.04017400672137591</v>
       </c>
       <c r="F78">
-        <v>0.2029707295361542</v>
+        <v>0.202874661239093</v>
       </c>
       <c r="G78">
-        <v>0.5377254680715899</v>
+        <v>0.5374709566446363</v>
       </c>
       <c r="H78">
-        <v>0.1847922859921235</v>
+        <v>0.1847048217539751</v>
       </c>
       <c r="I78">
-        <v>0.02246550480207658</v>
+        <v>0.02245487162953053</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -2680,25 +2671,25 @@
         <v>4</v>
       </c>
       <c r="C79">
-        <v>0.01557064950264144</v>
+        <v>0.01555963388931605</v>
       </c>
       <c r="D79">
-        <v>-0.0007079609587057044</v>
+        <v>0</v>
       </c>
       <c r="E79">
-        <v>0.1389497880377668</v>
+        <v>0.1388514866061914</v>
       </c>
       <c r="F79">
-        <v>0.209164008231401</v>
+        <v>0.209016033040265</v>
       </c>
       <c r="G79">
-        <v>0.4180407255664244</v>
+        <v>0.4177449784309999</v>
       </c>
       <c r="H79">
-        <v>0.2041815506076645</v>
+        <v>0.20403710030652</v>
       </c>
       <c r="I79">
-        <v>0.01480123901280741</v>
+        <v>0.01479076772670762</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -2709,25 +2700,25 @@
         <v>11</v>
       </c>
       <c r="C80">
-        <v>-0.01108572523321215</v>
+        <v>0</v>
       </c>
       <c r="D80">
-        <v>0.1157178238507698</v>
+        <v>0.1144490728756742</v>
       </c>
       <c r="E80">
-        <v>0.1880632423478575</v>
+        <v>0.1860012832289565</v>
       </c>
       <c r="F80">
-        <v>0.05736392489432073</v>
+        <v>0.05673497653335917</v>
       </c>
       <c r="G80">
-        <v>0.1179483735118159</v>
+        <v>0.1166551663901797</v>
       </c>
       <c r="H80">
-        <v>0.2420306609573328</v>
+        <v>0.2393769933815525</v>
       </c>
       <c r="I80">
-        <v>0.2899616996711153</v>
+        <v>0.286782507590278</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -2744,7 +2735,7 @@
         <v>0.1288448702587759</v>
       </c>
       <c r="E81">
-        <v>0.2428548617747631</v>
+        <v>0.242854861774763</v>
       </c>
       <c r="F81">
         <v>0.1087918418134871</v>
@@ -2756,7 +2747,7 @@
         <v>0.3169995016851723</v>
       </c>
       <c r="I81">
-        <v>0.0562453315378965</v>
+        <v>0.05624533153789649</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -2767,25 +2758,25 @@
         <v>54</v>
       </c>
       <c r="C82">
-        <v>0.02991340915390062</v>
+        <v>0.02991340915390063</v>
       </c>
       <c r="D82">
-        <v>0.02365371507603731</v>
+        <v>0.02365371507603732</v>
       </c>
       <c r="E82">
         <v>0.192425865098049</v>
       </c>
       <c r="F82">
-        <v>0.3535030424400739</v>
+        <v>0.353503042440074</v>
       </c>
       <c r="G82">
         <v>0.03222088312843697</v>
       </c>
       <c r="H82">
-        <v>0.3609778877188761</v>
+        <v>0.3609778877188762</v>
       </c>
       <c r="I82">
-        <v>0.007305197384626094</v>
+        <v>0.007305197384626095</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -2796,25 +2787,25 @@
         <v>66</v>
       </c>
       <c r="C83">
-        <v>0.02924661697713318</v>
+        <v>0.02879473606590064</v>
       </c>
       <c r="D83">
-        <v>0.06936840624702506</v>
+        <v>0.06829661532330343</v>
       </c>
       <c r="E83">
-        <v>0.2200950007141833</v>
+        <v>0.2166943773341112</v>
       </c>
       <c r="F83">
-        <v>0.2575515411245063</v>
+        <v>0.2535721877113003</v>
       </c>
       <c r="G83">
-        <v>-0.01569317774604187</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <v>0.3199112701021525</v>
+        <v>0.3149684147845496</v>
       </c>
       <c r="I83">
-        <v>0.1195203425810415</v>
+        <v>0.117673668780835</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -2843,7 +2834,7 @@
         <v>0.3130787336633126</v>
       </c>
       <c r="I84">
-        <v>0.04581209199582908</v>
+        <v>0.04581209199582909</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -2854,7 +2845,7 @@
         <v>43</v>
       </c>
       <c r="C85">
-        <v>0.0425668345576875</v>
+        <v>0.04256683455768751</v>
       </c>
       <c r="D85">
         <v>0.1064997987997878</v>
@@ -2863,7 +2854,7 @@
         <v>0.1868625006615293</v>
       </c>
       <c r="F85">
-        <v>0.2555050251873171</v>
+        <v>0.2555050251873172</v>
       </c>
       <c r="G85">
         <v>0.1977999087965346</v>
@@ -2901,7 +2892,7 @@
         <v>0.1924794261397218</v>
       </c>
       <c r="I86">
-        <v>0.09715887745334778</v>
+        <v>0.09715887745334777</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -2912,25 +2903,25 @@
         <v>48</v>
       </c>
       <c r="C87">
-        <v>-0.03065765959057886</v>
+        <v>0</v>
       </c>
       <c r="D87">
-        <v>0.09366168260790923</v>
+        <v>0.08433973668679333</v>
       </c>
       <c r="E87">
-        <v>-0.01358663835844513</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>-0.04656974070166373</v>
+        <v>0</v>
       </c>
       <c r="G87">
-        <v>0.5832343399267282</v>
+        <v>0.5251862798796458</v>
       </c>
       <c r="H87">
-        <v>-0.01971447717494488</v>
+        <v>0</v>
       </c>
       <c r="I87">
-        <v>0.433632493290995</v>
+        <v>0.3904739834335609</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -2941,25 +2932,25 @@
         <v>29</v>
       </c>
       <c r="C88">
-        <v>-0.0008696067947931138</v>
+        <v>0</v>
       </c>
       <c r="D88">
-        <v>-0.004765240336617098</v>
+        <v>0</v>
       </c>
       <c r="E88">
-        <v>0.2524089557117855</v>
+        <v>0.2509946392885908</v>
       </c>
       <c r="F88">
-        <v>0.4192720755912722</v>
+        <v>0.4169227794633933</v>
       </c>
       <c r="G88">
-        <v>0.01031578313725999</v>
+        <v>0.01025798098254643</v>
       </c>
       <c r="H88">
-        <v>0.1424318924035914</v>
+        <v>0.1416338075494109</v>
       </c>
       <c r="I88">
-        <v>0.1812061402875011</v>
+        <v>0.1801907927160585</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -2973,22 +2964,22 @@
         <v>0.0228436390958478</v>
       </c>
       <c r="D89">
-        <v>0.009158152457640126</v>
+        <v>0.009158152457640128</v>
       </c>
       <c r="E89">
         <v>0.1768993807912867</v>
       </c>
       <c r="F89">
-        <v>0.309532646084221</v>
+        <v>0.3095326460842211</v>
       </c>
       <c r="G89">
         <v>0.124553176782187</v>
       </c>
       <c r="H89">
-        <v>0.2781609329205563</v>
+        <v>0.2781609329205564</v>
       </c>
       <c r="I89">
-        <v>0.07885207186826095</v>
+        <v>0.07885207186826096</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3002,13 +2993,13 @@
         <v>0.0001876518151728223</v>
       </c>
       <c r="D90">
-        <v>0.04553479916741136</v>
+        <v>0.04553479916741135</v>
       </c>
       <c r="E90">
         <v>0.1490260516541538</v>
       </c>
       <c r="F90">
-        <v>0.1546509984931986</v>
+        <v>0.1546509984931985</v>
       </c>
       <c r="G90">
         <v>0.1387663442854158</v>
@@ -3028,25 +3019,25 @@
         <v>25</v>
       </c>
       <c r="C91">
-        <v>-0.007485057922314639</v>
+        <v>0</v>
       </c>
       <c r="D91">
-        <v>0.09890766335995928</v>
+        <v>0.09817283401098922</v>
       </c>
       <c r="E91">
-        <v>0.1422721283322362</v>
+        <v>0.1412151249425344</v>
       </c>
       <c r="F91">
-        <v>0.1235574789565028</v>
+        <v>0.1226395150825453</v>
       </c>
       <c r="G91">
-        <v>0.1333725931982663</v>
+        <v>0.1323817084427176</v>
       </c>
       <c r="H91">
-        <v>0.4432533644605751</v>
+        <v>0.4399602366060634</v>
       </c>
       <c r="I91">
-        <v>0.06612182961477497</v>
+        <v>0.06563058091514991</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3057,25 +3048,25 @@
         <v>29</v>
       </c>
       <c r="C92">
-        <v>-0.004413721243356933</v>
+        <v>0</v>
       </c>
       <c r="D92">
-        <v>0.09545632558952657</v>
+        <v>0.09503685938435989</v>
       </c>
       <c r="E92">
-        <v>0.1888539553016772</v>
+        <v>0.1880240694719863</v>
       </c>
       <c r="F92">
-        <v>0.1088792562937515</v>
+        <v>0.1084008053563531</v>
       </c>
       <c r="G92">
-        <v>0.1292584001482254</v>
+        <v>0.1286903966108879</v>
       </c>
       <c r="H92">
-        <v>0.3722463832865913</v>
+        <v>0.3706106113582259</v>
       </c>
       <c r="I92">
-        <v>0.109719400623585</v>
+        <v>0.1092372578181868</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3086,25 +3077,25 @@
         <v>30</v>
       </c>
       <c r="C93">
-        <v>-0.006219063353372476</v>
+        <v>0</v>
       </c>
       <c r="D93">
-        <v>0.0571322476940917</v>
+        <v>0.05677913465850083</v>
       </c>
       <c r="E93">
-        <v>0.2188184803126564</v>
+        <v>0.217466045200348</v>
       </c>
       <c r="F93">
-        <v>0.1039647045372375</v>
+        <v>0.1033221376175878</v>
       </c>
       <c r="G93">
-        <v>0.1506286099090045</v>
+        <v>0.1496976308588435</v>
       </c>
       <c r="H93">
-        <v>0.4474553219277261</v>
+        <v>0.444689768087394</v>
       </c>
       <c r="I93">
-        <v>0.02821969897265637</v>
+        <v>0.02804528357732568</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3118,13 +3109,13 @@
         <v>0.01474551191531319</v>
       </c>
       <c r="D94">
-        <v>0.04582510530278381</v>
+        <v>0.04582510530278382</v>
       </c>
       <c r="E94">
-        <v>0.2004802886659705</v>
+        <v>0.2004802886659706</v>
       </c>
       <c r="F94">
-        <v>0.08289831858688064</v>
+        <v>0.08289831858688067</v>
       </c>
       <c r="G94">
         <v>0.1256405534123273</v>
@@ -3133,7 +3124,7 @@
         <v>0.478966235815488</v>
       </c>
       <c r="I94">
-        <v>0.05144398630123655</v>
+        <v>0.05144398630123656</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3144,25 +3135,25 @@
         <v>34</v>
       </c>
       <c r="C95">
-        <v>-0.007218432684864599</v>
+        <v>0</v>
       </c>
       <c r="D95">
-        <v>0.1022973511457787</v>
+        <v>0.101564216684451</v>
       </c>
       <c r="E95">
-        <v>0.1144204487078112</v>
+        <v>0.1136004316390532</v>
       </c>
       <c r="F95">
-        <v>0.05315787686862643</v>
+        <v>0.05277691029435152</v>
       </c>
       <c r="G95">
-        <v>0.1395350613129099</v>
+        <v>0.1385350553414338</v>
       </c>
       <c r="H95">
-        <v>0.5312598115253153</v>
+        <v>0.5274524316529603</v>
       </c>
       <c r="I95">
-        <v>0.06654788312442285</v>
+        <v>0.06607095438775012</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3173,25 +3164,25 @@
         <v>33</v>
       </c>
       <c r="C96">
-        <v>-0.00672546866015807</v>
+        <v>0</v>
       </c>
       <c r="D96">
-        <v>0.089723135383558</v>
+        <v>0.0891237364869389</v>
       </c>
       <c r="E96">
-        <v>0.1564273442977069</v>
+        <v>0.1553823253383017</v>
       </c>
       <c r="F96">
-        <v>0.08624836618322447</v>
+        <v>0.08567218061743452</v>
       </c>
       <c r="G96">
-        <v>0.1372090069732128</v>
+        <v>0.1362923768639955</v>
       </c>
       <c r="H96">
-        <v>0.4296630150680346</v>
+        <v>0.4267926345797819</v>
       </c>
       <c r="I96">
-        <v>0.1074546007544213</v>
+        <v>0.1067367461135474</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3202,25 +3193,25 @@
         <v>33</v>
       </c>
       <c r="C97">
-        <v>-0.01035670531087599</v>
+        <v>0</v>
       </c>
       <c r="D97">
-        <v>0.103162483380047</v>
+        <v>0.1021050118614346</v>
       </c>
       <c r="E97">
-        <v>0.1412903938308273</v>
+        <v>0.1398420905093649</v>
       </c>
       <c r="F97">
-        <v>0.06991297357365957</v>
+        <v>0.06919632760011038</v>
       </c>
       <c r="G97">
-        <v>0.1407850739775812</v>
+        <v>0.1393419504592323</v>
       </c>
       <c r="H97">
-        <v>0.4714937835493507</v>
+        <v>0.4666607160332321</v>
       </c>
       <c r="I97">
-        <v>0.0837119969994103</v>
+        <v>0.08285390353662571</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -3260,25 +3251,25 @@
         <v>26</v>
       </c>
       <c r="C99">
-        <v>-0.02477928025127626</v>
+        <v>0</v>
       </c>
       <c r="D99">
-        <v>0.09130515574361277</v>
+        <v>0.08909738663063593</v>
       </c>
       <c r="E99">
-        <v>0.2858465360360644</v>
+        <v>0.2789347340882758</v>
       </c>
       <c r="F99">
-        <v>0.06649282138559126</v>
+        <v>0.06488501735640789</v>
       </c>
       <c r="G99">
-        <v>0.008889834423985525</v>
+        <v>0.008674877210442558</v>
       </c>
       <c r="H99">
-        <v>0.3588026712756216</v>
+        <v>0.3501267816301311</v>
       </c>
       <c r="I99">
-        <v>0.2134422613864007</v>
+        <v>0.2082812030841066</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3292,7 +3283,7 @@
         <v>0.004286046863222068</v>
       </c>
       <c r="D100">
-        <v>0.09105753927028623</v>
+        <v>0.09105753927028622</v>
       </c>
       <c r="E100">
         <v>0.1808869515534672</v>
@@ -3318,25 +3309,25 @@
         <v>21</v>
       </c>
       <c r="C101">
-        <v>-0.02653458422153531</v>
+        <v>0</v>
       </c>
       <c r="D101">
-        <v>0.09422999451338081</v>
+        <v>0.09179427168042216</v>
       </c>
       <c r="E101">
-        <v>0.09957834777439352</v>
+        <v>0.0970043769639851</v>
       </c>
       <c r="F101">
-        <v>0.1465100695220364</v>
+        <v>0.1427229747287483</v>
       </c>
       <c r="G101">
-        <v>0.03317120825803547</v>
+        <v>0.03231377565636583</v>
       </c>
       <c r="H101">
-        <v>0.421479759823561</v>
+        <v>0.4105850560730859</v>
       </c>
       <c r="I101">
-        <v>0.2315652043301282</v>
+        <v>0.2255795448973927</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -3347,10 +3338,10 @@
         <v>20</v>
       </c>
       <c r="C102">
-        <v>0.00475803730464147</v>
+        <v>0.004758037304641471</v>
       </c>
       <c r="D102">
-        <v>0.02305546888443247</v>
+        <v>0.02305546888443248</v>
       </c>
       <c r="E102">
         <v>0.112529085603666</v>
@@ -3359,13 +3350,13 @@
         <v>0.2471496247136503</v>
       </c>
       <c r="G102">
-        <v>0.09810847444243057</v>
+        <v>0.09810847444243059</v>
       </c>
       <c r="H102">
-        <v>0.5020658621999808</v>
+        <v>0.502065862199981</v>
       </c>
       <c r="I102">
-        <v>0.01233344685119838</v>
+        <v>0.01233344685119839</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -3376,25 +3367,25 @@
         <v>18</v>
       </c>
       <c r="C103">
-        <v>-0.02622988775189211</v>
+        <v>0</v>
       </c>
       <c r="D103">
-        <v>0.09740888004078395</v>
+        <v>0.09491916109963672</v>
       </c>
       <c r="E103">
-        <v>0.1687724529806432</v>
+        <v>0.1644587192352819</v>
       </c>
       <c r="F103">
-        <v>0.1930396136036792</v>
+        <v>0.1881056241955308</v>
       </c>
       <c r="G103">
-        <v>0.00727122495265657</v>
+        <v>0.007085376326921505</v>
       </c>
       <c r="H103">
-        <v>0.3360514666610922</v>
+        <v>0.3274621706811351</v>
       </c>
       <c r="I103">
-        <v>0.223686249513037</v>
+        <v>0.217968948461494</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -3405,25 +3396,25 @@
         <v>17</v>
       </c>
       <c r="C104">
-        <v>-0.01095646730539731</v>
+        <v>0</v>
       </c>
       <c r="D104">
-        <v>0.1192236376397968</v>
+        <v>0.1179315247446563</v>
       </c>
       <c r="E104">
-        <v>0.1140514369476353</v>
+        <v>0.1128153789367686</v>
       </c>
       <c r="F104">
-        <v>0.09690449971211174</v>
+        <v>0.09585427547676799</v>
       </c>
       <c r="G104">
-        <v>0.1286642872897139</v>
+        <v>0.1272698592380101</v>
       </c>
       <c r="H104">
-        <v>0.422540122422843</v>
+        <v>0.4179607491399517</v>
       </c>
       <c r="I104">
-        <v>0.1295724832932966</v>
+        <v>0.1281682124638453</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -3434,25 +3425,25 @@
         <v>20</v>
       </c>
       <c r="C105">
-        <v>0.002029439939401456</v>
+        <v>0.002027969168801984</v>
       </c>
       <c r="D105">
-        <v>-0.0007252430767185628</v>
+        <v>0</v>
       </c>
       <c r="E105">
-        <v>0.1873821753992768</v>
+        <v>0.1872463762612527</v>
       </c>
       <c r="F105">
-        <v>0.2875387723267324</v>
+        <v>0.2873303879521392</v>
       </c>
       <c r="G105">
-        <v>0.2567341682058588</v>
+        <v>0.2565481084663483</v>
       </c>
       <c r="H105">
-        <v>0.2589940347511901</v>
+        <v>0.2588063372468909</v>
       </c>
       <c r="I105">
-        <v>0.008046652454259017</v>
+        <v>0.008040820904566846</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -3463,25 +3454,25 @@
         <v>24</v>
       </c>
       <c r="C106">
-        <v>0.002817675647621968</v>
+        <v>0.002388075549488299</v>
       </c>
       <c r="D106">
-        <v>-0.01238706037589568</v>
+        <v>0</v>
       </c>
       <c r="E106">
-        <v>0.144406381220586</v>
+        <v>0.1223892993056221</v>
       </c>
       <c r="F106">
-        <v>0.3902122792332593</v>
+        <v>0.3307181236184887</v>
       </c>
       <c r="G106">
-        <v>-0.1675067868793644</v>
+        <v>0</v>
       </c>
       <c r="H106">
-        <v>0.06654652089448672</v>
+        <v>0.05640043047032683</v>
       </c>
       <c r="I106">
-        <v>0.575910990259306</v>
+        <v>0.4881040710560741</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -3492,25 +3483,25 @@
         <v>25</v>
       </c>
       <c r="C107">
-        <v>0.01429036912138174</v>
+        <v>0.01401172422770515</v>
       </c>
       <c r="D107">
-        <v>-0.0004220473018619182</v>
+        <v>0</v>
       </c>
       <c r="E107">
-        <v>0.2488163272508683</v>
+        <v>0.2439647101608604</v>
       </c>
       <c r="F107">
-        <v>0.5550699124417743</v>
+        <v>0.5442467212826326</v>
       </c>
       <c r="G107">
-        <v>0.06343605577432024</v>
+        <v>0.06219912950136275</v>
       </c>
       <c r="H107">
-        <v>0.1382738882118902</v>
+        <v>0.1355777148274391</v>
       </c>
       <c r="I107">
-        <v>-0.01946450549837292</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -3521,25 +3512,25 @@
         <v>25</v>
       </c>
       <c r="C108">
-        <v>-0.003401728876435211</v>
+        <v>0</v>
       </c>
       <c r="D108">
-        <v>-0.0004468722328739125</v>
+        <v>0</v>
       </c>
       <c r="E108">
-        <v>0.2125711063737379</v>
+        <v>0.2096164557286745</v>
       </c>
       <c r="F108">
-        <v>0.5247723344217555</v>
+        <v>0.5174782155602553</v>
       </c>
       <c r="G108">
-        <v>0.02024037462301054</v>
+        <v>0.01995904176947089</v>
       </c>
       <c r="H108">
-        <v>0.256511693613897</v>
+        <v>0.2529462869415994</v>
       </c>
       <c r="I108">
-        <v>-0.01024690792309174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -3550,25 +3541,25 @@
         <v>22</v>
       </c>
       <c r="C109">
-        <v>-0.004027149744364984</v>
+        <v>0</v>
       </c>
       <c r="D109">
-        <v>-0.0004295707883200841</v>
+        <v>0</v>
       </c>
       <c r="E109">
-        <v>0.2308743179201308</v>
+        <v>0.2298499409687788</v>
       </c>
       <c r="F109">
-        <v>0.4341863842944658</v>
+        <v>0.43225992262186</v>
       </c>
       <c r="G109">
-        <v>0.09571948912140817</v>
+        <v>0.09529478688802642</v>
       </c>
       <c r="H109">
-        <v>0.2414380740478384</v>
+        <v>0.2403668262777898</v>
       </c>
       <c r="I109">
-        <v>0.002238455148841938</v>
+        <v>0.002228523243544865</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -3582,16 +3573,16 @@
         <v>0.01692504197378269</v>
       </c>
       <c r="D110">
-        <v>0.06806655796902611</v>
+        <v>0.0680665579690261</v>
       </c>
       <c r="E110">
         <v>0.2270165446591794</v>
       </c>
       <c r="F110">
-        <v>0.176768670508566</v>
+        <v>0.1767686705085659</v>
       </c>
       <c r="G110">
-        <v>0.09100056620462496</v>
+        <v>0.09100056620462493</v>
       </c>
       <c r="H110">
         <v>0.3950962307878106</v>
@@ -3608,25 +3599,25 @@
         <v>21</v>
       </c>
       <c r="C111">
-        <v>-0.003792924247461201</v>
+        <v>0</v>
       </c>
       <c r="D111">
-        <v>0.1383114313430729</v>
+        <v>0.1377888088290365</v>
       </c>
       <c r="E111">
-        <v>0.2186658474420781</v>
+        <v>0.2178395983474489</v>
       </c>
       <c r="F111">
-        <v>0.08120028380136901</v>
+        <v>0.08089346103156134</v>
       </c>
       <c r="G111">
-        <v>0.1098393301548527</v>
+        <v>0.1094242921040698</v>
       </c>
       <c r="H111">
-        <v>0.3189805976693971</v>
+        <v>0.317775300028674</v>
       </c>
       <c r="I111">
-        <v>0.1367954338366915</v>
+        <v>0.1362785396592095</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -3637,25 +3628,25 @@
         <v>24</v>
       </c>
       <c r="C112">
-        <v>-0.002917046450179709</v>
+        <v>0</v>
       </c>
       <c r="D112">
-        <v>0.06983434525590328</v>
+        <v>0.06963122773023114</v>
       </c>
       <c r="E112">
-        <v>0.2558683749044564</v>
+        <v>0.2551241658620733</v>
       </c>
       <c r="F112">
-        <v>0.1118812774236813</v>
+        <v>0.1115558637872241</v>
       </c>
       <c r="G112">
-        <v>0.3136481707721376</v>
+        <v>0.3127359056088376</v>
       </c>
       <c r="H112">
-        <v>0.2424181280285095</v>
+        <v>0.2417130398636131</v>
       </c>
       <c r="I112">
-        <v>0.009266750065491719</v>
+        <v>0.009239797148020703</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -3681,7 +3672,7 @@
         <v>0.147273104406185</v>
       </c>
       <c r="H113">
-        <v>0.4385199587233041</v>
+        <v>0.438519958723304</v>
       </c>
       <c r="I113">
         <v>0.02491154446404532</v>
@@ -3695,25 +3686,25 @@
         <v>26</v>
       </c>
       <c r="C114">
-        <v>-0.003386763950802965</v>
+        <v>0</v>
       </c>
       <c r="D114">
-        <v>0.05903896292223169</v>
+        <v>0.05883968679212757</v>
       </c>
       <c r="E114">
-        <v>0.1491553961655466</v>
+        <v>0.1486519471098583</v>
       </c>
       <c r="F114">
-        <v>0.07578768566230286</v>
+        <v>0.07553187702406129</v>
       </c>
       <c r="G114">
-        <v>0.1035109855422152</v>
+        <v>0.103161601548982</v>
       </c>
       <c r="H114">
-        <v>0.5466785841225132</v>
+        <v>0.5448333621324484</v>
       </c>
       <c r="I114">
-        <v>0.06921514953599334</v>
+        <v>0.06898152539252254</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -3724,25 +3715,25 @@
         <v>29</v>
       </c>
       <c r="C115">
-        <v>-0.00317834877767429</v>
+        <v>0</v>
       </c>
       <c r="D115">
-        <v>0.09929395117606825</v>
+        <v>0.0989793602474109</v>
       </c>
       <c r="E115">
-        <v>0.3219167309812659</v>
+        <v>0.3208968090006193</v>
       </c>
       <c r="F115">
-        <v>0.001102404370379856</v>
+        <v>0.001098911645893359</v>
       </c>
       <c r="G115">
-        <v>0.1514638784700846</v>
+        <v>0.1509839986624873</v>
       </c>
       <c r="H115">
-        <v>0.3839675561654463</v>
+        <v>0.3827510398657355</v>
       </c>
       <c r="I115">
-        <v>0.04543382761442928</v>
+        <v>0.04528988057785365</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -3753,25 +3744,25 @@
         <v>32</v>
       </c>
       <c r="C116">
-        <v>-0.0008590190948714825</v>
+        <v>0</v>
       </c>
       <c r="D116">
-        <v>0.0949602380188744</v>
+        <v>0.0948787353734913</v>
       </c>
       <c r="E116">
-        <v>0.2868785054916505</v>
+        <v>0.2866322828874436</v>
       </c>
       <c r="F116">
-        <v>0.03044561832619619</v>
+        <v>0.03041948740565852</v>
       </c>
       <c r="G116">
-        <v>0.1744922509743092</v>
+        <v>0.1743424874485434</v>
       </c>
       <c r="H116">
-        <v>0.3567752624043188</v>
+        <v>0.3564690486847678</v>
       </c>
       <c r="I116">
-        <v>0.0573071438795226</v>
+        <v>0.05725795820009535</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -3782,7 +3773,7 @@
         <v>32</v>
       </c>
       <c r="C117">
-        <v>0.006622972537029482</v>
+        <v>0.006622972537029484</v>
       </c>
       <c r="D117">
         <v>0.06366422340347502</v>
@@ -3811,25 +3802,25 @@
         <v>34</v>
       </c>
       <c r="C118">
-        <v>-0.02046582165862999</v>
+        <v>0</v>
       </c>
       <c r="D118">
-        <v>0.1082169097546361</v>
+        <v>0.1060465793736669</v>
       </c>
       <c r="E118">
-        <v>0.2545398290977436</v>
+        <v>0.2494349381383723</v>
       </c>
       <c r="F118">
-        <v>0.01653770771248081</v>
+        <v>0.0162060378324097</v>
       </c>
       <c r="G118">
-        <v>0.03225494306279734</v>
+        <v>0.0316080581810876</v>
       </c>
       <c r="H118">
-        <v>0.3976351982998388</v>
+        <v>0.3896604764807667</v>
       </c>
       <c r="I118">
-        <v>0.2112812337311332</v>
+        <v>0.2070439099936968</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -3840,25 +3831,25 @@
         <v>36</v>
       </c>
       <c r="C119">
-        <v>0.01431388192452808</v>
+        <v>0.0140723567881588</v>
       </c>
       <c r="D119">
-        <v>0.07179601119094424</v>
+        <v>0.07058456194991419</v>
       </c>
       <c r="E119">
-        <v>0.2593365083400264</v>
+        <v>0.2549605964893756</v>
       </c>
       <c r="F119">
-        <v>-0.01716309073207367</v>
+        <v>0</v>
       </c>
       <c r="G119">
-        <v>0.09857234202982343</v>
+        <v>0.09690908265151348</v>
       </c>
       <c r="H119">
-        <v>0.4568901521977502</v>
+        <v>0.4491808210116204</v>
       </c>
       <c r="I119">
-        <v>0.1162541950490014</v>
+        <v>0.1142925811094176</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -3869,25 +3860,25 @@
         <v>34</v>
       </c>
       <c r="C120">
-        <v>0.02421143940886548</v>
+        <v>0.02334291747049103</v>
       </c>
       <c r="D120">
-        <v>0.09743399498967119</v>
+        <v>0.09393880576267258</v>
       </c>
       <c r="E120">
-        <v>0.2562816196491529</v>
+        <v>0.2470881881761806</v>
       </c>
       <c r="F120">
-        <v>-0.03720708602394703</v>
+        <v>0</v>
       </c>
       <c r="G120">
-        <v>0.1181221116290245</v>
+        <v>0.1138847904345086</v>
       </c>
       <c r="H120">
-        <v>0.3788072950327223</v>
+        <v>0.3652185760558682</v>
       </c>
       <c r="I120">
-        <v>0.1623506253145105</v>
+        <v>0.156526722100279</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -3898,13 +3889,13 @@
         <v>31</v>
       </c>
       <c r="C121">
-        <v>0.05076176931549728</v>
+        <v>0.05076176931549729</v>
       </c>
       <c r="D121">
-        <v>0.01214186561786369</v>
+        <v>0.0121418656178637</v>
       </c>
       <c r="E121">
-        <v>0.359469775474438</v>
+        <v>0.3594697754744381</v>
       </c>
       <c r="F121">
         <v>0.02349504189163774</v>
@@ -3913,10 +3904,10 @@
         <v>0.1303193122611483</v>
       </c>
       <c r="H121">
-        <v>0.3200724578322031</v>
+        <v>0.3200724578322032</v>
       </c>
       <c r="I121">
-        <v>0.1037397776072118</v>
+        <v>0.1037397776072119</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -3956,25 +3947,25 @@
         <v>25</v>
       </c>
       <c r="C123">
-        <v>-0.009854186873340673</v>
+        <v>0</v>
       </c>
       <c r="D123">
-        <v>0.08448578806898369</v>
+        <v>0.083661373262772</v>
       </c>
       <c r="E123">
-        <v>0.2623482407329747</v>
+        <v>0.2597882388795595</v>
       </c>
       <c r="F123">
-        <v>0.1472312514518506</v>
+        <v>0.1457945645674853</v>
       </c>
       <c r="G123">
-        <v>0.03862609525855983</v>
+        <v>0.03824918068434413</v>
       </c>
       <c r="H123">
-        <v>0.3225582254776974</v>
+        <v>0.3194106928212931</v>
       </c>
       <c r="I123">
-        <v>0.1546045858832744</v>
+        <v>0.1530959497845459</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -3988,7 +3979,7 @@
         <v>0.003831102076583384</v>
       </c>
       <c r="D124">
-        <v>0.03180539395979811</v>
+        <v>0.03180539395979812</v>
       </c>
       <c r="E124">
         <v>0.308017398496237</v>
@@ -4003,7 +3994,7 @@
         <v>0.2859802205687669</v>
       </c>
       <c r="I124">
-        <v>0.03804990856013434</v>
+        <v>0.03804990856013435</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -4026,7 +4017,7 @@
         <v>0.1234176746646767</v>
       </c>
       <c r="G125">
-        <v>0.09634301233595856</v>
+        <v>0.09634301233595857</v>
       </c>
       <c r="H125">
         <v>0.3700846374676349</v>
@@ -4046,7 +4037,7 @@
         <v>0.02778129820795915</v>
       </c>
       <c r="D126">
-        <v>0.07934898581003444</v>
+        <v>0.07934898581003443</v>
       </c>
       <c r="E126">
         <v>0.2576468461113935</v>
@@ -4058,10 +4049,10 @@
         <v>0.1273984734809543</v>
       </c>
       <c r="H126">
-        <v>0.2433466656636686</v>
+        <v>0.2433466656636685</v>
       </c>
       <c r="I126">
-        <v>0.06757173497827225</v>
+        <v>0.06757173497827224</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -4072,25 +4063,25 @@
         <v>21</v>
       </c>
       <c r="C127">
-        <v>0.04330731871398689</v>
+        <v>0.04321840490232089</v>
       </c>
       <c r="D127">
-        <v>-0.00205731358820281</v>
+        <v>0</v>
       </c>
       <c r="E127">
-        <v>0.4316883137935189</v>
+        <v>0.4308020189461158</v>
       </c>
       <c r="F127">
-        <v>0.1469511757735948</v>
+        <v>0.1466494718225116</v>
       </c>
       <c r="G127">
-        <v>0.1328339430242323</v>
+        <v>0.1325612230188469</v>
       </c>
       <c r="H127">
-        <v>0.2206062895361425</v>
+        <v>0.2201533650267843</v>
       </c>
       <c r="I127">
-        <v>0.02667027274672752</v>
+        <v>0.0266155162834206</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -4101,25 +4092,25 @@
         <v>20</v>
       </c>
       <c r="C128">
-        <v>0.05816139721984026</v>
+        <v>0.05792611938088919</v>
       </c>
       <c r="D128">
-        <v>-0.00406168825852144</v>
+        <v>0</v>
       </c>
       <c r="E128">
-        <v>0.3528400238818535</v>
+        <v>0.3514126950644149</v>
       </c>
       <c r="F128">
-        <v>0.2302012196194727</v>
+        <v>0.2292699963671967</v>
       </c>
       <c r="G128">
-        <v>0.06772627276005952</v>
+        <v>0.06745230253484351</v>
       </c>
       <c r="H128">
-        <v>0.1543809144408327</v>
+        <v>0.1537564038605996</v>
       </c>
       <c r="I128">
-        <v>0.1407518603364628</v>
+        <v>0.1401824827920559</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -4130,25 +4121,25 @@
         <v>19</v>
       </c>
       <c r="C129">
-        <v>0.07537860312223865</v>
+        <v>0.07517703730311717</v>
       </c>
       <c r="D129">
-        <v>-0.002681215253385833</v>
+        <v>0</v>
       </c>
       <c r="E129">
-        <v>0.2504284301694275</v>
+        <v>0.249758773137225</v>
       </c>
       <c r="F129">
-        <v>0.3060591246102932</v>
+        <v>0.3052407085665302</v>
       </c>
       <c r="G129">
-        <v>0.05853855598245084</v>
+        <v>0.05838202121664127</v>
       </c>
       <c r="H129">
-        <v>0.2192150924466779</v>
+        <v>0.2186289013016769</v>
       </c>
       <c r="I129">
-        <v>0.09306140892229775</v>
+        <v>0.09281255847480932</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -4159,25 +4150,25 @@
         <v>21</v>
       </c>
       <c r="C130">
-        <v>0.08799838409375944</v>
+        <v>0.08779120375783594</v>
       </c>
       <c r="D130">
-        <v>-0.002359921348099904</v>
+        <v>0</v>
       </c>
       <c r="E130">
-        <v>0.2993848438505925</v>
+        <v>0.2986799825834438</v>
       </c>
       <c r="F130">
-        <v>0.3278506435842594</v>
+        <v>0.3270787634279357</v>
       </c>
       <c r="G130">
-        <v>0.1424009651277025</v>
+        <v>0.1420657012464982</v>
       </c>
       <c r="H130">
-        <v>0.07007985879064568</v>
+        <v>0.06991486520769254</v>
       </c>
       <c r="I130">
-        <v>0.07464522590114028</v>
+        <v>0.07446948377659394</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -4188,25 +4179,25 @@
         <v>27</v>
       </c>
       <c r="C131">
-        <v>0.01531120724831626</v>
+        <v>0.0152806874579078</v>
       </c>
       <c r="D131">
-        <v>-0.001997278623263982</v>
+        <v>0</v>
       </c>
       <c r="E131">
-        <v>0.2699963745644845</v>
+        <v>0.2694581914787806</v>
       </c>
       <c r="F131">
-        <v>0.3377848709435106</v>
+        <v>0.3371115652206403</v>
       </c>
       <c r="G131">
-        <v>0.1035208023324808</v>
+        <v>0.1033144545808722</v>
       </c>
       <c r="H131">
-        <v>0.2186958020798083</v>
+        <v>0.218259876294569</v>
       </c>
       <c r="I131">
-        <v>0.05668822145466347</v>
+        <v>0.05657522496723007</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -4220,22 +4211,22 @@
         <v>0.01480120265175241</v>
       </c>
       <c r="D132">
-        <v>0.02990285683716319</v>
+        <v>0.02990285683716318</v>
       </c>
       <c r="E132">
-        <v>0.1777289301248974</v>
+        <v>0.1777289301248973</v>
       </c>
       <c r="F132">
-        <v>0.2181849080230624</v>
+        <v>0.2181849080230623</v>
       </c>
       <c r="G132">
-        <v>0.2401592783952229</v>
+        <v>0.2401592783952228</v>
       </c>
       <c r="H132">
-        <v>0.2714979688521548</v>
+        <v>0.2714979688521547</v>
       </c>
       <c r="I132">
-        <v>0.04772485511574715</v>
+        <v>0.04772485511574714</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -4246,25 +4237,25 @@
         <v>28</v>
       </c>
       <c r="C133">
-        <v>-0.004398819458936134</v>
+        <v>0</v>
       </c>
       <c r="D133">
-        <v>0.1808566040395132</v>
+        <v>0.1800645326693431</v>
       </c>
       <c r="E133">
-        <v>0.2795164887818494</v>
+        <v>0.2782923310607069</v>
       </c>
       <c r="F133">
-        <v>0.06898370436444344</v>
+        <v>0.06868158646542871</v>
       </c>
       <c r="G133">
-        <v>0.078908783263563</v>
+        <v>0.07856319793970956</v>
       </c>
       <c r="H133">
-        <v>0.212065502052902</v>
+        <v>0.2111367496102201</v>
       </c>
       <c r="I133">
-        <v>0.184067736956665</v>
+        <v>0.1832616022545917</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -4278,13 +4269,13 @@
         <v>0.01620479832930142</v>
       </c>
       <c r="D134">
-        <v>0.07643984410516658</v>
+        <v>0.07643984410516659</v>
       </c>
       <c r="E134">
-        <v>0.2826734654350734</v>
+        <v>0.2826734654350735</v>
       </c>
       <c r="F134">
-        <v>0.08678813816268714</v>
+        <v>0.08678813816268716</v>
       </c>
       <c r="G134">
         <v>0.1397122726947933</v>
@@ -4293,7 +4284,7 @@
         <v>0.351304443024798</v>
       </c>
       <c r="I134">
-        <v>0.04687703824818012</v>
+        <v>0.04687703824818013</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -4304,7 +4295,7 @@
         <v>32</v>
       </c>
       <c r="C135">
-        <v>0.005333733908383991</v>
+        <v>0.005333733908383992</v>
       </c>
       <c r="D135">
         <v>0.05370132182738661</v>
@@ -4319,7 +4310,7 @@
         <v>0.1933325770058974</v>
       </c>
       <c r="H135">
-        <v>0.3900135368969707</v>
+        <v>0.3900135368969708</v>
       </c>
       <c r="I135">
         <v>0.006465948130714998</v>
@@ -4333,25 +4324,25 @@
         <v>34</v>
       </c>
       <c r="C136">
-        <v>-0.003283198595628266</v>
+        <v>0</v>
       </c>
       <c r="D136">
-        <v>0.07920482259560882</v>
+        <v>0.07894562841925173</v>
       </c>
       <c r="E136">
-        <v>0.2024760705954512</v>
+        <v>0.2018134768716074</v>
       </c>
       <c r="F136">
-        <v>0.08879275502192625</v>
+        <v>0.08850218477316893</v>
       </c>
       <c r="G136">
-        <v>0.2427310540359681</v>
+        <v>0.2419367277113154</v>
       </c>
       <c r="H136">
-        <v>0.3769059221170254</v>
+        <v>0.3756725146445284</v>
       </c>
       <c r="I136">
-        <v>0.01317257422964838</v>
+        <v>0.01312946758012795</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -4365,10 +4356,10 @@
         <v>0.03291307878322977</v>
       </c>
       <c r="D137">
-        <v>0.03072940918247066</v>
+        <v>0.03072940918247067</v>
       </c>
       <c r="E137">
-        <v>0.2677470297233153</v>
+        <v>0.2677470297233154</v>
       </c>
       <c r="F137">
         <v>0.1838721031993404</v>
@@ -4423,7 +4414,7 @@
         <v>0.003278127239779337</v>
       </c>
       <c r="D139">
-        <v>0.06599540691602077</v>
+        <v>0.06599540691602075</v>
       </c>
       <c r="E139">
         <v>0.2111249824404185</v>
@@ -4432,13 +4423,13 @@
         <v>0.2013052278274911</v>
       </c>
       <c r="G139">
-        <v>0.07787542803897324</v>
+        <v>0.07787542803897322</v>
       </c>
       <c r="H139">
         <v>0.3406517976540478</v>
       </c>
       <c r="I139">
-        <v>0.09976902988326915</v>
+        <v>0.09976902988326913</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -4481,13 +4472,13 @@
         <v>0.01678279598060117</v>
       </c>
       <c r="D141">
-        <v>0.09766260653830182</v>
+        <v>0.0976626065383018</v>
       </c>
       <c r="E141">
         <v>0.2528079078666956</v>
       </c>
       <c r="F141">
-        <v>0.2735243300814676</v>
+        <v>0.2735243300814677</v>
       </c>
       <c r="G141">
         <v>0.07342071988473699</v>
@@ -4507,25 +4498,25 @@
         <v>35</v>
       </c>
       <c r="C142">
-        <v>-0.03274668091764978</v>
+        <v>0</v>
       </c>
       <c r="D142">
-        <v>0.1340259598482027</v>
+        <v>0.1260646015440116</v>
       </c>
       <c r="E142">
-        <v>0.1923803886385676</v>
+        <v>0.1809526830926729</v>
       </c>
       <c r="F142">
-        <v>0.1200861677673733</v>
+        <v>0.1129528556086237</v>
       </c>
       <c r="G142">
-        <v>-0.03040632323008183</v>
+        <v>0</v>
       </c>
       <c r="H142">
-        <v>0.2927892687318231</v>
+        <v>0.2753971136699514</v>
       </c>
       <c r="I142">
-        <v>0.3238712191617648</v>
+        <v>0.3046327460847404</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -4542,7 +4533,7 @@
         <v>0.1043195523329582</v>
       </c>
       <c r="E143">
-        <v>0.2083445369676401</v>
+        <v>0.2083445369676402</v>
       </c>
       <c r="F143">
         <v>0.1039644833337998</v>
@@ -4554,7 +4545,7 @@
         <v>0.4262140229696798</v>
       </c>
       <c r="I143">
-        <v>0.09045266286501284</v>
+        <v>0.09045266286501286</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -4568,7 +4559,7 @@
         <v>0.01810937190275159</v>
       </c>
       <c r="D144">
-        <v>0.07044019416404146</v>
+        <v>0.07044019416404144</v>
       </c>
       <c r="E144">
         <v>0.2480409607176783</v>
@@ -4594,7 +4585,7 @@
         <v>13</v>
       </c>
       <c r="C145">
-        <v>0.02125205146392159</v>
+        <v>0.02125205146392158</v>
       </c>
       <c r="D145">
         <v>0.02480845426395017</v>
@@ -4606,13 +4597,13 @@
         <v>0.312741078521922</v>
       </c>
       <c r="G145">
-        <v>0.1227556705433382</v>
+        <v>0.1227556705433381</v>
       </c>
       <c r="H145">
-        <v>0.2879535168492712</v>
+        <v>0.2879535168492711</v>
       </c>
       <c r="I145">
-        <v>0.05746801611825608</v>
+        <v>0.05746801611825607</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -4626,7 +4617,7 @@
         <v>0.01832811694414288</v>
       </c>
       <c r="D146">
-        <v>0.015658118801466</v>
+        <v>0.01565811880146601</v>
       </c>
       <c r="E146">
         <v>0.1603343489038883</v>
@@ -4652,25 +4643,25 @@
         <v>17</v>
       </c>
       <c r="C147">
-        <v>0.008831957857833568</v>
+        <v>0.008826782986666445</v>
       </c>
       <c r="D147">
-        <v>-0.0005862692189146574</v>
+        <v>0</v>
       </c>
       <c r="E147">
-        <v>0.1577474244002361</v>
+        <v>0.1576549961287976</v>
       </c>
       <c r="F147">
-        <v>0.3253598943914198</v>
+        <v>0.3251692576647136</v>
       </c>
       <c r="G147">
-        <v>0.1939965109121894</v>
+        <v>0.1938828433690464</v>
       </c>
       <c r="H147">
-        <v>0.310771480021493</v>
+        <v>0.3105893910218154</v>
       </c>
       <c r="I147">
-        <v>0.003879001635743042</v>
+        <v>0.003876728828960542</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -4681,25 +4672,25 @@
         <v>23</v>
       </c>
       <c r="C148">
-        <v>0.005135478361318065</v>
+        <v>0.00513134916871574</v>
       </c>
       <c r="D148">
-        <v>-0.0007002420300661204</v>
+        <v>0</v>
       </c>
       <c r="E148">
-        <v>0.1870189088818465</v>
+        <v>0.1868685359193458</v>
       </c>
       <c r="F148">
-        <v>0.3769413138520888</v>
+        <v>0.3766382333647105</v>
       </c>
       <c r="G148">
-        <v>0.1691141530196068</v>
+        <v>0.1689781764151959</v>
       </c>
       <c r="H148">
-        <v>0.2625948450912475</v>
+        <v>0.2623837051320322</v>
       </c>
       <c r="I148">
-        <v>-0.0001044571760414676</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -4710,25 +4701,25 @@
         <v>27</v>
       </c>
       <c r="C149">
-        <v>0.0004091020548222202</v>
+        <v>0.0004050454378790961</v>
       </c>
       <c r="D149">
-        <v>-0.0004171896826123641</v>
+        <v>0</v>
       </c>
       <c r="E149">
-        <v>0.1566382245506887</v>
+        <v>0.1550850148609224</v>
       </c>
       <c r="F149">
-        <v>0.4864336514818892</v>
+        <v>0.481610221804508</v>
       </c>
       <c r="G149">
-        <v>0.09669095476058132</v>
+        <v>0.09573217647847498</v>
       </c>
       <c r="H149">
-        <v>0.2698432816532987</v>
+        <v>0.2671675414182156</v>
       </c>
       <c r="I149">
-        <v>-0.009598024818667854</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -4739,25 +4730,25 @@
         <v>27</v>
       </c>
       <c r="C150">
-        <v>0.009600385256428387</v>
+        <v>0.00959303851978476</v>
       </c>
       <c r="D150">
-        <v>-0.0007658404194325868</v>
+        <v>0</v>
       </c>
       <c r="E150">
-        <v>0.2021472804476225</v>
+        <v>0.2019925863605619</v>
       </c>
       <c r="F150">
-        <v>0.3782751900672476</v>
+        <v>0.3779857133300114</v>
       </c>
       <c r="G150">
-        <v>0.1378406709025294</v>
+        <v>0.1377351877285888</v>
       </c>
       <c r="H150">
-        <v>0.2679119070852277</v>
+        <v>0.2677068863311149</v>
       </c>
       <c r="I150">
-        <v>0.004990406660377006</v>
+        <v>0.004986587729938372</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -4783,7 +4774,7 @@
         <v>0.1105859018920966</v>
       </c>
       <c r="H151">
-        <v>0.2626888591448086</v>
+        <v>0.2626888591448087</v>
       </c>
       <c r="I151">
         <v>0.05336748534792581</v>
@@ -4797,7 +4788,7 @@
         <v>30</v>
       </c>
       <c r="C152">
-        <v>0.03530173897784272</v>
+        <v>0.03530173897784271</v>
       </c>
       <c r="D152">
         <v>0.0167943031196717</v>
@@ -4809,7 +4800,7 @@
         <v>0.2430462828791044</v>
       </c>
       <c r="G152">
-        <v>0.1662445609783767</v>
+        <v>0.1662445609783766</v>
       </c>
       <c r="H152">
         <v>0.2350734609101662</v>
@@ -4829,10 +4820,10 @@
         <v>0.02592220074087064</v>
       </c>
       <c r="D153">
-        <v>0.05553435320972665</v>
+        <v>0.05553435320972666</v>
       </c>
       <c r="E153">
-        <v>0.2429524565976138</v>
+        <v>0.2429524565976139</v>
       </c>
       <c r="F153">
         <v>0.1972739356455353</v>
@@ -4884,25 +4875,25 @@
         <v>42</v>
       </c>
       <c r="C155">
-        <v>-0.0001867316779397316</v>
+        <v>0</v>
       </c>
       <c r="D155">
-        <v>0.06417839720818841</v>
+        <v>0.06416641530579099</v>
       </c>
       <c r="E155">
-        <v>0.2512745133936551</v>
+        <v>0.2512276012421304</v>
       </c>
       <c r="F155">
-        <v>0.07903732668261834</v>
+        <v>0.07902257066540287</v>
       </c>
       <c r="G155">
-        <v>0.1063379797681499</v>
+        <v>0.106318126805936</v>
       </c>
       <c r="H155">
-        <v>0.3685627795490287</v>
+        <v>0.3684939700516903</v>
       </c>
       <c r="I155">
-        <v>0.1307957350762992</v>
+        <v>0.1307713159290494</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -4919,7 +4910,7 @@
         <v>0.1333314230353662</v>
       </c>
       <c r="E156">
-        <v>0.2393078885526052</v>
+        <v>0.2393078885526051</v>
       </c>
       <c r="F156">
         <v>0.01079787793182783</v>
@@ -4928,7 +4919,7 @@
         <v>0.1902902659364108</v>
       </c>
       <c r="H156">
-        <v>0.3800465709256495</v>
+        <v>0.3800465709256494</v>
       </c>
       <c r="I156">
         <v>0.02875832742821189</v>
@@ -4942,25 +4933,25 @@
         <v>47</v>
       </c>
       <c r="C157">
-        <v>-0.001103483431427749</v>
+        <v>0</v>
       </c>
       <c r="D157">
-        <v>0.08962026909661783</v>
+        <v>0.08952148362268336</v>
       </c>
       <c r="E157">
-        <v>0.2589946266566595</v>
+        <v>0.2587091454011505</v>
       </c>
       <c r="F157">
-        <v>0.008131877042929446</v>
+        <v>0.008122913542420465</v>
       </c>
       <c r="G157">
-        <v>0.09577073635308703</v>
+        <v>0.09566517142145878</v>
       </c>
       <c r="H157">
-        <v>0.4878197332126676</v>
+        <v>0.4872820255710174</v>
       </c>
       <c r="I157">
-        <v>0.0607662410694663</v>
+        <v>0.06069926044126946</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -4971,10 +4962,10 @@
         <v>44</v>
       </c>
       <c r="C158">
-        <v>0.04687943604309987</v>
+        <v>0.04687943604309986</v>
       </c>
       <c r="D158">
-        <v>0.03089209140418382</v>
+        <v>0.03089209140418381</v>
       </c>
       <c r="E158">
         <v>0.3105768113965867</v>
@@ -4986,7 +4977,7 @@
         <v>0.1271425778743024</v>
       </c>
       <c r="H158">
-        <v>0.3351606318283512</v>
+        <v>0.3351606318283511</v>
       </c>
       <c r="I158">
         <v>0.1054448031568755</v>
@@ -5000,25 +4991,25 @@
         <v>39</v>
       </c>
       <c r="C159">
-        <v>-0.009723893584019013</v>
+        <v>0</v>
       </c>
       <c r="D159">
-        <v>0.1110503887705838</v>
+        <v>0.1099809457577655</v>
       </c>
       <c r="E159">
-        <v>0.3360105480414655</v>
+        <v>0.3327746824419444</v>
       </c>
       <c r="F159">
-        <v>0.009995765171413684</v>
+        <v>0.009899503453299176</v>
       </c>
       <c r="G159">
-        <v>0.106963980048527</v>
+        <v>0.1059338901735384</v>
       </c>
       <c r="H159">
-        <v>0.3111270944495483</v>
+        <v>0.3081308627304059</v>
       </c>
       <c r="I159">
-        <v>0.1345761171024806</v>
+        <v>0.1332801154430466</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -5058,19 +5049,19 @@
         <v>30</v>
       </c>
       <c r="C161">
-        <v>0.04230733324398933</v>
+        <v>0.04230733324398934</v>
       </c>
       <c r="D161">
         <v>0.1096751773072458</v>
       </c>
       <c r="E161">
-        <v>0.2907581502905788</v>
+        <v>0.2907581502905789</v>
       </c>
       <c r="F161">
         <v>0.1081017244541527</v>
       </c>
       <c r="G161">
-        <v>0.07716180552713657</v>
+        <v>0.07716180552713658</v>
       </c>
       <c r="H161">
         <v>0.2502208956267924</v>
@@ -5102,7 +5093,7 @@
         <v>0.04888252411575521</v>
       </c>
       <c r="H162">
-        <v>0.2674366445485987</v>
+        <v>0.2674366445485988</v>
       </c>
       <c r="I162">
         <v>0.13350326634169</v>
@@ -5145,7 +5136,7 @@
         <v>16</v>
       </c>
       <c r="C164">
-        <v>0.06228184982787941</v>
+        <v>0.06228184982787942</v>
       </c>
       <c r="D164">
         <v>0.05640734330875286</v>
@@ -5157,13 +5148,13 @@
         <v>0.1196585751995703</v>
       </c>
       <c r="G164">
-        <v>0.09762185775604992</v>
+        <v>0.09762185775604994</v>
       </c>
       <c r="H164">
-        <v>0.3122552918135373</v>
+        <v>0.3122552918135374</v>
       </c>
       <c r="I164">
-        <v>0.05589559786253268</v>
+        <v>0.05589559786253269</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -5177,7 +5168,7 @@
         <v>0.008773018866817809</v>
       </c>
       <c r="D165">
-        <v>0.08384346776320389</v>
+        <v>0.08384346776320391</v>
       </c>
       <c r="E165">
         <v>0.1992719260499717</v>
@@ -5192,7 +5183,7 @@
         <v>0.358364652930363</v>
       </c>
       <c r="I165">
-        <v>0.06915415477508301</v>
+        <v>0.06915415477508302</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -5203,25 +5194,25 @@
         <v>12</v>
       </c>
       <c r="C166">
-        <v>-0.008896093522253483</v>
+        <v>0</v>
       </c>
       <c r="D166">
-        <v>0.06771797535389974</v>
+        <v>0.06712086188923881</v>
       </c>
       <c r="E166">
-        <v>0.2079240307042016</v>
+        <v>0.206090629192842</v>
       </c>
       <c r="F166">
-        <v>0.172329785963989</v>
+        <v>0.1708102420759228</v>
       </c>
       <c r="G166">
-        <v>0.2162095094417831</v>
+        <v>0.2143030494715798</v>
       </c>
       <c r="H166">
-        <v>0.3046070405966255</v>
+        <v>0.3019211220584498</v>
       </c>
       <c r="I166">
-        <v>0.04010775146175453</v>
+        <v>0.0397540953119667</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -5232,25 +5223,25 @@
         <v>16</v>
       </c>
       <c r="C167">
-        <v>0.007108247754008151</v>
+        <v>0.007102138081787141</v>
       </c>
       <c r="D167">
-        <v>-0.0008602581575647311</v>
+        <v>0</v>
       </c>
       <c r="E167">
-        <v>0.1820349757960705</v>
+        <v>0.1818785133213001</v>
       </c>
       <c r="F167">
-        <v>0.2580185047819119</v>
+        <v>0.2577967330393212</v>
       </c>
       <c r="G167">
-        <v>0.2494728562777183</v>
+        <v>0.249258429680244</v>
       </c>
       <c r="H167">
-        <v>0.2899278431293719</v>
+        <v>0.2896786447121859</v>
       </c>
       <c r="I167">
-        <v>0.01429783041848418</v>
+        <v>0.01428554116516162</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -5261,25 +5252,25 @@
         <v>15</v>
       </c>
       <c r="C168">
-        <v>0.00156672695905148</v>
+        <v>0.00156564749359025</v>
       </c>
       <c r="D168">
-        <v>-0.0006894690315977089</v>
+        <v>0</v>
       </c>
       <c r="E168">
-        <v>0.1731519276547394</v>
+        <v>0.1730326270169552</v>
       </c>
       <c r="F168">
-        <v>0.4375195230573365</v>
+        <v>0.4372180747347522</v>
       </c>
       <c r="G168">
-        <v>0.06863413475844536</v>
+        <v>0.06858684625197967</v>
       </c>
       <c r="H168">
-        <v>0.3080260176628664</v>
+        <v>0.3078137895874471</v>
       </c>
       <c r="I168">
-        <v>0.0117911389391586</v>
+        <v>0.01178301491527566</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -5290,25 +5281,25 @@
         <v>18</v>
       </c>
       <c r="C169">
-        <v>0.0021914284347774</v>
+        <v>0.002189695779850488</v>
       </c>
       <c r="D169">
-        <v>-0.0007912765521385514</v>
+        <v>0</v>
       </c>
       <c r="E169">
-        <v>0.2082189293175923</v>
+        <v>0.2080543008277757</v>
       </c>
       <c r="F169">
-        <v>0.3966682136888552</v>
+        <v>0.3963545875973569</v>
       </c>
       <c r="G169">
-        <v>0.07917776484992034</v>
+        <v>0.07911516287661745</v>
       </c>
       <c r="H169">
-        <v>0.3033021044339939</v>
+        <v>0.3030622983434775</v>
       </c>
       <c r="I169">
-        <v>0.01123283582699934</v>
+        <v>0.01122395457492194</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -5319,25 +5310,25 @@
         <v>19</v>
       </c>
       <c r="C170">
-        <v>-0.001277874756911276</v>
+        <v>0</v>
       </c>
       <c r="D170">
-        <v>-0.0001715363620818295</v>
+        <v>0</v>
       </c>
       <c r="E170">
-        <v>0.1940897056300685</v>
+        <v>0.1923521406139203</v>
       </c>
       <c r="F170">
-        <v>0.4116572624950296</v>
+        <v>0.4079719497906144</v>
       </c>
       <c r="G170">
-        <v>0.1782295727170367</v>
+        <v>0.1766339936553299</v>
       </c>
       <c r="H170">
-        <v>0.2250567093759419</v>
+        <v>0.2230419159401354</v>
       </c>
       <c r="I170">
-        <v>-0.007583839099083641</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -5366,7 +5357,7 @@
         <v>0.3378129942610925</v>
       </c>
       <c r="I171">
-        <v>0.06332588342356936</v>
+        <v>0.06332588342356935</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -5395,7 +5386,7 @@
         <v>0.431439087824267</v>
       </c>
       <c r="I172">
-        <v>0.03846677550314789</v>
+        <v>0.0384667755031479</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -5418,7 +5409,7 @@
         <v>0.133584710662669</v>
       </c>
       <c r="G173">
-        <v>0.05963086798393634</v>
+        <v>0.05963086798393635</v>
       </c>
       <c r="H173">
         <v>0.4520817082454768</v>
@@ -5435,25 +5426,25 @@
         <v>22</v>
       </c>
       <c r="C174">
-        <v>0.01827797305183141</v>
+        <v>0.01827797305183142</v>
       </c>
       <c r="D174">
         <v>0.01177277417487616</v>
       </c>
       <c r="E174">
-        <v>0.2449131844918</v>
+        <v>0.2449131844918001</v>
       </c>
       <c r="F174">
         <v>0.1923618082849164</v>
       </c>
       <c r="G174">
-        <v>0.09853723845598211</v>
+        <v>0.09853723845598213</v>
       </c>
       <c r="H174">
         <v>0.3639392834982069</v>
       </c>
       <c r="I174">
-        <v>0.07019773804238702</v>
+        <v>0.07019773804238703</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -5482,7 +5473,7 @@
         <v>0.384328609459973</v>
       </c>
       <c r="I175">
-        <v>0.05785381700009186</v>
+        <v>0.05785381700009185</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -5525,10 +5516,10 @@
         <v>0.006305522815276655</v>
       </c>
       <c r="D177">
-        <v>0.08247313375738397</v>
+        <v>0.08247313375738395</v>
       </c>
       <c r="E177">
-        <v>0.1914631194483795</v>
+        <v>0.1914631194483796</v>
       </c>
       <c r="F177">
         <v>0.05782558492829366</v>
@@ -5551,25 +5542,25 @@
         <v>21</v>
       </c>
       <c r="C178">
-        <v>0.01151440770561688</v>
+        <v>0.01150810776745011</v>
       </c>
       <c r="D178">
-        <v>-0.0005474347559194023</v>
+        <v>0</v>
       </c>
       <c r="E178">
-        <v>0.2279769319775659</v>
+        <v>0.2278521977652966</v>
       </c>
       <c r="F178">
-        <v>0.2338102775789482</v>
+        <v>0.2336823517377619</v>
       </c>
       <c r="G178">
-        <v>0.1016534039373294</v>
+        <v>0.1015977857782699</v>
       </c>
       <c r="H178">
-        <v>0.4085573769461229</v>
+        <v>0.4083338408096456</v>
       </c>
       <c r="I178">
-        <v>0.01703503661033613</v>
+        <v>0.01702571614157581</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -5589,7 +5580,7 @@
         <v>0.1892029654030156</v>
       </c>
       <c r="F179">
-        <v>0.09109376019524931</v>
+        <v>0.09109376019524933</v>
       </c>
       <c r="G179">
         <v>0.06697221704240361</v>
@@ -5609,25 +5600,25 @@
         <v>17</v>
       </c>
       <c r="C180">
-        <v>-0.00638965838428368</v>
+        <v>0</v>
       </c>
       <c r="D180">
-        <v>0.1323968137647607</v>
+        <v>0.1288199286387673</v>
       </c>
       <c r="E180">
-        <v>0.2705828628130096</v>
+        <v>0.2632726882716176</v>
       </c>
       <c r="F180">
-        <v>0.03403276585115066</v>
+        <v>0.03311332307524151</v>
       </c>
       <c r="G180">
-        <v>-0.02137689267493626</v>
+        <v>0</v>
       </c>
       <c r="H180">
-        <v>0.3992048424399422</v>
+        <v>0.3884197651971843</v>
       </c>
       <c r="I180">
-        <v>0.1915492661903568</v>
+        <v>0.1863742948171891</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -5650,7 +5641,7 @@
         <v>0.1288542712889318</v>
       </c>
       <c r="G181">
-        <v>0.05653673722043401</v>
+        <v>0.056536737220434</v>
       </c>
       <c r="H181">
         <v>0.4486177646935806</v>
@@ -5667,7 +5658,7 @@
         <v>7</v>
       </c>
       <c r="C182">
-        <v>0.01578864677135153</v>
+        <v>0.01578864677135152</v>
       </c>
       <c r="D182">
         <v>0.04081799456742714</v>
@@ -5679,7 +5670,7 @@
         <v>0.1305064921463188</v>
       </c>
       <c r="G182">
-        <v>0.05069554118436586</v>
+        <v>0.05069554118436585</v>
       </c>
       <c r="H182">
         <v>0.4458974049317729</v>
@@ -5699,22 +5690,22 @@
         <v>0.01603182500219847</v>
       </c>
       <c r="D183">
-        <v>0.01763396113485993</v>
+        <v>0.01763396113485992</v>
       </c>
       <c r="E183">
-        <v>0.1619550526611681</v>
+        <v>0.161955052661168</v>
       </c>
       <c r="F183">
-        <v>0.09291463691406171</v>
+        <v>0.09291463691406168</v>
       </c>
       <c r="G183">
         <v>0.2567906771661316</v>
       </c>
       <c r="H183">
-        <v>0.3649659109025859</v>
+        <v>0.3649659109025858</v>
       </c>
       <c r="I183">
-        <v>0.08970793621899437</v>
+        <v>0.08970793621899435</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -5725,25 +5716,25 @@
         <v>9</v>
       </c>
       <c r="C184">
-        <v>0.007942321960966255</v>
+        <v>0.007942321960966258</v>
       </c>
       <c r="D184">
-        <v>0.007279271591540864</v>
+        <v>0.007279271591540867</v>
       </c>
       <c r="E184">
         <v>0.1232133745137038</v>
       </c>
       <c r="F184">
-        <v>0.2505218323735862</v>
+        <v>0.2505218323735863</v>
       </c>
       <c r="G184">
-        <v>0.07700126362962346</v>
+        <v>0.07700126362962348</v>
       </c>
       <c r="H184">
-        <v>0.4735546683662099</v>
+        <v>0.47355466836621</v>
       </c>
       <c r="I184">
-        <v>0.06048726756436939</v>
+        <v>0.06048726756436941</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -5754,25 +5745,25 @@
         <v>13</v>
       </c>
       <c r="C185">
-        <v>0.005091135319231525</v>
+        <v>0.00504760635118233</v>
       </c>
       <c r="D185">
-        <v>-0.0002881895005526907</v>
+        <v>0</v>
       </c>
       <c r="E185">
-        <v>0.1669668631366631</v>
+        <v>0.1655393042927062</v>
       </c>
       <c r="F185">
-        <v>0.3860230111819112</v>
+        <v>0.3827225325526125</v>
       </c>
       <c r="G185">
-        <v>0.08682070513832757</v>
+        <v>0.08607839218394606</v>
       </c>
       <c r="H185">
-        <v>0.3637219703967405</v>
+        <v>0.3606121646195529</v>
       </c>
       <c r="I185">
-        <v>-0.008335495672321036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -5783,25 +5774,25 @@
         <v>19</v>
       </c>
       <c r="C186">
-        <v>0.0007626957666715172</v>
+        <v>0.000759049878171669</v>
       </c>
       <c r="D186">
-        <v>-0.0004435922658847217</v>
+        <v>0</v>
       </c>
       <c r="E186">
-        <v>0.170736543131954</v>
+        <v>0.1699203770716319</v>
       </c>
       <c r="F186">
-        <v>0.4558704911331308</v>
+        <v>0.4536913090087881</v>
       </c>
       <c r="G186">
-        <v>0.05522773628426658</v>
+        <v>0.05496373302452622</v>
       </c>
       <c r="H186">
-        <v>0.3222057601974048</v>
+        <v>0.3206655310168822</v>
       </c>
       <c r="I186">
-        <v>-0.004359634247542942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -5812,25 +5803,25 @@
         <v>20</v>
       </c>
       <c r="C187">
-        <v>0.006469351648898126</v>
+        <v>0.006441002169998774</v>
       </c>
       <c r="D187">
-        <v>-0.004401408065254225</v>
+        <v>0</v>
       </c>
       <c r="E187">
-        <v>0.2433761545056148</v>
+        <v>0.2423096508540568</v>
       </c>
       <c r="F187">
-        <v>0.3332889241806287</v>
+        <v>0.3318284119320704</v>
       </c>
       <c r="G187">
-        <v>0.01229393007781628</v>
+        <v>0.01224005659400426</v>
       </c>
       <c r="H187">
-        <v>0.2315827788361395</v>
+        <v>0.2305679551786272</v>
       </c>
       <c r="I187">
-        <v>0.1773902688161568</v>
+        <v>0.1766129232712426</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -5841,25 +5832,25 @@
         <v>19</v>
       </c>
       <c r="C188">
-        <v>0.004406690271467947</v>
+        <v>0.004384009678107109</v>
       </c>
       <c r="D188">
-        <v>-0.00517348159017539</v>
+        <v>0</v>
       </c>
       <c r="E188">
-        <v>0.1906965896806508</v>
+        <v>0.1897151020925965</v>
       </c>
       <c r="F188">
-        <v>0.407381805628814</v>
+        <v>0.4052850707763795</v>
       </c>
       <c r="G188">
-        <v>0.007285646827108771</v>
+        <v>0.007248148663435633</v>
       </c>
       <c r="H188">
-        <v>0.1562722422682185</v>
+        <v>0.1554679317852648</v>
       </c>
       <c r="I188">
-        <v>0.2391305069139154</v>
+        <v>0.2378997370042165</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -5870,25 +5861,25 @@
         <v>19</v>
       </c>
       <c r="C189">
-        <v>0.005582600894200452</v>
+        <v>0.005578277144282453</v>
       </c>
       <c r="D189">
-        <v>-0.0007751048946054048</v>
+        <v>0</v>
       </c>
       <c r="E189">
-        <v>0.3053622362474475</v>
+        <v>0.3051257317992598</v>
       </c>
       <c r="F189">
-        <v>0.4051734738449557</v>
+        <v>0.4048596651368798</v>
       </c>
       <c r="G189">
-        <v>0.04736753998608352</v>
+        <v>0.04733085360978471</v>
       </c>
       <c r="H189">
-        <v>0.2283917220664423</v>
+        <v>0.2282148316334216</v>
       </c>
       <c r="I189">
-        <v>0.008897531855475961</v>
+        <v>0.008890640676371525</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -5928,7 +5919,7 @@
         <v>22</v>
       </c>
       <c r="C191">
-        <v>0.004581492634340577</v>
+        <v>0.004581492634340578</v>
       </c>
       <c r="D191">
         <v>0.001933435527530908</v>
@@ -5960,7 +5951,7 @@
         <v>0.004370807216339615</v>
       </c>
       <c r="D192">
-        <v>0.06925709884230749</v>
+        <v>0.06925709884230748</v>
       </c>
       <c r="E192">
         <v>0.1726995378302195</v>
@@ -6015,25 +6006,25 @@
         <v>36</v>
       </c>
       <c r="C194">
-        <v>-0.003427822157508031</v>
+        <v>0</v>
       </c>
       <c r="D194">
-        <v>0.04311213038147411</v>
+        <v>0.04296485450122072</v>
       </c>
       <c r="E194">
-        <v>0.1606073403882425</v>
+        <v>0.1600586876721383</v>
       </c>
       <c r="F194">
-        <v>0.07877694340245202</v>
+        <v>0.07850783251462047</v>
       </c>
       <c r="G194">
-        <v>0.2433885811876941</v>
+        <v>0.2425571384540396</v>
       </c>
       <c r="H194">
-        <v>0.441883378442142</v>
+        <v>0.4403738551837559</v>
       </c>
       <c r="I194">
-        <v>0.03565944835550332</v>
+        <v>0.03553763167422504</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -6059,7 +6050,7 @@
         <v>0.1203715950661638</v>
       </c>
       <c r="H195">
-        <v>0.2046288301022751</v>
+        <v>0.204628830102275</v>
       </c>
       <c r="I195">
         <v>0.078983994364559</v>
@@ -6088,7 +6079,7 @@
         <v>0.08268626933601192</v>
       </c>
       <c r="H196">
-        <v>0.3515839675709932</v>
+        <v>0.3515839675709933</v>
       </c>
       <c r="I196">
         <v>0.1341365333498519</v>
@@ -6105,22 +6096,22 @@
         <v>0.0310654080226523</v>
       </c>
       <c r="D197">
-        <v>0.09371446040634365</v>
+        <v>0.09371446040634367</v>
       </c>
       <c r="E197">
         <v>0.1139313336600211</v>
       </c>
       <c r="F197">
-        <v>0.09400667983354051</v>
+        <v>0.09400667983354052</v>
       </c>
       <c r="G197">
-        <v>0.0002451782642341017</v>
+        <v>0.0002451782642341018</v>
       </c>
       <c r="H197">
-        <v>0.4587999827126118</v>
+        <v>0.4587999827126119</v>
       </c>
       <c r="I197">
-        <v>0.2082369571005965</v>
+        <v>0.2082369571005966</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -6134,13 +6125,13 @@
         <v>0.02822676301207462</v>
       </c>
       <c r="D198">
-        <v>0.09990571545607896</v>
+        <v>0.09990571545607897</v>
       </c>
       <c r="E198">
         <v>0.1984801570964697</v>
       </c>
       <c r="F198">
-        <v>0.05454844772020258</v>
+        <v>0.0545484477202026</v>
       </c>
       <c r="G198">
         <v>0.05452940206317353</v>
@@ -6149,7 +6140,7 @@
         <v>0.3648502947380625</v>
       </c>
       <c r="I198">
-        <v>0.199459219913938</v>
+        <v>0.1994592199139381</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -6160,25 +6151,25 @@
         <v>23</v>
       </c>
       <c r="C199">
-        <v>-0.0004859917425608619</v>
+        <v>0</v>
       </c>
       <c r="D199">
-        <v>-0.000425562073920296</v>
+        <v>0</v>
       </c>
       <c r="E199">
-        <v>0.1778494105240053</v>
+        <v>0.1766237711318427</v>
       </c>
       <c r="F199">
-        <v>0.4545046870706582</v>
+        <v>0.4513724931164863</v>
       </c>
       <c r="G199">
-        <v>0.09299473576824964</v>
+        <v>0.09235386768167292</v>
       </c>
       <c r="H199">
-        <v>0.2815904329901289</v>
+        <v>0.2796498680699981</v>
       </c>
       <c r="I199">
-        <v>-0.006027712536560838</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -6189,25 +6180,25 @@
         <v>22</v>
       </c>
       <c r="C200">
-        <v>-0.0004049973626263255</v>
+        <v>0</v>
       </c>
       <c r="D200">
-        <v>-0.000259743200322541</v>
+        <v>0</v>
       </c>
       <c r="E200">
-        <v>0.1404318074846101</v>
+        <v>0.1391443890490265</v>
       </c>
       <c r="F200">
-        <v>0.4018325051312718</v>
+        <v>0.3981486774828995</v>
       </c>
       <c r="G200">
-        <v>0.1400108315427401</v>
+        <v>0.1387272724336027</v>
       </c>
       <c r="H200">
-        <v>0.3269772478665418</v>
+        <v>0.3239796610344712</v>
       </c>
       <c r="I200">
-        <v>-0.008587651462214926</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -6247,25 +6238,25 @@
         <v>33</v>
       </c>
       <c r="C202">
-        <v>-0.00196133495097495</v>
+        <v>0</v>
       </c>
       <c r="D202">
-        <v>0.03614555413059756</v>
+        <v>0.03607479936575211</v>
       </c>
       <c r="E202">
-        <v>0.1550128314141996</v>
+        <v>0.1547093944715784</v>
       </c>
       <c r="F202">
-        <v>0.1013082185897108</v>
+        <v>0.1011099081928823</v>
       </c>
       <c r="G202">
-        <v>0.2346836194563899</v>
+        <v>0.234224227293035</v>
       </c>
       <c r="H202">
-        <v>0.4444863426181921</v>
+        <v>0.4436162625376562</v>
       </c>
       <c r="I202">
-        <v>0.03032476874188486</v>
+        <v>0.03026540813909613</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -6276,25 +6267,25 @@
         <v>38</v>
       </c>
       <c r="C203">
-        <v>-0.00144272132548489</v>
+        <v>0</v>
       </c>
       <c r="D203">
-        <v>0.03993419248308526</v>
+        <v>0.03987666157304467</v>
       </c>
       <c r="E203">
-        <v>0.114866880626386</v>
+        <v>0.1147013984727464</v>
       </c>
       <c r="F203">
-        <v>0.08536997471495097</v>
+        <v>0.0852469870687735</v>
       </c>
       <c r="G203">
-        <v>0.2627988149875987</v>
+        <v>0.2624202157461035</v>
       </c>
       <c r="H203">
-        <v>0.4610829471486605</v>
+        <v>0.4604186912840931</v>
       </c>
       <c r="I203">
-        <v>0.03738991136480338</v>
+        <v>0.03733604585523874</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -6305,25 +6296,25 @@
         <v>42</v>
       </c>
       <c r="C204">
-        <v>-0.002861866919462269</v>
+        <v>0</v>
       </c>
       <c r="D204">
-        <v>0.05706384056792328</v>
+        <v>0.05690099748553502</v>
       </c>
       <c r="E204">
-        <v>0.1564479660739251</v>
+        <v>0.1560015105116058</v>
       </c>
       <c r="F204">
-        <v>0.09761851545958321</v>
+        <v>0.09733994150105894</v>
       </c>
       <c r="G204">
-        <v>0.2150358235459313</v>
+        <v>0.2144221758141696</v>
       </c>
       <c r="H204">
-        <v>0.4626141186168122</v>
+        <v>0.461293956701979</v>
       </c>
       <c r="I204">
-        <v>0.01408160265528719</v>
+        <v>0.01404141798565171</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -6334,25 +6325,25 @@
         <v>46</v>
       </c>
       <c r="C205">
-        <v>-0.003868847529501206</v>
+        <v>0</v>
       </c>
       <c r="D205">
-        <v>0.03273626641329674</v>
+        <v>0.03261010289726587</v>
       </c>
       <c r="E205">
-        <v>0.06204851824000016</v>
+        <v>0.06180938714524329</v>
       </c>
       <c r="F205">
-        <v>0.06073685638939216</v>
+        <v>0.06050278035707972</v>
       </c>
       <c r="G205">
-        <v>0.4182151829333517</v>
+        <v>0.4166034078680396</v>
       </c>
       <c r="H205">
-        <v>0.4136904168213362</v>
+        <v>0.4120960799206182</v>
       </c>
       <c r="I205">
-        <v>0.01644160673212422</v>
+        <v>0.01637824181175325</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -6363,25 +6354,25 @@
         <v>46</v>
       </c>
       <c r="C206">
-        <v>0.02572277918425995</v>
+        <v>0.02551537225918291</v>
       </c>
       <c r="D206">
-        <v>-0.008128704647936252</v>
+        <v>0</v>
       </c>
       <c r="E206">
-        <v>0.07468057851250337</v>
+        <v>0.07407841694040812</v>
       </c>
       <c r="F206">
-        <v>0.09269227920404279</v>
+        <v>0.09194488637878162</v>
       </c>
       <c r="G206">
-        <v>0.3308422499874102</v>
+        <v>0.3281746154653424</v>
       </c>
       <c r="H206">
-        <v>0.4541748747101209</v>
+        <v>0.4505127893057366</v>
       </c>
       <c r="I206">
-        <v>0.03001594304959895</v>
+        <v>0.02977391965054825</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -6395,19 +6386,19 @@
         <v>0.002534179822956905</v>
       </c>
       <c r="D207">
-        <v>0.04520643544568629</v>
+        <v>0.0452064354456863</v>
       </c>
       <c r="E207">
         <v>0.1312585072676468</v>
       </c>
       <c r="F207">
-        <v>0.1630307037141804</v>
+        <v>0.1630307037141805</v>
       </c>
       <c r="G207">
         <v>0.2137470095132374</v>
       </c>
       <c r="H207">
-        <v>0.392118958012346</v>
+        <v>0.3921189580123461</v>
       </c>
       <c r="I207">
         <v>0.05210420622394608</v>
@@ -6424,22 +6415,22 @@
         <v>0.0179109746962529</v>
       </c>
       <c r="D208">
-        <v>0.07747413128182427</v>
+        <v>0.07747413128182425</v>
       </c>
       <c r="E208">
-        <v>0.2563283031801626</v>
+        <v>0.2563283031801625</v>
       </c>
       <c r="F208">
         <v>0.03093700041417344</v>
       </c>
       <c r="G208">
-        <v>0.1391159079887859</v>
+        <v>0.1391159079887858</v>
       </c>
       <c r="H208">
         <v>0.351408196704343</v>
       </c>
       <c r="I208">
-        <v>0.126825485734458</v>
+        <v>0.1268254857344579</v>
       </c>
     </row>
     <row r="209" spans="1:9">
@@ -6453,7 +6444,7 @@
         <v>0.002566839866223112</v>
       </c>
       <c r="D209">
-        <v>0.03069746147358102</v>
+        <v>0.03069746147358101</v>
       </c>
       <c r="E209">
         <v>0.2693918416362102</v>
@@ -6479,7 +6470,7 @@
         <v>38</v>
       </c>
       <c r="C210">
-        <v>0.02759688253398762</v>
+        <v>0.02759688253398761</v>
       </c>
       <c r="D210">
         <v>0.1840686310735833</v>
@@ -6488,16 +6479,16 @@
         <v>0.2751274265036547</v>
       </c>
       <c r="F210">
-        <v>0.02754205685736779</v>
+        <v>0.02754205685736778</v>
       </c>
       <c r="G210">
-        <v>0.007629688359512446</v>
+        <v>0.007629688359512444</v>
       </c>
       <c r="H210">
-        <v>0.1612020129007307</v>
+        <v>0.1612020129007306</v>
       </c>
       <c r="I210">
-        <v>0.3168333017711636</v>
+        <v>0.3168333017711635</v>
       </c>
     </row>
     <row r="211" spans="1:9">
@@ -6537,25 +6528,25 @@
         <v>29</v>
       </c>
       <c r="C212">
-        <v>-0.03687457492261838</v>
+        <v>0</v>
       </c>
       <c r="D212">
-        <v>0.1196854061164686</v>
+        <v>0.1058620551342074</v>
       </c>
       <c r="E212">
-        <v>0.2145464452088562</v>
+        <v>0.1897668926272117</v>
       </c>
       <c r="F212">
-        <v>0.06489509665639012</v>
+        <v>0.05739988293554522</v>
       </c>
       <c r="G212">
-        <v>-0.09370432763823443</v>
+        <v>0</v>
       </c>
       <c r="H212">
-        <v>0.3744690964621847</v>
+        <v>0.3312188964555962</v>
       </c>
       <c r="I212">
-        <v>0.3569828581169532</v>
+        <v>0.3157522728474396</v>
       </c>
     </row>
     <row r="213" spans="1:9">
@@ -6569,7 +6560,7 @@
         <v>0.01032503616226926</v>
       </c>
       <c r="D213">
-        <v>0.04703979657808779</v>
+        <v>0.0470397965780878</v>
       </c>
       <c r="E213">
         <v>0.1841389854552787</v>
@@ -6581,7 +6572,7 @@
         <v>0.1120314301937669</v>
       </c>
       <c r="H213">
-        <v>0.4085874911417645</v>
+        <v>0.4085874911417646</v>
       </c>
       <c r="I213">
         <v>0.09449434548463635</v>
@@ -6601,7 +6592,7 @@
         <v>0.05525818904691699</v>
       </c>
       <c r="E214">
-        <v>0.1836176244619635</v>
+        <v>0.1836176244619634</v>
       </c>
       <c r="F214">
         <v>0.2438389650990355</v>
@@ -6610,10 +6601,10 @@
         <v>0.04579823525983191</v>
       </c>
       <c r="H214">
-        <v>0.3559759101196231</v>
+        <v>0.355975910119623</v>
       </c>
       <c r="I214">
-        <v>0.09805884089464725</v>
+        <v>0.09805884089464724</v>
       </c>
     </row>
     <row r="215" spans="1:9">
@@ -6624,25 +6615,25 @@
         <v>16</v>
       </c>
       <c r="C215">
-        <v>-0.01904297881179074</v>
+        <v>0</v>
       </c>
       <c r="D215">
-        <v>0.0804650315062713</v>
+        <v>0.07896137177657994</v>
       </c>
       <c r="E215">
-        <v>0.08926456646544347</v>
+        <v>0.08759646876673091</v>
       </c>
       <c r="F215">
-        <v>0.1466825763333744</v>
+        <v>0.1439415013725986</v>
       </c>
       <c r="G215">
-        <v>0.03147712715819287</v>
+        <v>0.03088891029394595</v>
       </c>
       <c r="H215">
-        <v>0.4256439305410123</v>
+        <v>0.4176898711743398</v>
       </c>
       <c r="I215">
-        <v>0.2455097468074965</v>
+        <v>0.2409218766158049</v>
       </c>
     </row>
     <row r="216" spans="1:9">
@@ -6653,25 +6644,25 @@
         <v>15</v>
       </c>
       <c r="C216">
-        <v>-0.02622559962083597</v>
+        <v>0</v>
       </c>
       <c r="D216">
-        <v>0.1156665547634644</v>
+        <v>0.1127106503737582</v>
       </c>
       <c r="E216">
-        <v>0.1530088104290561</v>
+        <v>0.1490986099797052</v>
       </c>
       <c r="F216">
-        <v>0.1163933965631459</v>
+        <v>0.1134189174448097</v>
       </c>
       <c r="G216">
-        <v>0.03284923960848746</v>
+        <v>0.03200976434482283</v>
       </c>
       <c r="H216">
-        <v>0.4402979175078073</v>
+        <v>0.4290459307100564</v>
       </c>
       <c r="I216">
-        <v>0.1680096807488748</v>
+        <v>0.1637161271468477</v>
       </c>
     </row>
     <row r="217" spans="1:9">
@@ -6682,7 +6673,7 @@
         <v>19</v>
       </c>
       <c r="C217">
-        <v>0.003512996330664029</v>
+        <v>0.003512996330664028</v>
       </c>
       <c r="D217">
         <v>0.000368936745511378</v>
@@ -6691,7 +6682,7 @@
         <v>0.1179776364415924</v>
       </c>
       <c r="F217">
-        <v>0.2961720168519636</v>
+        <v>0.2961720168519635</v>
       </c>
       <c r="G217">
         <v>0.09106203581790991</v>
@@ -6711,25 +6702,25 @@
         <v>16</v>
       </c>
       <c r="C218">
-        <v>0.004729045771440698</v>
+        <v>0.00472707817583387</v>
       </c>
       <c r="D218">
-        <v>-0.000416239277972501</v>
+        <v>0</v>
       </c>
       <c r="E218">
-        <v>0.2713104014309608</v>
+        <v>0.2711975183717258</v>
       </c>
       <c r="F218">
-        <v>0.3048872960495389</v>
+        <v>0.3047604427828804</v>
       </c>
       <c r="G218">
-        <v>0.09437792772693376</v>
+        <v>0.09433866027109762</v>
       </c>
       <c r="H218">
-        <v>0.3165485994076783</v>
+        <v>0.3164168942680699</v>
       </c>
       <c r="I218">
-        <v>0.008562968891420043</v>
+        <v>0.008559406130392454</v>
       </c>
     </row>
     <row r="219" spans="1:9">
@@ -6740,25 +6731,25 @@
         <v>13</v>
       </c>
       <c r="C219">
-        <v>0.008535377803300014</v>
+        <v>0.008529243445588315</v>
       </c>
       <c r="D219">
-        <v>-0.0007192147522615374</v>
+        <v>0</v>
       </c>
       <c r="E219">
-        <v>0.2438985718998634</v>
+        <v>0.2437232825196056</v>
       </c>
       <c r="F219">
-        <v>0.2807567754913999</v>
+        <v>0.2805549961993126</v>
       </c>
       <c r="G219">
-        <v>0.1180269129560935</v>
+        <v>0.1179420872670186</v>
       </c>
       <c r="H219">
-        <v>0.3372197154756028</v>
+        <v>0.3369773563897092</v>
       </c>
       <c r="I219">
-        <v>0.01228186112600207</v>
+        <v>0.01227303417876569</v>
       </c>
     </row>
     <row r="220" spans="1:9">
@@ -6769,25 +6760,25 @@
         <v>8</v>
       </c>
       <c r="C220">
-        <v>0.007405146697325376</v>
+        <v>0.007402318362456366</v>
       </c>
       <c r="D220">
-        <v>-0.0003820877096227827</v>
+        <v>0</v>
       </c>
       <c r="E220">
-        <v>0.2015203012682856</v>
+        <v>0.2014433322468487</v>
       </c>
       <c r="F220">
-        <v>0.3103051362035685</v>
+        <v>0.3101866177092524</v>
       </c>
       <c r="G220">
-        <v>0.1139079579635131</v>
+        <v>0.1138644517559342</v>
       </c>
       <c r="H220">
-        <v>0.3609253976170544</v>
+        <v>0.3607875451302751</v>
       </c>
       <c r="I220">
-        <v>0.006318147959875775</v>
+        <v>0.006315734795233278</v>
       </c>
     </row>
     <row r="221" spans="1:9">
@@ -6798,25 +6789,25 @@
         <v>13</v>
       </c>
       <c r="C221">
-        <v>0.007094983128529753</v>
+        <v>0.007091035337688735</v>
       </c>
       <c r="D221">
-        <v>-0.0005567298219535938</v>
+        <v>0</v>
       </c>
       <c r="E221">
-        <v>0.1977198620191115</v>
+        <v>0.1976098467243284</v>
       </c>
       <c r="F221">
-        <v>0.302433008339375</v>
+        <v>0.3022647285508661</v>
       </c>
       <c r="G221">
-        <v>0.1090549919899589</v>
+        <v>0.1089943116062644</v>
       </c>
       <c r="H221">
-        <v>0.370603695158634</v>
+        <v>0.3703974838334073</v>
       </c>
       <c r="I221">
-        <v>0.01365018918634435</v>
+        <v>0.013642593947445</v>
       </c>
     </row>
     <row r="222" spans="1:9">
@@ -6827,25 +6818,25 @@
         <v>6</v>
       </c>
       <c r="C222">
-        <v>0.01107757551831672</v>
+        <v>0.01107277278557884</v>
       </c>
       <c r="D222">
-        <v>-0.0004337425530975291</v>
+        <v>0</v>
       </c>
       <c r="E222">
-        <v>0.1927647484668298</v>
+        <v>0.1926811744422933</v>
       </c>
       <c r="F222">
-        <v>0.2770197537303574</v>
+        <v>0.2768996505689677</v>
       </c>
       <c r="G222">
-        <v>0.1176230365403509</v>
+        <v>0.1175720405433128</v>
       </c>
       <c r="H222">
-        <v>0.3843363497563863</v>
+        <v>0.3841697190016437</v>
       </c>
       <c r="I222">
-        <v>0.01761227854085657</v>
+        <v>0.01760464265820363</v>
       </c>
     </row>
     <row r="223" spans="1:9">
@@ -6856,25 +6847,25 @@
         <v>4</v>
       </c>
       <c r="C223">
-        <v>0.0006335431686850831</v>
+        <v>0.0006227977641018239</v>
       </c>
       <c r="D223">
-        <v>0.007851138475169828</v>
+        <v>0.007717976816225593</v>
       </c>
       <c r="E223">
-        <v>0.1965540036106094</v>
+        <v>0.1932202887263673</v>
       </c>
       <c r="F223">
-        <v>-0.01122134896279863</v>
+        <v>0</v>
       </c>
       <c r="G223">
-        <v>0.2067197214496228</v>
+        <v>0.2032135877682746</v>
       </c>
       <c r="H223">
-        <v>0.6054950344651436</v>
+        <v>0.5952253489250308</v>
       </c>
       <c r="I223">
-        <v>-0.006032092206432135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:9">
@@ -6885,10 +6876,10 @@
         <v>24</v>
       </c>
       <c r="C224">
-        <v>0.006926682769340897</v>
+        <v>0.006926682769340898</v>
       </c>
       <c r="D224">
-        <v>0.04771043475638675</v>
+        <v>0.04771043475638676</v>
       </c>
       <c r="E224">
         <v>0.1970668140724716</v>
@@ -6897,13 +6888,13 @@
         <v>0.03790501030069264</v>
       </c>
       <c r="G224">
-        <v>0.2192903337867788</v>
+        <v>0.2192903337867789</v>
       </c>
       <c r="H224">
-        <v>0.4043646617632721</v>
+        <v>0.4043646617632722</v>
       </c>
       <c r="I224">
-        <v>0.08673606255105709</v>
+        <v>0.08673606255105711</v>
       </c>
     </row>
     <row r="225" spans="1:9">
@@ -6914,25 +6905,25 @@
         <v>36</v>
       </c>
       <c r="C225">
-        <v>0.0003256531569360605</v>
+        <v>0.0003210139875969098</v>
       </c>
       <c r="D225">
-        <v>0.04513775492646558</v>
+        <v>0.04449473432545825</v>
       </c>
       <c r="E225">
-        <v>0.1561763856619499</v>
+        <v>0.1539515378923809</v>
       </c>
       <c r="F225">
-        <v>-0.0144516112019892</v>
+        <v>0</v>
       </c>
       <c r="G225">
-        <v>0.2232588698475128</v>
+        <v>0.220078382627813</v>
       </c>
       <c r="H225">
-        <v>0.535985008901836</v>
+        <v>0.5283495072443777</v>
       </c>
       <c r="I225">
-        <v>0.05356793870728879</v>
+        <v>0.05280482392237316</v>
       </c>
     </row>
     <row r="226" spans="1:9">
@@ -6943,7 +6934,7 @@
         <v>45</v>
       </c>
       <c r="C226">
-        <v>0.05888932426208586</v>
+        <v>0.05888932426208587</v>
       </c>
       <c r="D226">
         <v>0.1471652009297226</v>
@@ -6952,16 +6943,16 @@
         <v>0.2678178022297906</v>
       </c>
       <c r="F226">
-        <v>0.007680737721615441</v>
+        <v>0.007680737721615442</v>
       </c>
       <c r="G226">
         <v>0.148967941853612</v>
       </c>
       <c r="H226">
-        <v>0.2741273163505211</v>
+        <v>0.2741273163505212</v>
       </c>
       <c r="I226">
-        <v>0.09535167665265228</v>
+        <v>0.0953516766526523</v>
       </c>
     </row>
     <row r="227" spans="1:9">
@@ -6972,25 +6963,25 @@
         <v>44</v>
       </c>
       <c r="C227">
-        <v>0.009552698723732111</v>
+        <v>0.009370235801358611</v>
       </c>
       <c r="D227">
-        <v>0.1192143665597763</v>
+        <v>0.1169372925788537</v>
       </c>
       <c r="E227">
-        <v>0.2430252053801169</v>
+        <v>0.238383261729794</v>
       </c>
       <c r="F227">
-        <v>-0.01947260733257583</v>
+        <v>0</v>
       </c>
       <c r="G227">
-        <v>0.1237082531802573</v>
+        <v>0.1213453429650619</v>
       </c>
       <c r="H227">
-        <v>0.357758961674834</v>
+        <v>0.3509255266906103</v>
       </c>
       <c r="I227">
-        <v>0.1662131218138591</v>
+        <v>0.1630383402343213</v>
       </c>
     </row>
     <row r="228" spans="1:9">
@@ -7001,25 +6992,25 @@
         <v>39</v>
       </c>
       <c r="C228">
-        <v>0.02375576987624849</v>
+        <v>0.02308192459674759</v>
       </c>
       <c r="D228">
-        <v>0.1647736935336252</v>
+        <v>0.1600997984693119</v>
       </c>
       <c r="E228">
-        <v>0.2230477884468306</v>
+        <v>0.2167209171170033</v>
       </c>
       <c r="F228">
-        <v>-0.003332470460490636</v>
+        <v>0</v>
       </c>
       <c r="G228">
-        <v>-0.02586116444098741</v>
+        <v>0</v>
       </c>
       <c r="H228">
-        <v>0.3507174961298752</v>
+        <v>0.3407692043912111</v>
       </c>
       <c r="I228">
-        <v>0.2668988869148984</v>
+        <v>0.259328155425726</v>
       </c>
     </row>
     <row r="229" spans="1:9">
@@ -7030,25 +7021,25 @@
         <v>32</v>
       </c>
       <c r="C229">
-        <v>0.01239450435734963</v>
+        <v>0.01162338340906243</v>
       </c>
       <c r="D229">
-        <v>0.1630754430348519</v>
+        <v>0.1529297456636761</v>
       </c>
       <c r="E229">
-        <v>0.2794800288214576</v>
+        <v>0.2620922496381503</v>
       </c>
       <c r="F229">
-        <v>-0.05969648498961057</v>
+        <v>0</v>
       </c>
       <c r="G229">
-        <v>-0.006645725462294218</v>
+        <v>0</v>
       </c>
       <c r="H229">
-        <v>0.3870198639731943</v>
+        <v>0.3629415211925066</v>
       </c>
       <c r="I229">
-        <v>0.2243723702650515</v>
+        <v>0.2104131000966048</v>
       </c>
     </row>
     <row r="230" spans="1:9">
@@ -7059,25 +7050,25 @@
         <v>26</v>
       </c>
       <c r="C230">
-        <v>-0.0165789461807297</v>
+        <v>0</v>
       </c>
       <c r="D230">
-        <v>0.2605631314260152</v>
+        <v>0.2365378075735523</v>
       </c>
       <c r="E230">
-        <v>0.2884987934184117</v>
+        <v>0.2618976510964396</v>
       </c>
       <c r="F230">
-        <v>-0.01225427973781944</v>
+        <v>0</v>
       </c>
       <c r="G230">
-        <v>-0.07273752972055597</v>
+        <v>0</v>
       </c>
       <c r="H230">
-        <v>0.2193100360725253</v>
+        <v>0.1990884697599719</v>
       </c>
       <c r="I230">
-        <v>0.333198794722153</v>
+        <v>0.3024760715700364</v>
       </c>
     </row>
     <row r="231" spans="1:9">
@@ -7094,16 +7085,16 @@
         <v>0.09726848667578916</v>
       </c>
       <c r="E231">
-        <v>0.2495805924426237</v>
+        <v>0.2495805924426236</v>
       </c>
       <c r="F231">
-        <v>0.06338912744196673</v>
+        <v>0.06338912744196672</v>
       </c>
       <c r="G231">
         <v>0.01857080844614186</v>
       </c>
       <c r="H231">
-        <v>0.356424476591005</v>
+        <v>0.3564244765910049</v>
       </c>
       <c r="I231">
         <v>0.196563568051218</v>
@@ -7117,10 +7108,10 @@
         <v>19</v>
       </c>
       <c r="C232">
-        <v>0.0303853704400438</v>
+        <v>0.03038537044004379</v>
       </c>
       <c r="D232">
-        <v>0.07987120498645704</v>
+        <v>0.07987120498645703</v>
       </c>
       <c r="E232">
         <v>0.261089962850179</v>
@@ -7129,7 +7120,7 @@
         <v>0.03988972823561322</v>
       </c>
       <c r="G232">
-        <v>0.07049301983504309</v>
+        <v>0.07049301983504308</v>
       </c>
       <c r="H232">
         <v>0.4023109837787004</v>
@@ -7146,25 +7137,25 @@
         <v>13</v>
       </c>
       <c r="C233">
-        <v>-0.008261196720742431</v>
+        <v>0</v>
       </c>
       <c r="D233">
-        <v>0.1440714455290392</v>
+        <v>0.1428909949104613</v>
       </c>
       <c r="E233">
-        <v>0.2977835720684363</v>
+        <v>0.2953436798291398</v>
       </c>
       <c r="F233">
-        <v>0.01795323209163776</v>
+        <v>0.01780613213126585</v>
       </c>
       <c r="G233">
-        <v>0.01150652177965483</v>
+        <v>0.01141224299524619</v>
       </c>
       <c r="H233">
-        <v>0.3544884583888488</v>
+        <v>0.3515839541795154</v>
       </c>
       <c r="I233">
-        <v>0.1824579668631256</v>
+        <v>0.1809629959543717</v>
       </c>
     </row>
     <row r="234" spans="1:9">
@@ -7175,25 +7166,25 @@
         <v>14</v>
       </c>
       <c r="C234">
-        <v>0.1082235960862031</v>
+        <v>0.107778301812817</v>
       </c>
       <c r="D234">
-        <v>-0.004131576262534722</v>
+        <v>0</v>
       </c>
       <c r="E234">
-        <v>0.2243581548206909</v>
+        <v>0.2234350160123154</v>
       </c>
       <c r="F234">
-        <v>0.1479090629703227</v>
+        <v>0.1473004798045024</v>
       </c>
       <c r="G234">
-        <v>0.1307624098211606</v>
+        <v>0.1302243778727382</v>
       </c>
       <c r="H234">
-        <v>0.1911483586748711</v>
+        <v>0.1903618641157985</v>
       </c>
       <c r="I234">
-        <v>0.2017299938892864</v>
+        <v>0.2008999603818287</v>
       </c>
     </row>
     <row r="235" spans="1:9">
@@ -7204,25 +7195,25 @@
         <v>17</v>
       </c>
       <c r="C235">
-        <v>0.00354775968924134</v>
+        <v>0.003545294970508556</v>
       </c>
       <c r="D235">
-        <v>-0.0002666992650512836</v>
+        <v>0</v>
       </c>
       <c r="E235">
-        <v>0.2187759142804108</v>
+        <v>0.2186239250980983</v>
       </c>
       <c r="F235">
-        <v>0.2927309871030943</v>
+        <v>0.2925276194539924</v>
       </c>
       <c r="G235">
-        <v>0.181150684741784</v>
+        <v>0.1810248347617265</v>
       </c>
       <c r="H235">
-        <v>0.3044898625541067</v>
+        <v>0.3042783257156743</v>
       </c>
       <c r="I235">
-        <v>-0.0004285091035856843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:9">
@@ -7233,25 +7224,25 @@
         <v>20</v>
       </c>
       <c r="C236">
-        <v>0.001374822020514524</v>
+        <v>0.001373647589025255</v>
       </c>
       <c r="D236">
-        <v>-0.0008549729192931934</v>
+        <v>0</v>
       </c>
       <c r="E236">
-        <v>0.2930731157094705</v>
+        <v>0.2928227601793644</v>
       </c>
       <c r="F236">
-        <v>0.2825443868060362</v>
+        <v>0.2823030253643151</v>
       </c>
       <c r="G236">
-        <v>0.1558160338378557</v>
+        <v>0.1556829291494367</v>
       </c>
       <c r="H236">
-        <v>0.2563153890520665</v>
+        <v>0.2560964335366651</v>
       </c>
       <c r="I236">
-        <v>0.01173122549334994</v>
+        <v>0.01172120418119351</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -7262,25 +7253,25 @@
         <v>22</v>
       </c>
       <c r="C237">
-        <v>0.0019420314451901</v>
+        <v>0.001939225315775444</v>
       </c>
       <c r="D237">
-        <v>-0.001447036294249991</v>
+        <v>0</v>
       </c>
       <c r="E237">
-        <v>0.2617004974527628</v>
+        <v>0.2613223545212716</v>
       </c>
       <c r="F237">
-        <v>0.270414738091514</v>
+        <v>0.2700240035580467</v>
       </c>
       <c r="G237">
-        <v>0.1185382591025007</v>
+        <v>0.1183669777895984</v>
       </c>
       <c r="H237">
-        <v>0.305757336806261</v>
+        <v>0.3053155341471517</v>
       </c>
       <c r="I237">
-        <v>0.04309417339602162</v>
+        <v>0.04303190466815609</v>
       </c>
     </row>
     <row r="238" spans="1:9">
@@ -7291,25 +7282,25 @@
         <v>22</v>
       </c>
       <c r="C238">
-        <v>0.002604881699921883</v>
+        <v>0.002600300554562952</v>
       </c>
       <c r="D238">
-        <v>-0.0017617753266606</v>
+        <v>0</v>
       </c>
       <c r="E238">
-        <v>0.3107148820094051</v>
+        <v>0.3101684349136652</v>
       </c>
       <c r="F238">
-        <v>0.2848493070244086</v>
+        <v>0.2843483491187545</v>
       </c>
       <c r="G238">
-        <v>0.08203029135321439</v>
+        <v>0.08188602657200154</v>
       </c>
       <c r="H238">
-        <v>0.2648060231623136</v>
+        <v>0.26434031491765</v>
       </c>
       <c r="I238">
-        <v>0.05675639007739701</v>
+        <v>0.0566565739233657</v>
       </c>
     </row>
     <row r="239" spans="1:9">
@@ -7320,25 +7311,25 @@
         <v>21</v>
       </c>
       <c r="C239">
-        <v>0.002342267477875472</v>
+        <v>0.002338192830529009</v>
       </c>
       <c r="D239">
-        <v>0.0004940265039723617</v>
+        <v>0.0004931670872735825</v>
       </c>
       <c r="E239">
-        <v>0.1415881593179444</v>
+        <v>0.1413418502080306</v>
       </c>
       <c r="F239">
-        <v>0.3520203129710494</v>
+        <v>0.3514079325970327</v>
       </c>
       <c r="G239">
-        <v>0.04560891279691642</v>
+        <v>0.04552957077587978</v>
       </c>
       <c r="H239">
-        <v>0.4596889690548698</v>
+        <v>0.4588892865012544</v>
       </c>
       <c r="I239">
-        <v>-0.001742648122627891</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:9">
@@ -7352,7 +7343,7 @@
         <v>0.00118919605669909</v>
       </c>
       <c r="D240">
-        <v>0.0003907045296402205</v>
+        <v>0.0003907045296402204</v>
       </c>
       <c r="E240">
         <v>0.2793513027891157</v>
@@ -7378,25 +7369,25 @@
         <v>8</v>
       </c>
       <c r="C241">
-        <v>-0.01025008106641951</v>
+        <v>0</v>
       </c>
       <c r="D241">
-        <v>0.08225186841269357</v>
+        <v>0.0814173341375717</v>
       </c>
       <c r="E241">
-        <v>0.2462360961680347</v>
+        <v>0.243737764324758</v>
       </c>
       <c r="F241">
-        <v>0.1132968434168892</v>
+        <v>0.1121473242519249</v>
       </c>
       <c r="G241">
-        <v>0.04340185402577021</v>
+        <v>0.04296149521706075</v>
       </c>
       <c r="H241">
-        <v>0.3941775308042695</v>
+        <v>0.3901781729016798</v>
       </c>
       <c r="I241">
-        <v>0.1308858882387624</v>
+        <v>0.1295579091670048</v>
       </c>
     </row>
     <row r="242" spans="1:9">
@@ -7407,25 +7398,25 @@
         <v>11</v>
       </c>
       <c r="C242">
-        <v>0.01014435651484573</v>
+        <v>0.01013972869838036</v>
       </c>
       <c r="D242">
-        <v>-0.0004564043677132216</v>
+        <v>0</v>
       </c>
       <c r="E242">
-        <v>0.2588144319330457</v>
+        <v>0.2586963617836161</v>
       </c>
       <c r="F242">
-        <v>0.2695695526708555</v>
+        <v>0.2694465760766687</v>
       </c>
       <c r="G242">
-        <v>0.1220058254741768</v>
+        <v>0.1219501668853669</v>
       </c>
       <c r="H242">
-        <v>0.3275133668761833</v>
+        <v>0.3273639565365881</v>
       </c>
       <c r="I242">
-        <v>0.01240887089860633</v>
+        <v>0.01240321001937982</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -7436,25 +7427,25 @@
         <v>17</v>
       </c>
       <c r="C243">
-        <v>0.01281679583927645</v>
+        <v>0.0125054479246034</v>
       </c>
       <c r="D243">
-        <v>0.03605980475290713</v>
+        <v>0.0351838334763007</v>
       </c>
       <c r="E243">
-        <v>0.318211459523286</v>
+        <v>0.3104814093929691</v>
       </c>
       <c r="F243">
-        <v>-0.02489698222328385</v>
+        <v>0</v>
       </c>
       <c r="G243">
-        <v>0.1091042634041123</v>
+        <v>0.106453882972155</v>
       </c>
       <c r="H243">
-        <v>0.458714023525562</v>
+        <v>0.4475708597858147</v>
       </c>
       <c r="I243">
-        <v>0.08999063517813996</v>
+        <v>0.08780456644815705</v>
       </c>
     </row>
     <row r="244" spans="1:9">
@@ -7465,25 +7456,25 @@
         <v>24</v>
       </c>
       <c r="C244">
-        <v>0.05879033767744188</v>
+        <v>0.05879033767744186</v>
       </c>
       <c r="D244">
         <v>0.02444846143952355</v>
       </c>
       <c r="E244">
-        <v>0.3841110143555662</v>
+        <v>0.3841110143555661</v>
       </c>
       <c r="F244">
-        <v>0.004954930299502685</v>
+        <v>0.004954930299502684</v>
       </c>
       <c r="G244">
-        <v>0.06670060025837826</v>
+        <v>0.06670060025837825</v>
       </c>
       <c r="H244">
         <v>0.3855737472045601</v>
       </c>
       <c r="I244">
-        <v>0.07542090876502733</v>
+        <v>0.07542090876502731</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -7494,25 +7485,25 @@
         <v>28</v>
       </c>
       <c r="C245">
-        <v>0.04429512641051993</v>
+        <v>0.04368461234579827</v>
       </c>
       <c r="D245">
-        <v>0.05003622587725538</v>
+        <v>0.04934658297251363</v>
       </c>
       <c r="E245">
-        <v>0.4640135794225768</v>
+        <v>0.4576181395759023</v>
       </c>
       <c r="F245">
-        <v>-0.01397549461785197</v>
+        <v>0</v>
       </c>
       <c r="G245">
-        <v>0.1184572737163228</v>
+        <v>0.1168245922560161</v>
       </c>
       <c r="H245">
-        <v>0.2129154191015352</v>
+        <v>0.209980833098712</v>
       </c>
       <c r="I245">
-        <v>0.1242578700896419</v>
+        <v>0.1225452397510576</v>
       </c>
     </row>
     <row r="246" spans="1:9">
@@ -7523,25 +7514,25 @@
         <v>29</v>
       </c>
       <c r="C246">
-        <v>0.01989634501999491</v>
+        <v>0.01967940748913606</v>
       </c>
       <c r="D246">
-        <v>0.07407177804584941</v>
+        <v>0.07326414485395195</v>
       </c>
       <c r="E246">
-        <v>0.4016155543931922</v>
+        <v>0.3972365849574989</v>
       </c>
       <c r="F246">
-        <v>-0.01102358040904495</v>
+        <v>0</v>
       </c>
       <c r="G246">
-        <v>0.1433766260017952</v>
+        <v>0.1418133352970731</v>
       </c>
       <c r="H246">
-        <v>0.281603870824307</v>
+        <v>0.2785334351058106</v>
       </c>
       <c r="I246">
-        <v>0.09045940612390616</v>
+        <v>0.08947309229652947</v>
       </c>
     </row>
     <row r="247" spans="1:9">
@@ -7555,10 +7546,10 @@
         <v>0.01988951906232761</v>
       </c>
       <c r="D247">
-        <v>0.07899725437872084</v>
+        <v>0.07899725437872082</v>
       </c>
       <c r="E247">
-        <v>0.3214854458512342</v>
+        <v>0.3214854458512341</v>
       </c>
       <c r="F247">
         <v>0.03201869482107265</v>
@@ -7581,7 +7572,7 @@
         <v>36</v>
       </c>
       <c r="C248">
-        <v>0.007610249084243412</v>
+        <v>0.007610249084243414</v>
       </c>
       <c r="D248">
         <v>0.1400778364237597</v>
@@ -7590,13 +7581,13 @@
         <v>0.2194944612928172</v>
       </c>
       <c r="F248">
-        <v>0.09777800227490384</v>
+        <v>0.09777800227490387</v>
       </c>
       <c r="G248">
-        <v>0.07632391958838822</v>
+        <v>0.07632391958838823</v>
       </c>
       <c r="H248">
-        <v>0.2841820027078766</v>
+        <v>0.2841820027078767</v>
       </c>
       <c r="I248">
         <v>0.1745335286280109</v>
@@ -7610,25 +7601,25 @@
         <v>34</v>
       </c>
       <c r="C249">
-        <v>-0.01793318950420961</v>
+        <v>0</v>
       </c>
       <c r="D249">
-        <v>0.08924692434363644</v>
+        <v>0.08767463843781799</v>
       </c>
       <c r="E249">
-        <v>0.2510437383466261</v>
+        <v>0.2466210365622311</v>
       </c>
       <c r="F249">
-        <v>0.0019252972898869</v>
+        <v>0.00189137883481786</v>
       </c>
       <c r="G249">
-        <v>0.1295487704850538</v>
+        <v>0.1272664766419015</v>
       </c>
       <c r="H249">
-        <v>0.4013994251719524</v>
+        <v>0.3943278687744295</v>
       </c>
       <c r="I249">
-        <v>0.1447690338670538</v>
+        <v>0.142218600748802</v>
       </c>
     </row>
     <row r="250" spans="1:9">
@@ -7639,25 +7630,25 @@
         <v>31</v>
       </c>
       <c r="C250">
-        <v>-0.0237541271911407</v>
+        <v>0</v>
       </c>
       <c r="D250">
-        <v>0.1518019871203293</v>
+        <v>0.1393430545114642</v>
       </c>
       <c r="E250">
-        <v>0.3190108365774526</v>
+        <v>0.2928284750035844</v>
       </c>
       <c r="F250">
-        <v>-0.05329749062780931</v>
+        <v>0</v>
       </c>
       <c r="G250">
-        <v>-0.01236032059840387</v>
+        <v>0</v>
       </c>
       <c r="H250">
-        <v>0.3943011939400644</v>
+        <v>0.3619394831608753</v>
       </c>
       <c r="I250">
-        <v>0.2242979207795079</v>
+        <v>0.2058889873240762</v>
       </c>
     </row>
     <row r="251" spans="1:9">
@@ -7668,25 +7659,25 @@
         <v>23</v>
       </c>
       <c r="C251">
-        <v>-0.0309709129198506</v>
+        <v>0</v>
       </c>
       <c r="D251">
-        <v>0.1759692783604378</v>
+        <v>0.1372187085473663</v>
       </c>
       <c r="E251">
-        <v>0.3579687477301034</v>
+        <v>0.2791396868902892</v>
       </c>
       <c r="F251">
-        <v>-0.06951771484792375</v>
+        <v>0</v>
       </c>
       <c r="G251">
-        <v>-0.1819114197424769</v>
+        <v>0</v>
       </c>
       <c r="H251">
-        <v>0.2661842037503237</v>
+        <v>0.2075672129513048</v>
       </c>
       <c r="I251">
-        <v>0.4822778176693863</v>
+        <v>0.3760743916110398</v>
       </c>
     </row>
     <row r="252" spans="1:9">
@@ -7697,25 +7688,25 @@
         <v>18</v>
       </c>
       <c r="C252">
-        <v>-0.03270899270921408</v>
+        <v>0</v>
       </c>
       <c r="D252">
-        <v>0.1712020281308289</v>
+        <v>0.1477783584679854</v>
       </c>
       <c r="E252">
-        <v>0.3371282986623171</v>
+        <v>0.2910027825800659</v>
       </c>
       <c r="F252">
-        <v>-0.03261714152224493</v>
+        <v>0</v>
       </c>
       <c r="G252">
-        <v>-0.0931792782367543</v>
+        <v>0</v>
       </c>
       <c r="H252">
-        <v>0.3172372905615763</v>
+        <v>0.2738332399204743</v>
       </c>
       <c r="I252">
-        <v>0.3329377951134911</v>
+        <v>0.2873856190314745</v>
       </c>
     </row>
     <row r="253" spans="1:9">
@@ -7726,7 +7717,7 @@
         <v>15</v>
       </c>
       <c r="C253">
-        <v>0.01589877242928081</v>
+        <v>0.0158987724292808</v>
       </c>
       <c r="D253">
         <v>0.1187037270662371</v>
@@ -7735,7 +7726,7 @@
         <v>0.2461083299499278</v>
       </c>
       <c r="F253">
-        <v>0.1034531518205237</v>
+        <v>0.1034531518205236</v>
       </c>
       <c r="G253">
         <v>0.07568353126659308</v>
@@ -7755,25 +7746,25 @@
         <v>12</v>
       </c>
       <c r="C254">
-        <v>0.002858888643512415</v>
+        <v>0.002858888643512414</v>
       </c>
       <c r="D254">
         <v>0.004510112889254144</v>
       </c>
       <c r="E254">
-        <v>0.2818613569196448</v>
+        <v>0.2818613569196447</v>
       </c>
       <c r="F254">
-        <v>0.3453158666064249</v>
+        <v>0.3453158666064248</v>
       </c>
       <c r="G254">
-        <v>0.09415634560897626</v>
+        <v>0.09415634560897625</v>
       </c>
       <c r="H254">
-        <v>0.2668838341230404</v>
+        <v>0.2668838341230403</v>
       </c>
       <c r="I254">
-        <v>0.004413595209147215</v>
+        <v>0.004413595209147214</v>
       </c>
     </row>
     <row r="255" spans="1:9">
@@ -7784,13 +7775,13 @@
         <v>7</v>
       </c>
       <c r="C255">
-        <v>0.04300151209180232</v>
+        <v>0.04300151209180233</v>
       </c>
       <c r="D255">
         <v>0.01105874008529682</v>
       </c>
       <c r="E255">
-        <v>0.3668077814373345</v>
+        <v>0.3668077814373346</v>
       </c>
       <c r="F255">
         <v>0.1397321794969618</v>
@@ -7799,10 +7790,10 @@
         <v>0.05991563916342688</v>
       </c>
       <c r="H255">
-        <v>0.2994450394009265</v>
+        <v>0.2994450394009266</v>
       </c>
       <c r="I255">
-        <v>0.0800391083242511</v>
+        <v>0.08003910832425111</v>
       </c>
     </row>
     <row r="256" spans="1:9">
@@ -7842,25 +7833,25 @@
         <v>15</v>
       </c>
       <c r="C257">
-        <v>0.006454745249994739</v>
+        <v>0.006451755306767587</v>
       </c>
       <c r="D257">
-        <v>-0.0004634309711057221</v>
+        <v>0</v>
       </c>
       <c r="E257">
-        <v>0.1778337188960898</v>
+        <v>0.177751343418394</v>
       </c>
       <c r="F257">
-        <v>0.2003921238109821</v>
+        <v>0.2002992989123753</v>
       </c>
       <c r="G257">
-        <v>0.26186202782472</v>
+        <v>0.2617407290644718</v>
       </c>
       <c r="H257">
-        <v>0.3400715539317612</v>
+        <v>0.339914027244023</v>
       </c>
       <c r="I257">
-        <v>0.01384926125755795</v>
+        <v>0.01384284605396829</v>
       </c>
     </row>
     <row r="258" spans="1:9">
@@ -7871,25 +7862,25 @@
         <v>19</v>
       </c>
       <c r="C258">
-        <v>-0.001253502053027628</v>
+        <v>0</v>
       </c>
       <c r="D258">
-        <v>-0.0008093998940667491</v>
+        <v>0</v>
       </c>
       <c r="E258">
-        <v>0.2335411136237122</v>
+        <v>0.2330603330089575</v>
       </c>
       <c r="F258">
-        <v>0.3450467450757509</v>
+        <v>0.3443364128192906</v>
       </c>
       <c r="G258">
-        <v>0.09625628153067441</v>
+        <v>0.09605812304161762</v>
       </c>
       <c r="H258">
-        <v>0.3208856303590327</v>
+        <v>0.320225037505654</v>
       </c>
       <c r="I258">
-        <v>0.006333131357924128</v>
+        <v>0.00632009362448037</v>
       </c>
     </row>
     <row r="259" spans="1:9">
@@ -7900,25 +7891,25 @@
         <v>19</v>
       </c>
       <c r="C259">
-        <v>-0.001831754611437974</v>
+        <v>0</v>
       </c>
       <c r="D259">
-        <v>-0.0008683604019911009</v>
+        <v>0</v>
       </c>
       <c r="E259">
-        <v>0.1894305967907609</v>
+        <v>0.1889204897400694</v>
       </c>
       <c r="F259">
-        <v>0.4585772143457707</v>
+        <v>0.457342337434188</v>
       </c>
       <c r="G259">
-        <v>0.08307981397093117</v>
+        <v>0.08285609299029402</v>
       </c>
       <c r="H259">
-        <v>0.2347961167795978</v>
+        <v>0.2341638474594702</v>
       </c>
       <c r="I259">
-        <v>0.03681637312636841</v>
+        <v>0.03671723237597847</v>
       </c>
     </row>
     <row r="260" spans="1:9">
@@ -7938,13 +7929,13 @@
         <v>0.2193341549121707</v>
       </c>
       <c r="F260">
-        <v>0.4452734388563452</v>
+        <v>0.4452734388563453</v>
       </c>
       <c r="G260">
-        <v>0.05655600394309534</v>
+        <v>0.05655600394309535</v>
       </c>
       <c r="H260">
-        <v>0.2759197335859967</v>
+        <v>0.2759197335859968</v>
       </c>
       <c r="I260">
         <v>0.001013148067868388</v>
@@ -7961,10 +7952,10 @@
         <v>0.01382158289425309</v>
       </c>
       <c r="D261">
-        <v>0.06365858929792323</v>
+        <v>0.06365858929792324</v>
       </c>
       <c r="E261">
-        <v>0.2909963070265523</v>
+        <v>0.2909963070265524</v>
       </c>
       <c r="F261">
         <v>0.1553174200017806</v>
@@ -8005,7 +7996,7 @@
         <v>0.3680369975129962</v>
       </c>
       <c r="I262">
-        <v>0.07739805802012281</v>
+        <v>0.07739805802012283</v>
       </c>
     </row>
     <row r="263" spans="1:9">
@@ -8028,7 +8019,7 @@
         <v>0.1014718549773941</v>
       </c>
       <c r="G263">
-        <v>0.135537334550946</v>
+        <v>0.1355373345509459</v>
       </c>
       <c r="H263">
         <v>0.3086979698015557</v>
@@ -8045,25 +8036,25 @@
         <v>41</v>
       </c>
       <c r="C264">
-        <v>-0.006046675182320292</v>
+        <v>0</v>
       </c>
       <c r="D264">
-        <v>0.08552022051161566</v>
+        <v>0.08500621553778039</v>
       </c>
       <c r="E264">
-        <v>0.2866929353813828</v>
+        <v>0.2849698154704672</v>
       </c>
       <c r="F264">
-        <v>0.04012623457918636</v>
+        <v>0.03988506256125195</v>
       </c>
       <c r="G264">
-        <v>0.1659266458640898</v>
+        <v>0.1649293715264452</v>
       </c>
       <c r="H264">
-        <v>0.3795104581433146</v>
+        <v>0.3772294740445696</v>
       </c>
       <c r="I264">
-        <v>0.04827018070273088</v>
+        <v>0.04798006085948561</v>
       </c>
     </row>
     <row r="265" spans="1:9">
@@ -8074,7 +8065,7 @@
         <v>42</v>
       </c>
       <c r="C265">
-        <v>0.005184728971583593</v>
+        <v>0.005184728971583592</v>
       </c>
       <c r="D265">
         <v>0.1205148682238185</v>
@@ -8106,7 +8097,7 @@
         <v>0.02301620862761576</v>
       </c>
       <c r="D266">
-        <v>0.05217124827270397</v>
+        <v>0.05217124827270398</v>
       </c>
       <c r="E266">
         <v>0.2805417081360412</v>
@@ -8115,10 +8106,10 @@
         <v>0.04214471865513587</v>
       </c>
       <c r="G266">
-        <v>0.07498359161574369</v>
+        <v>0.07498359161574371</v>
       </c>
       <c r="H266">
-        <v>0.3894677602173888</v>
+        <v>0.3894677602173889</v>
       </c>
       <c r="I266">
         <v>0.1376747644753707</v>
@@ -8132,25 +8123,25 @@
         <v>43</v>
       </c>
       <c r="C267">
-        <v>0.005346721848528739</v>
+        <v>0.004942708716325372</v>
       </c>
       <c r="D267">
-        <v>0.08168109360422227</v>
+        <v>0.07550904362598766</v>
       </c>
       <c r="E267">
-        <v>0.2169830322464448</v>
+        <v>0.2005871925195301</v>
       </c>
       <c r="F267">
-        <v>0.04448973706719152</v>
+        <v>0.04112796914048213</v>
       </c>
       <c r="G267">
-        <v>-0.08173921535552867</v>
+        <v>0</v>
       </c>
       <c r="H267">
-        <v>0.2625787383576826</v>
+        <v>0.2427375606156448</v>
       </c>
       <c r="I267">
-        <v>0.4706598922314586</v>
+        <v>0.4350955253820301</v>
       </c>
     </row>
     <row r="268" spans="1:9">
@@ -8161,25 +8152,25 @@
         <v>41</v>
       </c>
       <c r="C268">
-        <v>-0.05148075609851327</v>
+        <v>0</v>
       </c>
       <c r="D268">
-        <v>0.1464329973058306</v>
+        <v>0.1287999408159047</v>
       </c>
       <c r="E268">
-        <v>0.2175748794721025</v>
+        <v>0.1913751143159763</v>
       </c>
       <c r="F268">
-        <v>0.02887532335194613</v>
+        <v>0.02539823678540986</v>
       </c>
       <c r="G268">
-        <v>-0.08542191930821802</v>
+        <v>0</v>
       </c>
       <c r="H268">
-        <v>0.2335114009537263</v>
+        <v>0.2053926039625042</v>
       </c>
       <c r="I268">
-        <v>0.5105080743231257</v>
+        <v>0.4490341041202049</v>
       </c>
     </row>
     <row r="269" spans="1:9">
@@ -8190,25 +8181,25 @@
         <v>33</v>
       </c>
       <c r="C269">
-        <v>0.08957802886479491</v>
+        <v>0.0811818282534562</v>
       </c>
       <c r="D269">
-        <v>-0.09463046550756977</v>
+        <v>0</v>
       </c>
       <c r="E269">
-        <v>0.4776103689929085</v>
+        <v>0.4328436720367537</v>
       </c>
       <c r="F269">
-        <v>0.1824309834392722</v>
+        <v>0.1653316215299824</v>
       </c>
       <c r="G269">
-        <v>-0.008794165250006912</v>
+        <v>0</v>
       </c>
       <c r="H269">
-        <v>0.1139613356271704</v>
+        <v>0.1032796735277951</v>
       </c>
       <c r="I269">
-        <v>0.2398439138334307</v>
+        <v>0.2173632046520127</v>
       </c>
     </row>
     <row r="270" spans="1:9">
@@ -8219,25 +8210,25 @@
         <v>28</v>
       </c>
       <c r="C270">
-        <v>0.1086600171348259</v>
+        <v>0.08641448931839908</v>
       </c>
       <c r="D270">
-        <v>-0.09210658801295808</v>
+        <v>0</v>
       </c>
       <c r="E270">
-        <v>0.1484463633271383</v>
+        <v>0.1180555370442399</v>
       </c>
       <c r="F270">
-        <v>0.1737823079526102</v>
+        <v>0.1382045557351976</v>
       </c>
       <c r="G270">
-        <v>-0.1653216279250185</v>
+        <v>0</v>
       </c>
       <c r="H270">
-        <v>0.239430733323886</v>
+        <v>0.1904130432966967</v>
       </c>
       <c r="I270">
-        <v>0.5871087941995162</v>
+        <v>0.4669123746054668</v>
       </c>
     </row>
     <row r="271" spans="1:9">
@@ -8248,25 +8239,25 @@
         <v>20</v>
       </c>
       <c r="C271">
-        <v>0.1340465901015542</v>
+        <v>0.1187785750894699</v>
       </c>
       <c r="D271">
-        <v>-0.1285418266769383</v>
+        <v>0</v>
       </c>
       <c r="E271">
-        <v>0.4896604894625139</v>
+        <v>0.4338877637387616</v>
       </c>
       <c r="F271">
-        <v>0.2444604880851246</v>
+        <v>0.2166162408042542</v>
       </c>
       <c r="G271">
-        <v>0.07682482223456112</v>
+        <v>0.06807441285608049</v>
       </c>
       <c r="H271">
-        <v>0.08543828191750545</v>
+        <v>0.07570679251568707</v>
       </c>
       <c r="I271">
-        <v>0.09811115487567895</v>
+        <v>0.08693621499574664</v>
       </c>
     </row>
     <row r="272" spans="1:9">
@@ -8277,25 +8268,25 @@
         <v>15</v>
       </c>
       <c r="C272">
-        <v>0.02706279659422342</v>
+        <v>0.02326811626977041</v>
       </c>
       <c r="D272">
-        <v>0.02672194335009394</v>
+        <v>0.02297505664868801</v>
       </c>
       <c r="E272">
-        <v>0.5039189148681283</v>
+        <v>0.4332606152089585</v>
       </c>
       <c r="F272">
-        <v>0.3130128017089461</v>
+        <v>0.269122898615916</v>
       </c>
       <c r="G272">
-        <v>0.2495689427538013</v>
+        <v>0.2145749851498581</v>
       </c>
       <c r="H272">
-        <v>-0.1630849820611825</v>
+        <v>0</v>
       </c>
       <c r="I272">
-        <v>0.04279958278598945</v>
+        <v>0.036798328106809</v>
       </c>
     </row>
     <row r="273" spans="1:9">
@@ -8306,25 +8297,25 @@
         <v>11</v>
       </c>
       <c r="C273">
-        <v>-0.02420710254789249</v>
+        <v>0</v>
       </c>
       <c r="D273">
-        <v>0.08036698466499535</v>
+        <v>0.06665742949126297</v>
       </c>
       <c r="E273">
-        <v>0.7642374893782949</v>
+        <v>0.6338685814226133</v>
       </c>
       <c r="F273">
-        <v>-0.07233794181899982</v>
+        <v>0</v>
       </c>
       <c r="G273">
-        <v>-0.1091267806399413</v>
+        <v>0</v>
       </c>
       <c r="H273">
-        <v>0.2509253796632493</v>
+        <v>0.2081207957744448</v>
       </c>
       <c r="I273">
-        <v>0.1101419713002941</v>
+        <v>0.091353193311679</v>
       </c>
     </row>
     <row r="274" spans="1:9">
@@ -8335,7 +8326,7 @@
         <v>21</v>
       </c>
       <c r="C274">
-        <v>0.04925086772799216</v>
+        <v>0.04925086772799215</v>
       </c>
       <c r="D274">
         <v>0.05106525315916829</v>
@@ -8370,7 +8361,7 @@
         <v>0.06291037762823813</v>
       </c>
       <c r="E275">
-        <v>0.2397340037441933</v>
+        <v>0.2397340037441934</v>
       </c>
       <c r="F275">
         <v>0.1411747449139825</v>
@@ -8422,25 +8413,25 @@
         <v>36</v>
       </c>
       <c r="C277">
-        <v>-0.006279684766192053</v>
+        <v>0</v>
       </c>
       <c r="D277">
-        <v>0.054690071989055</v>
+        <v>0.05434877879082115</v>
       </c>
       <c r="E277">
-        <v>0.2352262784940778</v>
+        <v>0.2337583497462063</v>
       </c>
       <c r="F277">
-        <v>0.1503852960601905</v>
+        <v>0.1494468171591205</v>
       </c>
       <c r="G277">
-        <v>0.1427983084689533</v>
+        <v>0.141907176136754</v>
       </c>
       <c r="H277">
-        <v>0.3730460815661437</v>
+        <v>0.3707180888311589</v>
       </c>
       <c r="I277">
-        <v>0.05013364818777168</v>
+        <v>0.04982078933593913</v>
       </c>
     </row>
     <row r="278" spans="1:9">
@@ -8457,7 +8448,7 @@
         <v>0.06971145458701858</v>
       </c>
       <c r="E278">
-        <v>0.2399291768389227</v>
+        <v>0.2399291768389226</v>
       </c>
       <c r="F278">
         <v>0.1374030572170233</v>
@@ -8466,7 +8457,7 @@
         <v>0.184496502645753</v>
       </c>
       <c r="H278">
-        <v>0.2873572122742003</v>
+        <v>0.2873572122742002</v>
       </c>
       <c r="I278">
         <v>0.06918524040844309</v>
@@ -8480,25 +8471,25 @@
         <v>35</v>
       </c>
       <c r="C279">
-        <v>-0.01603419411451195</v>
+        <v>0</v>
       </c>
       <c r="D279">
-        <v>0.1699525679193331</v>
+        <v>0.1672705199330905</v>
       </c>
       <c r="E279">
-        <v>0.3114948291992384</v>
+        <v>0.3065790807077221</v>
       </c>
       <c r="F279">
-        <v>0.00435792826331602</v>
+        <v>0.004289155117573591</v>
       </c>
       <c r="G279">
-        <v>0.1809268679986748</v>
+        <v>0.1780716328709341</v>
       </c>
       <c r="H279">
-        <v>0.2501320135770901</v>
+        <v>0.2461846412512559</v>
       </c>
       <c r="I279">
-        <v>0.09916998715685976</v>
+        <v>0.09760497011942375</v>
       </c>
     </row>
     <row r="280" spans="1:9">
@@ -8509,25 +8500,25 @@
         <v>37</v>
       </c>
       <c r="C280">
-        <v>-0.01296046579678504</v>
+        <v>0</v>
       </c>
       <c r="D280">
-        <v>0.1411242958529007</v>
+        <v>0.1393186611107212</v>
       </c>
       <c r="E280">
-        <v>0.2800848222108144</v>
+        <v>0.2765012373809696</v>
       </c>
       <c r="F280">
-        <v>0.03450483906492717</v>
+        <v>0.03406336202645972</v>
       </c>
       <c r="G280">
-        <v>0.06742606439597078</v>
+        <v>0.06656337208869653</v>
       </c>
       <c r="H280">
-        <v>0.2447132028327361</v>
+        <v>0.2415821851845392</v>
       </c>
       <c r="I280">
-        <v>0.245107241439436</v>
+        <v>0.2419711822086135</v>
       </c>
     </row>
     <row r="281" spans="1:9">
@@ -8538,10 +8529,10 @@
         <v>39</v>
       </c>
       <c r="C281">
-        <v>0.005091901680810616</v>
+        <v>0.005091901680810617</v>
       </c>
       <c r="D281">
-        <v>0.2689504655505605</v>
+        <v>0.2689504655505606</v>
       </c>
       <c r="E281">
         <v>0.26877471941661</v>
@@ -8556,7 +8547,7 @@
         <v>0.1174749238805635</v>
       </c>
       <c r="I281">
-        <v>0.2738203061550529</v>
+        <v>0.273820306155053</v>
       </c>
     </row>
     <row r="282" spans="1:9">
@@ -8596,10 +8587,10 @@
         <v>37</v>
       </c>
       <c r="C283">
-        <v>0.04098712096858022</v>
+        <v>0.04098712096858021</v>
       </c>
       <c r="D283">
-        <v>0.03857160675170028</v>
+        <v>0.03857160675170027</v>
       </c>
       <c r="E283">
         <v>0.2420920684759497</v>
@@ -8608,7 +8599,7 @@
         <v>0.1182436878590982</v>
       </c>
       <c r="G283">
-        <v>0.06476508402760925</v>
+        <v>0.06476508402760923</v>
       </c>
       <c r="H283">
         <v>0.3217605280281083</v>
@@ -8634,13 +8625,13 @@
         <v>0.2438345354496087</v>
       </c>
       <c r="F284">
-        <v>0.09246528001396014</v>
+        <v>0.09246528001396015</v>
       </c>
       <c r="G284">
         <v>0.05017371964017635</v>
       </c>
       <c r="H284">
-        <v>0.3506595408900279</v>
+        <v>0.350659540890028</v>
       </c>
       <c r="I284">
         <v>0.1161190951797417</v>
@@ -8654,25 +8645,25 @@
         <v>28</v>
       </c>
       <c r="C285">
-        <v>-0.0004710950454133477</v>
+        <v>0</v>
       </c>
       <c r="D285">
-        <v>0.1626596879050071</v>
+        <v>0.1625830958141012</v>
       </c>
       <c r="E285">
-        <v>0.1976529784688433</v>
+        <v>0.1975599089745531</v>
       </c>
       <c r="F285">
-        <v>0.0840581631160552</v>
+        <v>0.08401858237817418</v>
       </c>
       <c r="G285">
-        <v>0.006205745813420886</v>
+        <v>0.006202823693911111</v>
       </c>
       <c r="H285">
-        <v>0.2495071284196421</v>
+        <v>0.2493896421948267</v>
       </c>
       <c r="I285">
-        <v>0.3003873913224447</v>
+        <v>0.3002459469444337</v>
       </c>
     </row>
     <row r="286" spans="1:9">
@@ -8686,16 +8677,16 @@
         <v>0.005987968192850313</v>
       </c>
       <c r="D286">
-        <v>0.1127895647209197</v>
+        <v>0.1127895647209196</v>
       </c>
       <c r="E286">
         <v>0.01709092352813431</v>
       </c>
       <c r="F286">
-        <v>0.1853800303661197</v>
+        <v>0.1853800303661196</v>
       </c>
       <c r="G286">
-        <v>0.01182278027516527</v>
+        <v>0.01182278027516526</v>
       </c>
       <c r="H286">
         <v>0.4307979182148521</v>
@@ -8712,25 +8703,25 @@
         <v>21</v>
       </c>
       <c r="C287">
-        <v>-0.002154317292295152</v>
+        <v>0</v>
       </c>
       <c r="D287">
-        <v>0.06766695294632828</v>
+        <v>0.06752149023231926</v>
       </c>
       <c r="E287">
-        <v>0.1326539880930105</v>
+        <v>0.1323688236472664</v>
       </c>
       <c r="F287">
-        <v>0.2548074601390464</v>
+        <v>0.2542597040618521</v>
       </c>
       <c r="G287">
-        <v>0.03595993316090409</v>
+        <v>0.03588263058933245</v>
       </c>
       <c r="H287">
-        <v>0.3002810787811805</v>
+        <v>0.2996355686941559</v>
       </c>
       <c r="I287">
-        <v>0.2107849041718254</v>
+        <v>0.2103317827750738</v>
       </c>
     </row>
     <row r="288" spans="1:9">
@@ -8744,13 +8735,13 @@
         <v>0.01171606982823828</v>
       </c>
       <c r="D288">
-        <v>0.008518174040279238</v>
+        <v>0.008518174040279236</v>
       </c>
       <c r="E288">
-        <v>0.1489659375065408</v>
+        <v>0.1489659375065407</v>
       </c>
       <c r="F288">
-        <v>0.3995043351496411</v>
+        <v>0.399504335149641</v>
       </c>
       <c r="G288">
         <v>0.1005501969688287</v>
@@ -8759,7 +8750,7 @@
         <v>0.2700014692617405</v>
       </c>
       <c r="I288">
-        <v>0.06074381724473152</v>
+        <v>0.0607438172447315</v>
       </c>
     </row>
     <row r="289" spans="1:9">
@@ -8770,25 +8761,25 @@
         <v>26</v>
       </c>
       <c r="C289">
-        <v>0.004918305249691638</v>
+        <v>0.004915645195811471</v>
       </c>
       <c r="D289">
-        <v>-6.937923476730132E-05</v>
+        <v>0</v>
       </c>
       <c r="E289">
-        <v>0.1348079170134378</v>
+        <v>0.1347350064671167</v>
       </c>
       <c r="F289">
-        <v>0.4652227259897144</v>
+        <v>0.4649711113674848</v>
       </c>
       <c r="G289">
-        <v>0.131404714139625</v>
+        <v>0.1313336442076111</v>
       </c>
       <c r="H289">
-        <v>0.2641874779409373</v>
+        <v>0.2640445927619761</v>
       </c>
       <c r="I289">
-        <v>-0.0004717610986388388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:9">
@@ -8799,25 +8790,25 @@
         <v>28</v>
       </c>
       <c r="C290">
-        <v>-0.002646836349710841</v>
+        <v>0</v>
       </c>
       <c r="D290">
-        <v>0.0001207535989364802</v>
+        <v>0.000119716364409776</v>
       </c>
       <c r="E290">
-        <v>0.1557222231550723</v>
+        <v>0.1543846194078206</v>
       </c>
       <c r="F290">
-        <v>0.508672281936933</v>
+        <v>0.5043029508507439</v>
       </c>
       <c r="G290">
-        <v>0.07905133825403457</v>
+        <v>0.07837231271656478</v>
       </c>
       <c r="H290">
-        <v>0.2650975028363519</v>
+        <v>0.2628204006604609</v>
       </c>
       <c r="I290">
-        <v>-0.006017263431617519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:9">
@@ -8828,25 +8819,25 @@
         <v>29</v>
       </c>
       <c r="C291">
-        <v>0.0002165395858099838</v>
+        <v>0.0002151644053995088</v>
       </c>
       <c r="D291">
-        <v>0.0003333689375664109</v>
+        <v>0.0003312518076629461</v>
       </c>
       <c r="E291">
-        <v>0.1205790967904587</v>
+        <v>0.1198133337490326</v>
       </c>
       <c r="F291">
-        <v>0.5326853838271742</v>
+        <v>0.5293024527014617</v>
       </c>
       <c r="G291">
-        <v>0.1172344251899251</v>
+        <v>0.116489903192474</v>
       </c>
       <c r="H291">
-        <v>0.2353424863487557</v>
+        <v>0.2338478941439693</v>
       </c>
       <c r="I291">
-        <v>-0.006391300679690274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:9">
@@ -8857,25 +8848,25 @@
         <v>33</v>
       </c>
       <c r="C292">
-        <v>-0.001534527301024474</v>
+        <v>0</v>
       </c>
       <c r="D292">
-        <v>-0.0001016856372284797</v>
+        <v>0</v>
       </c>
       <c r="E292">
-        <v>0.141037788488686</v>
+        <v>0.1408073976029264</v>
       </c>
       <c r="F292">
-        <v>0.4268327617271763</v>
+        <v>0.4261355132868873</v>
       </c>
       <c r="G292">
-        <v>0.02180757657218805</v>
+        <v>0.02177195302096411</v>
       </c>
       <c r="H292">
-        <v>0.4109603952850373</v>
+        <v>0.4102890749921115</v>
       </c>
       <c r="I292">
-        <v>0.0009976908651652353</v>
+        <v>0.0009960610971108523</v>
       </c>
     </row>
     <row r="293" spans="1:9">
@@ -8886,25 +8877,25 @@
         <v>34</v>
       </c>
       <c r="C293">
-        <v>0.0004248965478925561</v>
+        <v>0.0004241302203210809</v>
       </c>
       <c r="D293">
-        <v>-0.000285548658443261</v>
+        <v>0</v>
       </c>
       <c r="E293">
-        <v>0.1557288142578211</v>
+        <v>0.1554479475747877</v>
       </c>
       <c r="F293">
-        <v>0.4242752978116976</v>
+        <v>0.4235100907037049</v>
       </c>
       <c r="G293">
-        <v>0.03476927665144239</v>
+        <v>0.03470656808044928</v>
       </c>
       <c r="H293">
-        <v>0.3866085361618266</v>
+        <v>0.3859112634207371</v>
       </c>
       <c r="I293">
-        <v>-0.001521272772236944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:9">
@@ -8915,25 +8906,25 @@
         <v>40</v>
       </c>
       <c r="C294">
-        <v>0.01465768705037913</v>
+        <v>0.01465135160934159</v>
       </c>
       <c r="D294">
-        <v>-0.000432413418670364</v>
+        <v>0</v>
       </c>
       <c r="E294">
-        <v>0.1924402980363843</v>
+        <v>0.1923571202364173</v>
       </c>
       <c r="F294">
-        <v>0.4105635179174974</v>
+        <v>0.4103860614776791</v>
       </c>
       <c r="G294">
-        <v>0.184311592772264</v>
+        <v>0.1842319284142701</v>
       </c>
       <c r="H294">
-        <v>0.1813445738874477</v>
+        <v>0.1812661919536956</v>
       </c>
       <c r="I294">
-        <v>0.01711474375469787</v>
+        <v>0.01710734630859619</v>
       </c>
     </row>
     <row r="295" spans="1:9">
@@ -8953,7 +8944,7 @@
         <v>0.1284275419460325</v>
       </c>
       <c r="F295">
-        <v>0.6530455772333645</v>
+        <v>0.6530455772333646</v>
       </c>
       <c r="G295">
         <v>0.06082300251279699</v>
@@ -8973,25 +8964,25 @@
         <v>51</v>
       </c>
       <c r="C296">
-        <v>0.02139602378749434</v>
+        <v>0.02123826619774883</v>
       </c>
       <c r="D296">
-        <v>0.001023573288871779</v>
+        <v>0.001016026257863398</v>
       </c>
       <c r="E296">
-        <v>0.1182048181291218</v>
+        <v>0.1173332680042217</v>
       </c>
       <c r="F296">
-        <v>0.6201543337507586</v>
+        <v>0.6155817994362317</v>
       </c>
       <c r="G296">
-        <v>0.1776705090955768</v>
+        <v>0.1763605053508549</v>
       </c>
       <c r="H296">
-        <v>0.06897873010298326</v>
+        <v>0.06847013475307938</v>
       </c>
       <c r="I296">
-        <v>-0.007427988154806629</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:9">
@@ -9002,10 +8993,10 @@
         <v>55</v>
       </c>
       <c r="C297">
-        <v>0.03629510713012007</v>
+        <v>0.03629510713012006</v>
       </c>
       <c r="D297">
-        <v>0.02604864076622924</v>
+        <v>0.02604864076622923</v>
       </c>
       <c r="E297">
         <v>0.1156150166898039</v>
@@ -9014,7 +9005,7 @@
         <v>0.5107856605684059</v>
       </c>
       <c r="G297">
-        <v>0.2595163050445953</v>
+        <v>0.2595163050445952</v>
       </c>
       <c r="H297">
         <v>0.03461461884391982</v>
@@ -9031,7 +9022,7 @@
         <v>56</v>
       </c>
       <c r="C298">
-        <v>0.02193334865969228</v>
+        <v>0.02193334865969229</v>
       </c>
       <c r="D298">
         <v>0.00720623661571541</v>
@@ -9040,7 +9031,7 @@
         <v>0.1243947866746688</v>
       </c>
       <c r="F298">
-        <v>0.3937881359975683</v>
+        <v>0.3937881359975684</v>
       </c>
       <c r="G298">
         <v>0.2919867741340884</v>
@@ -9049,7 +9040,7 @@
         <v>0.1246685929885871</v>
       </c>
       <c r="I298">
-        <v>0.03602212492967957</v>
+        <v>0.03602212492967958</v>
       </c>
     </row>
     <row r="299" spans="1:9">
@@ -9078,7 +9069,7 @@
         <v>0.2053127761909736</v>
       </c>
       <c r="I299">
-        <v>0.009026932297701655</v>
+        <v>0.009026932297701656</v>
       </c>
     </row>
     <row r="300" spans="1:9">
@@ -9118,7 +9109,7 @@
         <v>64</v>
       </c>
       <c r="C301">
-        <v>0.01152684283782541</v>
+        <v>0.01152684283782542</v>
       </c>
       <c r="D301">
         <v>0.2283900050722499</v>
@@ -9176,7 +9167,7 @@
         <v>61</v>
       </c>
       <c r="C303">
-        <v>0.0003043551046717149</v>
+        <v>0.000304355104671715</v>
       </c>
       <c r="D303">
         <v>0.1907602624357761</v>
@@ -9185,16 +9176,16 @@
         <v>0.1072052827050913</v>
       </c>
       <c r="F303">
-        <v>0.3456356806806079</v>
+        <v>0.345635680680608</v>
       </c>
       <c r="G303">
-        <v>0.06434647506298216</v>
+        <v>0.06434647506298218</v>
       </c>
       <c r="H303">
-        <v>0.1529548553352405</v>
+        <v>0.1529548553352406</v>
       </c>
       <c r="I303">
-        <v>0.1387930886756303</v>
+        <v>0.1387930886756304</v>
       </c>
     </row>
     <row r="304" spans="1:9">
@@ -9205,25 +9196,25 @@
         <v>67</v>
       </c>
       <c r="C304">
-        <v>-0.009966968066359482</v>
+        <v>0</v>
       </c>
       <c r="D304">
-        <v>0.1221121619397942</v>
+        <v>0.1191878394591527</v>
       </c>
       <c r="E304">
-        <v>0.1282732890589154</v>
+        <v>0.125201420893599</v>
       </c>
       <c r="F304">
-        <v>0.3554197738258725</v>
+        <v>0.3469082380529169</v>
       </c>
       <c r="G304">
-        <v>-0.01456844170288722</v>
+        <v>0</v>
       </c>
       <c r="H304">
-        <v>0.214141456437554</v>
+        <v>0.209013231163757</v>
       </c>
       <c r="I304">
-        <v>0.2045887285071106</v>
+        <v>0.1996892704305745</v>
       </c>
     </row>
     <row r="305" spans="1:9">
@@ -9243,10 +9234,10 @@
         <v>0.1112113635601727</v>
       </c>
       <c r="F305">
-        <v>0.3317921901889179</v>
+        <v>0.3317921901889178</v>
       </c>
       <c r="G305">
-        <v>0.0986213221018441</v>
+        <v>0.09862132210184409</v>
       </c>
       <c r="H305">
         <v>0.1963408204227383</v>
@@ -9266,7 +9257,7 @@
         <v>0.008173478606787195</v>
       </c>
       <c r="D306">
-        <v>0.08614420751077823</v>
+        <v>0.08614420751077824</v>
       </c>
       <c r="E306">
         <v>0.1623561619965497</v>
@@ -9292,25 +9283,25 @@
         <v>29</v>
       </c>
       <c r="C307">
-        <v>0.006679570854094912</v>
+        <v>0.006605316027478314</v>
       </c>
       <c r="D307">
-        <v>-0.0001461169087472459</v>
+        <v>0</v>
       </c>
       <c r="E307">
-        <v>0.1097563998271064</v>
+        <v>0.1085362701784738</v>
       </c>
       <c r="F307">
-        <v>0.5770646823276327</v>
+        <v>0.5706496238053428</v>
       </c>
       <c r="G307">
-        <v>0.1486053592121086</v>
+        <v>0.1469533570964595</v>
       </c>
       <c r="H307">
-        <v>0.1691356643782839</v>
+        <v>0.1672554328922456</v>
       </c>
       <c r="I307">
-        <v>-0.01109555969047919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:9">
@@ -9321,25 +9312,25 @@
         <v>35</v>
       </c>
       <c r="C308">
-        <v>0.01394548112770998</v>
+        <v>0.01373376214476072</v>
       </c>
       <c r="D308">
-        <v>-7.505684193264327E-05</v>
+        <v>0</v>
       </c>
       <c r="E308">
-        <v>0.1103167171257985</v>
+        <v>0.1086418991013585</v>
       </c>
       <c r="F308">
-        <v>0.6183105885370613</v>
+        <v>0.6089234553321904</v>
       </c>
       <c r="G308">
-        <v>0.163823787932958</v>
+        <v>0.1613366305917069</v>
       </c>
       <c r="H308">
-        <v>0.1090193747240919</v>
+        <v>0.1073642528299834</v>
       </c>
       <c r="I308">
-        <v>-0.01534089260568704</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:9">
@@ -9350,25 +9341,25 @@
         <v>41</v>
       </c>
       <c r="C309">
-        <v>0.000196571141377027</v>
+        <v>0.0001919707197264795</v>
       </c>
       <c r="D309">
-        <v>0.0001105020478484993</v>
+        <v>0.0001079159306301176</v>
       </c>
       <c r="E309">
-        <v>0.1092942110678709</v>
+        <v>0.106736361266756</v>
       </c>
       <c r="F309">
-        <v>0.6136529058368828</v>
+        <v>0.5992913770073853</v>
       </c>
       <c r="G309">
-        <v>0.2014884535685179</v>
+        <v>0.1967729503789928</v>
       </c>
       <c r="H309">
-        <v>0.0992215403396375</v>
+        <v>0.09689942469650936</v>
       </c>
       <c r="I309">
-        <v>-0.02396418400213467</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:9">
@@ -9391,10 +9382,10 @@
         <v>0.6608576613518244</v>
       </c>
       <c r="G310">
-        <v>0.08373116702784816</v>
+        <v>0.08373116702784818</v>
       </c>
       <c r="H310">
-        <v>0.08482773536874166</v>
+        <v>0.08482773536874168</v>
       </c>
       <c r="I310">
         <v>0.0110680578625605</v>
@@ -9423,7 +9414,7 @@
         <v>0.1656345938311128</v>
       </c>
       <c r="H311">
-        <v>0.06207395554871316</v>
+        <v>0.06207395554871317</v>
       </c>
       <c r="I311">
         <v>0.01101156383384425</v>
@@ -9437,25 +9428,25 @@
         <v>11</v>
       </c>
       <c r="C312">
-        <v>0.02809567459175493</v>
+        <v>0.02809567459175494</v>
       </c>
       <c r="D312">
         <v>0.001018212808292979</v>
       </c>
       <c r="E312">
-        <v>0.1507785830900874</v>
+        <v>0.1507785830900875</v>
       </c>
       <c r="F312">
-        <v>0.5555980314673492</v>
+        <v>0.5555980314673494</v>
       </c>
       <c r="G312">
-        <v>0.1466918669698374</v>
+        <v>0.1466918669698375</v>
       </c>
       <c r="H312">
-        <v>0.09357104873510985</v>
+        <v>0.09357104873510988</v>
       </c>
       <c r="I312">
-        <v>0.024246582337568</v>
+        <v>0.02424658233756801</v>
       </c>
     </row>
     <row r="313" spans="1:9">
@@ -9466,25 +9457,25 @@
         <v>25</v>
       </c>
       <c r="C313">
-        <v>0.03926864789634438</v>
+        <v>0.0392219769113374</v>
       </c>
       <c r="D313">
-        <v>-0.001189919241257925</v>
+        <v>0</v>
       </c>
       <c r="E313">
-        <v>0.2103698705501732</v>
+        <v>0.210119844903752</v>
       </c>
       <c r="F313">
-        <v>0.239750827372365</v>
+        <v>0.2394658823113779</v>
       </c>
       <c r="G313">
-        <v>0.222182863042496</v>
+        <v>0.2219187975952406</v>
       </c>
       <c r="H313">
-        <v>0.2502332755303803</v>
+        <v>0.2499358720271745</v>
       </c>
       <c r="I313">
-        <v>0.03938443484949924</v>
+        <v>0.03933762625111762</v>
       </c>
     </row>
     <row r="314" spans="1:9">
@@ -9524,22 +9515,22 @@
         <v>53</v>
       </c>
       <c r="C315">
-        <v>0.03473232279485571</v>
+        <v>0.03473232279485573</v>
       </c>
       <c r="D315">
-        <v>0.01085244719416937</v>
+        <v>0.01085244719416938</v>
       </c>
       <c r="E315">
-        <v>0.1692743924206074</v>
+        <v>0.1692743924206075</v>
       </c>
       <c r="F315">
-        <v>0.3109380166897477</v>
+        <v>0.3109380166897478</v>
       </c>
       <c r="G315">
         <v>0.1844842429205497</v>
       </c>
       <c r="H315">
-        <v>0.2520717377504847</v>
+        <v>0.2520717377504848</v>
       </c>
       <c r="I315">
         <v>0.03764684022958509</v>
@@ -9553,25 +9544,25 @@
         <v>64</v>
       </c>
       <c r="C316">
-        <v>0.02969354881810892</v>
+        <v>0.02946324611305291</v>
       </c>
       <c r="D316">
-        <v>0.05823567030788806</v>
+        <v>0.05778399535031354</v>
       </c>
       <c r="E316">
-        <v>0.001805155844465822</v>
+        <v>0.001791155083675162</v>
       </c>
       <c r="F316">
-        <v>0.3184924528047558</v>
+        <v>0.3160222302702191</v>
       </c>
       <c r="G316">
-        <v>0.2535855406095512</v>
+        <v>0.2516187350814139</v>
       </c>
       <c r="H316">
-        <v>0.3460042416442921</v>
+        <v>0.3433206381013253</v>
       </c>
       <c r="I316">
-        <v>-0.007816610029061836</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:9">
@@ -9582,25 +9573,25 @@
         <v>64</v>
       </c>
       <c r="C317">
-        <v>-0.002061896544067313</v>
+        <v>0</v>
       </c>
       <c r="D317">
-        <v>0.146050598016558</v>
+        <v>0.1457500764376536</v>
       </c>
       <c r="E317">
-        <v>0.2100551157117612</v>
+        <v>0.2096228949890259</v>
       </c>
       <c r="F317">
-        <v>0.4293214414980079</v>
+        <v>0.4284380465704374</v>
       </c>
       <c r="G317">
-        <v>0.0680103470108069</v>
+        <v>0.06787040525676351</v>
       </c>
       <c r="H317">
-        <v>0.01252527686778559</v>
+        <v>0.01249950418330748</v>
       </c>
       <c r="I317">
-        <v>0.1360991174391477</v>
+        <v>0.1358190725628121</v>
       </c>
     </row>
     <row r="318" spans="1:9">
@@ -9611,25 +9602,25 @@
         <v>50</v>
       </c>
       <c r="C318">
-        <v>-0.02858974430610886</v>
+        <v>0</v>
       </c>
       <c r="D318">
-        <v>0.1325155668393359</v>
+        <v>0.1126363747958587</v>
       </c>
       <c r="E318">
-        <v>0.3659614836460322</v>
+        <v>0.3110621326683793</v>
       </c>
       <c r="F318">
-        <v>0.2022859386482747</v>
+        <v>0.1719402131007277</v>
       </c>
       <c r="G318">
-        <v>-0.1479002402082732</v>
+        <v>0</v>
       </c>
       <c r="H318">
-        <v>0.1824229108296729</v>
+        <v>0.1550569178070575</v>
       </c>
       <c r="I318">
-        <v>0.2933040845510663</v>
+        <v>0.2493043616279767</v>
       </c>
     </row>
     <row r="319" spans="1:9">
@@ -9652,7 +9643,7 @@
         <v>0.3335466184938212</v>
       </c>
       <c r="G319">
-        <v>0.05596695798703832</v>
+        <v>0.05596695798703831</v>
       </c>
       <c r="H319">
         <v>0.1106918059067274</v>
@@ -9678,7 +9669,7 @@
         <v>0.08897089064664127</v>
       </c>
       <c r="F320">
-        <v>0.3869131132187832</v>
+        <v>0.3869131132187833</v>
       </c>
       <c r="G320">
         <v>0.1565378405732917</v>
@@ -9698,25 +9689,25 @@
         <v>23</v>
       </c>
       <c r="C321">
-        <v>-0.01792228653203786</v>
+        <v>0</v>
       </c>
       <c r="D321">
-        <v>0.116820446498677</v>
+        <v>0.1147636200172735</v>
       </c>
       <c r="E321">
-        <v>0.1611054380273279</v>
+        <v>0.1582688974972721</v>
       </c>
       <c r="F321">
-        <v>0.3091240658204245</v>
+        <v>0.3036814007418779</v>
       </c>
       <c r="G321">
-        <v>0.0002880963758734331</v>
+        <v>0.0002830239397301629</v>
       </c>
       <c r="H321">
-        <v>0.195059838607105</v>
+        <v>0.191625471991241</v>
       </c>
       <c r="I321">
-        <v>0.2355244012026299</v>
+        <v>0.2313775858126053</v>
       </c>
     </row>
     <row r="322" spans="1:9">
@@ -9727,19 +9718,19 @@
         <v>19</v>
       </c>
       <c r="C322">
-        <v>0.01795161010427006</v>
+        <v>0.01795161010427005</v>
       </c>
       <c r="D322">
-        <v>0.06218719849582803</v>
+        <v>0.062187198495828</v>
       </c>
       <c r="E322">
-        <v>0.1203474753622629</v>
+        <v>0.1203474753622628</v>
       </c>
       <c r="F322">
-        <v>0.4770833164713376</v>
+        <v>0.4770833164713374</v>
       </c>
       <c r="G322">
-        <v>0.05673095493525741</v>
+        <v>0.05673095493525739</v>
       </c>
       <c r="H322">
         <v>0.1027330024349625</v>
@@ -9759,7 +9750,7 @@
         <v>0.007279504703187286</v>
       </c>
       <c r="D323">
-        <v>0.08494085190474067</v>
+        <v>0.08494085190474068</v>
       </c>
       <c r="E323">
         <v>0.06335991897525692</v>
@@ -9785,25 +9776,25 @@
         <v>34</v>
       </c>
       <c r="C324">
-        <v>-0.003019708326991652</v>
+        <v>0</v>
       </c>
       <c r="D324">
-        <v>0.0001260930160322744</v>
+        <v>0.0001235497214881616</v>
       </c>
       <c r="E324">
-        <v>0.08111305970794755</v>
+        <v>0.07947701031597557</v>
       </c>
       <c r="F324">
-        <v>0.6259814378424182</v>
+        <v>0.6133554001309165</v>
       </c>
       <c r="G324">
-        <v>0.09427490462277682</v>
+        <v>0.09237338098476272</v>
       </c>
       <c r="H324">
-        <v>0.2190896952384415</v>
+        <v>0.2146706588468571</v>
       </c>
       <c r="I324">
-        <v>-0.01756548210062486</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:9">
@@ -9814,25 +9805,25 @@
         <v>37</v>
       </c>
       <c r="C325">
-        <v>0.002495761528370622</v>
+        <v>0.002464347603020417</v>
       </c>
       <c r="D325">
-        <v>-0.0004599730951759635</v>
+        <v>0</v>
       </c>
       <c r="E325">
-        <v>0.1954358200647703</v>
+        <v>0.1929758870172892</v>
       </c>
       <c r="F325">
-        <v>0.5351748187819713</v>
+        <v>0.5284386215870804</v>
       </c>
       <c r="G325">
-        <v>0.1125623284484466</v>
+        <v>0.1111455165684135</v>
       </c>
       <c r="H325">
-        <v>0.1670786308880759</v>
+        <v>0.1649756272241965</v>
       </c>
       <c r="I325">
-        <v>-0.01228738661645859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:9">
@@ -9861,7 +9852,7 @@
         <v>0.1552843241786672</v>
       </c>
       <c r="I326">
-        <v>0.04597112824134496</v>
+        <v>0.04597112824134495</v>
       </c>
     </row>
   </sheetData>
